--- a/DATA/DataMaster.xlsx
+++ b/DATA/DataMaster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\University\4th year\Thesis\Hopefully\Thesis\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED838D-2B85-4E5F-B712-0983BF01B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CEEADB-2F2E-436D-AA69-BDB9F194B26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineMaster" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="213">
   <si>
     <t>MachineID</t>
   </si>
@@ -655,9 +655,6 @@
     <t>Back leg</t>
   </si>
   <si>
-    <t>OldQuantity</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -671,18 +668,26 @@
   </si>
   <si>
     <t>SCVBD-601-70026A</t>
+  </si>
+  <si>
+    <t>NumOperation</t>
+  </si>
+  <si>
+    <t>TotalOperation</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _B_F_-;\-* #,##0\ _B_F_-;_-* &quot;-&quot;\ _B_F_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1003,7 +1008,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1464,13 +1469,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1481,31 +1480,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1830,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="88" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2017,13 +2001,13 @@
       <c r="B5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="208" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="209" t="s">
+      <c r="C5" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="99" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="77" t="b">
@@ -2723,10 +2707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3BC26D-AF97-4798-83B8-6ABF36AF857F}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E22"/>
+      <selection activeCell="E23" activeCellId="1" sqref="B23:C24 E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2736,13 +2720,12 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="186" t="s">
         <v>186</v>
       </c>
@@ -2758,8 +2741,11 @@
       <c r="E1" s="186" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="195" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="155" t="s">
         <v>191</v>
       </c>
@@ -2776,8 +2762,11 @@
         <f>ROUND(D2*60*60,0)*ComponentMaster!$O$2</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="194" t="s">
         <v>191</v>
       </c>
@@ -2794,8 +2783,11 @@
         <f>ROUND(D3*60*60,0)*ComponentMaster!$O$2</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="145" t="s">
         <v>192</v>
       </c>
@@ -2812,8 +2804,11 @@
         <f>ROUND(D4*60*60,0)*ComponentMaster!$O$2</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="193" t="s">
         <v>192</v>
       </c>
@@ -2830,8 +2825,11 @@
         <f>ROUND(D5*60*60,0)*ComponentMaster!$O$2</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="189" t="s">
         <v>193</v>
       </c>
@@ -2848,8 +2846,11 @@
         <f>ROUND(D6*60*60,0)*ComponentMaster!$O$2</f>
         <v>495</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="190" t="s">
         <v>194</v>
       </c>
@@ -2866,8 +2867,11 @@
         <f>ROUND(D7*60*60,0)*ComponentMaster!$O$2</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="191" t="s">
         <v>194</v>
       </c>
@@ -2884,8 +2888,11 @@
         <f>ROUND(D8*60*60,0)*ComponentMaster!$O$2</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="191" t="s">
         <v>194</v>
       </c>
@@ -2902,8 +2909,11 @@
         <f>ROUND(D9*60*60,0)*ComponentMaster!$O$2</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="191" t="s">
         <v>194</v>
       </c>
@@ -2920,8 +2930,11 @@
         <f>ROUND(D10*60*60,0)*ComponentMaster!$O$2</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="191" t="s">
         <v>194</v>
       </c>
@@ -2938,8 +2951,11 @@
         <f>ROUND(D11*60*60,0)*ComponentMaster!$O$2</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="191" t="s">
         <v>194</v>
       </c>
@@ -2956,8 +2972,11 @@
         <f>ROUND(D12*60*60,0)*ComponentMaster!$O$2</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="191" t="s">
         <v>194</v>
       </c>
@@ -2974,8 +2993,11 @@
         <f>ROUND(D13*60*60,0)*ComponentMaster!$O$2</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="191" t="s">
         <v>194</v>
       </c>
@@ -2992,8 +3014,11 @@
         <f>ROUND(D14*60*60,0)*ComponentMaster!$O$2</f>
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="191" t="s">
         <v>194</v>
       </c>
@@ -3010,8 +3035,11 @@
         <f>ROUND(D15*60*60,0)*ComponentMaster!$O$2</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="191" t="s">
         <v>194</v>
       </c>
@@ -3028,8 +3056,11 @@
         <f>ROUND(D16*60*60,0)*ComponentMaster!$O$2</f>
         <v>755</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="191" t="s">
         <v>194</v>
       </c>
@@ -3046,8 +3077,11 @@
         <f>ROUND(D17*60*60,0)*ComponentMaster!$O$2</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="191" t="s">
         <v>194</v>
       </c>
@@ -3064,8 +3098,11 @@
         <f>ROUND(D18*60*60,0)*ComponentMaster!$O$2</f>
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="191" t="s">
         <v>194</v>
       </c>
@@ -3082,8 +3119,11 @@
         <f>ROUND(D19*60*60,0)*ComponentMaster!$O$2</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="191" t="s">
         <v>194</v>
       </c>
@@ -3100,8 +3140,11 @@
         <f>ROUND(D20*60*60,0)*ComponentMaster!$O$2</f>
         <v>565</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="191" t="s">
         <v>194</v>
       </c>
@@ -3118,8 +3161,11 @@
         <f>ROUND(D21*60*60,0)*ComponentMaster!$O$2</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="191" t="s">
         <v>194</v>
       </c>
@@ -3136,8 +3182,11 @@
         <f>ROUND(D22*60*60,0)*ComponentMaster!$O$2</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="191" t="s">
         <v>194</v>
       </c>
@@ -3154,8 +3203,11 @@
         <f>ROUND(D23*60*60,0)*ComponentMaster!$O$2</f>
         <v>330</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="192" t="s">
         <v>194</v>
       </c>
@@ -3172,13 +3224,13 @@
         <f>ROUND(D24*60*60,0)*ComponentMaster!$O$2</f>
         <v>330</v>
       </c>
-    </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H45" s="197"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="197"/>
-      <c r="K45" s="197"/>
-      <c r="L45" s="197"/>
+      <c r="F24" s="192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3187,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1E3C2B-EB2A-4B5B-9A38-8DCE83FFCF73}">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3198,11 +3250,12 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="195" t="s">
         <v>187</v>
       </c>
@@ -3213,2753 +3266,4283 @@
         <v>105</v>
       </c>
       <c r="D1" s="195" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="195" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="195" t="s">
-        <v>205</v>
-      </c>
       <c r="F1" s="195" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="199">
+        <v>210</v>
+      </c>
+      <c r="G1" s="195" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="197">
         <v>1</v>
       </c>
-      <c r="B2" s="198" t="s">
-        <v>153</v>
+      <c r="B2" s="199" t="s">
+        <v>182</v>
       </c>
       <c r="C2" s="199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="199">
-        <f>_xlfn.XLOOKUP(B2,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <v>495</v>
       </c>
       <c r="E2" s="199">
-        <v>1008</v>
+        <v>300</v>
       </c>
       <c r="F2" s="199">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="201">
+        <v>5</v>
+      </c>
+      <c r="G2" s="199">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="199">
         <v>1</v>
       </c>
-      <c r="B3" s="200" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="201" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="201">
-        <f>_xlfn.XLOOKUP(B3,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E3" s="201">
-        <v>1008</v>
-      </c>
-      <c r="F3" s="201">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="201">
+      <c r="B3" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="199">
+        <v>30</v>
+      </c>
+      <c r="E3" s="199">
+        <v>200</v>
+      </c>
+      <c r="F3" s="199">
+        <v>2</v>
+      </c>
+      <c r="G3" s="199">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="199">
         <v>1</v>
       </c>
-      <c r="B4" s="200" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="201" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="201">
-        <f>_xlfn.XLOOKUP(B4,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E4" s="201">
-        <v>1008</v>
-      </c>
-      <c r="F4" s="201">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="201">
-        <v>1</v>
-      </c>
-      <c r="B5" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="201" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="201">
+      <c r="B4" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="199">
+        <v>565</v>
+      </c>
+      <c r="E4" s="199">
+        <v>140</v>
+      </c>
+      <c r="F4" s="199">
+        <v>6</v>
+      </c>
+      <c r="G4" s="199">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="202">
+        <v>2</v>
+      </c>
+      <c r="B5" s="201" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="202" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="202">
         <f>_xlfn.XLOOKUP(B5,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E5" s="201">
-        <v>1008</v>
-      </c>
-      <c r="F5" s="201">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="204">
+        <v>35</v>
+      </c>
+      <c r="E5" s="202">
+        <v>180</v>
+      </c>
+      <c r="F5" s="202">
+        <f>_xlfn.XLOOKUP(B5,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="203" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="204" t="s">
+      <c r="G5" s="202">
+        <f t="shared" ref="G5:G67" si="0">E5*F5</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="202">
+        <v>2</v>
+      </c>
+      <c r="B6" s="201" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="202" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="204">
+      <c r="D6" s="202">
         <f>_xlfn.XLOOKUP(B6,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>35</v>
       </c>
-      <c r="E6" s="204">
-        <v>1008</v>
-      </c>
-      <c r="F6" s="204">
+      <c r="E6" s="202">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="204">
+      <c r="F6" s="202">
+        <f>_xlfn.XLOOKUP(B6,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
         <v>2</v>
       </c>
-      <c r="B7" s="203" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="204" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="204">
+      <c r="G6" s="202">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="202">
+        <v>2</v>
+      </c>
+      <c r="B7" s="201" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="202" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="202">
         <f>_xlfn.XLOOKUP(B7,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
-      </c>
-      <c r="E7" s="204">
-        <v>1008</v>
-      </c>
-      <c r="F7" s="204">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="204">
+        <v>350</v>
+      </c>
+      <c r="E7" s="202">
+        <v>200</v>
+      </c>
+      <c r="F7" s="202">
+        <f>_xlfn.XLOOKUP(B7,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="202">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="202">
         <v>2</v>
       </c>
-      <c r="B8" s="203" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="204" t="s">
+      <c r="B8" s="201" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="202" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="204">
+      <c r="D8" s="202">
         <f>_xlfn.XLOOKUP(B8,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>350</v>
       </c>
-      <c r="E8" s="204">
-        <v>1008</v>
-      </c>
-      <c r="F8" s="204">
+      <c r="E8" s="202">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="204">
-        <v>2</v>
-      </c>
-      <c r="B9" s="203" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="204" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="204">
+      <c r="F8" s="202">
+        <f>_xlfn.XLOOKUP(B8,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="202">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="199">
+        <v>3</v>
+      </c>
+      <c r="B9" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="199">
         <f>_xlfn.XLOOKUP(B9,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
-      </c>
-      <c r="E9" s="204">
-        <v>1008</v>
-      </c>
-      <c r="F9" s="204">
+        <v>150</v>
+      </c>
+      <c r="E9" s="199">
+        <v>150</v>
+      </c>
+      <c r="F9" s="199">
+        <f>_xlfn.XLOOKUP(B9,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="199">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="199">
+        <v>3</v>
+      </c>
+      <c r="B10" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="199" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="201">
+      <c r="D10" s="199">
+        <f>_xlfn.XLOOKUP(B10,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>145</v>
+      </c>
+      <c r="E10" s="199">
+        <v>150</v>
+      </c>
+      <c r="F10" s="199">
+        <f>_xlfn.XLOOKUP(B10,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
         <v>3</v>
       </c>
-      <c r="B10" s="200" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="201" t="s">
+      <c r="G10" s="199">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="199">
+        <v>3</v>
+      </c>
+      <c r="B11" s="198" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="201">
-        <f>_xlfn.XLOOKUP(B10,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D11" s="199">
+        <f>_xlfn.XLOOKUP(B11,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>755</v>
+      </c>
+      <c r="E11" s="199">
+        <v>265</v>
+      </c>
+      <c r="F11" s="199">
+        <f>_xlfn.XLOOKUP(B11,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="199">
+        <f t="shared" si="0"/>
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="202">
+        <v>4</v>
+      </c>
+      <c r="B12" s="204" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="203" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="203">
+        <f>_xlfn.XLOOKUP(B12,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>150</v>
       </c>
-      <c r="E10" s="201">
-        <v>1008</v>
-      </c>
-      <c r="F10" s="201">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="201">
+      <c r="E12" s="202">
+        <v>415</v>
+      </c>
+      <c r="F12" s="203">
+        <f>_xlfn.XLOOKUP(B12,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
         <v>3</v>
       </c>
-      <c r="B11" s="200" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="201">
-        <f>_xlfn.XLOOKUP(B11,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
-      </c>
-      <c r="E11" s="201">
-        <v>1008</v>
-      </c>
-      <c r="F11" s="201">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="201">
-        <v>3</v>
-      </c>
-      <c r="B12" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="201">
-        <f>_xlfn.XLOOKUP(B12,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
-      </c>
-      <c r="E12" s="201">
-        <v>2016</v>
-      </c>
-      <c r="F12" s="201">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="204">
+      <c r="G12" s="203">
+        <f t="shared" si="0"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="202">
         <v>4</v>
       </c>
-      <c r="B13" s="207" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="206" t="s">
+      <c r="B13" s="201" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="202" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="206">
+      <c r="D13" s="202">
         <f>_xlfn.XLOOKUP(B13,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>150</v>
       </c>
-      <c r="E13" s="206">
-        <v>1008</v>
-      </c>
-      <c r="F13" s="204">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="204">
+      <c r="E13" s="202">
+        <v>415</v>
+      </c>
+      <c r="F13" s="202">
+        <f>_xlfn.XLOOKUP(B13,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="202">
+        <f t="shared" si="0"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="202">
         <v>4</v>
       </c>
-      <c r="B14" s="203" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="204" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="204">
+      <c r="B14" s="201" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="202">
         <f>_xlfn.XLOOKUP(B14,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E14" s="204">
-        <v>1008</v>
-      </c>
-      <c r="F14" s="204">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="204">
+        <v>155</v>
+      </c>
+      <c r="E14" s="202">
+        <v>400</v>
+      </c>
+      <c r="F14" s="202">
+        <f>_xlfn.XLOOKUP(B14,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="202">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="202">
         <v>4</v>
       </c>
-      <c r="B15" s="203" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="204" t="s">
+      <c r="B15" s="201" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D15" s="204">
+      <c r="D15" s="202">
         <f>_xlfn.XLOOKUP(B15,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>155</v>
       </c>
-      <c r="E15" s="204">
-        <v>1008</v>
-      </c>
-      <c r="F15" s="204">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="204">
-        <v>4</v>
-      </c>
-      <c r="B16" s="203" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="204" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="204">
+      <c r="E15" s="202">
+        <v>400</v>
+      </c>
+      <c r="F15" s="202">
+        <f>_xlfn.XLOOKUP(B15,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="202">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="199">
+        <v>5</v>
+      </c>
+      <c r="B16" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="199">
         <f>_xlfn.XLOOKUP(B16,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>30</v>
+      </c>
+      <c r="E16" s="199">
+        <v>120</v>
+      </c>
+      <c r="F16" s="199">
+        <f>_xlfn.XLOOKUP(B16,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G16" s="199">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="199">
+        <v>5</v>
+      </c>
+      <c r="B17" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="199">
+        <f>_xlfn.XLOOKUP(B17,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>565</v>
+      </c>
+      <c r="E17" s="199">
+        <v>240</v>
+      </c>
+      <c r="F17" s="199">
+        <f>_xlfn.XLOOKUP(B17,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G17" s="199">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="202">
+        <v>6</v>
+      </c>
+      <c r="B18" s="201" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="202">
+        <f>_xlfn.XLOOKUP(B18,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>150</v>
+      </c>
+      <c r="E18" s="202">
         <v>155</v>
       </c>
-      <c r="E16" s="204">
-        <v>1008</v>
-      </c>
-      <c r="F16" s="204">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="201">
-        <v>5</v>
-      </c>
-      <c r="B17" s="200" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="201">
-        <f>_xlfn.XLOOKUP(B17,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>30</v>
-      </c>
-      <c r="E17" s="201">
-        <v>2016</v>
-      </c>
-      <c r="F17" s="201">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="201">
-        <v>5</v>
-      </c>
-      <c r="B18" s="200" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="201">
-        <f>_xlfn.XLOOKUP(B18,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
-      </c>
-      <c r="E18" s="201">
-        <v>4032</v>
-      </c>
-      <c r="F18" s="201">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="204">
+      <c r="F18" s="202">
+        <f>_xlfn.XLOOKUP(B18,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="202">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="202">
         <v>6</v>
       </c>
-      <c r="B19" s="203" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="204" t="s">
+      <c r="B19" s="201" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="202" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="204">
+      <c r="D19" s="202">
         <f>_xlfn.XLOOKUP(B19,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>150</v>
       </c>
-      <c r="E19" s="204">
-        <v>544</v>
-      </c>
-      <c r="F19" s="204">
+      <c r="E19" s="202">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="204">
+      <c r="F19" s="202">
+        <f>_xlfn.XLOOKUP(B19,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="202">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="202">
         <v>6</v>
       </c>
-      <c r="B20" s="203" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="204" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="204">
+      <c r="B20" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="202">
         <f>_xlfn.XLOOKUP(B20,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E20" s="204">
-        <v>544</v>
-      </c>
-      <c r="F20" s="204">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="204">
+        <v>330</v>
+      </c>
+      <c r="E20" s="202">
+        <v>310</v>
+      </c>
+      <c r="F20" s="202">
+        <f>_xlfn.XLOOKUP(B20,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="202">
+        <f t="shared" si="0"/>
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="202">
         <v>6</v>
       </c>
-      <c r="B21" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="204" t="s">
+      <c r="B21" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="202" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="204">
+      <c r="D21" s="202">
         <f>_xlfn.XLOOKUP(B21,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>330</v>
       </c>
-      <c r="E21" s="204">
-        <v>1088</v>
-      </c>
-      <c r="F21" s="204">
+      <c r="E21" s="202">
         <v>310</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="204">
-        <v>6</v>
-      </c>
-      <c r="B22" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="204">
+      <c r="F21" s="202">
+        <f>_xlfn.XLOOKUP(B21,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G21" s="202">
+        <f t="shared" si="0"/>
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="199">
+        <v>7</v>
+      </c>
+      <c r="B22" s="198" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="199" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="199">
         <f>_xlfn.XLOOKUP(B22,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E22" s="204">
-        <v>1088</v>
-      </c>
-      <c r="F22" s="204">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="201">
+        <v>35</v>
+      </c>
+      <c r="E22" s="199">
+        <v>200</v>
+      </c>
+      <c r="F22" s="199">
+        <f>_xlfn.XLOOKUP(B22,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="199">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="199">
         <v>7</v>
       </c>
-      <c r="B23" s="200" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="201" t="s">
+      <c r="B23" s="198" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="201">
+      <c r="D23" s="199">
         <f>_xlfn.XLOOKUP(B23,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>35</v>
       </c>
-      <c r="E23" s="201">
-        <v>544</v>
-      </c>
-      <c r="F23" s="201">
+      <c r="E23" s="199">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="201">
+      <c r="F23" s="199">
+        <f>_xlfn.XLOOKUP(B23,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="199">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="199">
         <v>7</v>
       </c>
-      <c r="B24" s="200" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="201" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="201">
+      <c r="B24" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="199">
         <f>_xlfn.XLOOKUP(B24,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
-      </c>
-      <c r="E24" s="201">
-        <v>544</v>
-      </c>
-      <c r="F24" s="201">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="201">
+        <v>350</v>
+      </c>
+      <c r="E24" s="199">
+        <v>190</v>
+      </c>
+      <c r="F24" s="199">
+        <f>_xlfn.XLOOKUP(B24,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G24" s="199">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="199">
         <v>7</v>
       </c>
-      <c r="B25" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="201" t="s">
+      <c r="B25" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="201">
+      <c r="D25" s="199">
         <f>_xlfn.XLOOKUP(B25,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>350</v>
       </c>
-      <c r="E25" s="201">
-        <v>544</v>
-      </c>
-      <c r="F25" s="201">
+      <c r="E25" s="199">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="201">
+      <c r="F25" s="199">
+        <f>_xlfn.XLOOKUP(B25,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G25" s="199">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="202">
+        <v>8</v>
+      </c>
+      <c r="B26" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="202">
+        <f>_xlfn.XLOOKUP(B26,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>150</v>
+      </c>
+      <c r="E26" s="202">
+        <v>140</v>
+      </c>
+      <c r="F26" s="202">
+        <f>_xlfn.XLOOKUP(B26,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G26" s="202">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="202">
+        <v>8</v>
+      </c>
+      <c r="B27" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="202">
+        <f>_xlfn.XLOOKUP(B27,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>145</v>
+      </c>
+      <c r="E27" s="202">
+        <v>140</v>
+      </c>
+      <c r="F27" s="202">
+        <f>_xlfn.XLOOKUP(B27,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G27" s="202">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="202">
+        <v>8</v>
+      </c>
+      <c r="B28" s="201" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="202">
+        <f>_xlfn.XLOOKUP(B28,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>755</v>
+      </c>
+      <c r="E28" s="202">
+        <v>250</v>
+      </c>
+      <c r="F28" s="202">
+        <f>_xlfn.XLOOKUP(B28,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
         <v>7</v>
       </c>
-      <c r="B26" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="201">
-        <f>_xlfn.XLOOKUP(B26,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
-      </c>
-      <c r="E26" s="201">
-        <v>544</v>
-      </c>
-      <c r="F26" s="201">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="204">
-        <v>8</v>
-      </c>
-      <c r="B27" s="203" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="204">
-        <f>_xlfn.XLOOKUP(B27,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E27" s="204">
-        <v>544</v>
-      </c>
-      <c r="F27" s="204">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="204">
-        <v>8</v>
-      </c>
-      <c r="B28" s="203" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="204">
-        <f>_xlfn.XLOOKUP(B28,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
-      </c>
-      <c r="E28" s="204">
-        <v>544</v>
-      </c>
-      <c r="F28" s="204">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="204">
-        <v>8</v>
-      </c>
-      <c r="B29" s="203" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="204">
+      <c r="G28" s="202">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="199">
+        <v>9</v>
+      </c>
+      <c r="B29" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="199">
         <f>_xlfn.XLOOKUP(B29,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
-      </c>
-      <c r="E29" s="204">
-        <v>1088</v>
-      </c>
-      <c r="F29" s="204">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="201">
+        <v>80</v>
+      </c>
+      <c r="E29" s="199">
+        <v>710</v>
+      </c>
+      <c r="F29" s="199">
+        <f>_xlfn.XLOOKUP(B29,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G29" s="199">
+        <f t="shared" si="0"/>
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="199">
         <v>9</v>
       </c>
-      <c r="B30" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="201">
+      <c r="B30" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="199">
         <f>_xlfn.XLOOKUP(B30,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>80</v>
-      </c>
-      <c r="E30" s="201">
-        <v>3808</v>
-      </c>
-      <c r="F30" s="201">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="201">
-        <v>9</v>
-      </c>
-      <c r="B31" s="200" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="201">
+        <v>30</v>
+      </c>
+      <c r="E30" s="199">
+        <v>600</v>
+      </c>
+      <c r="F30" s="199">
+        <f>_xlfn.XLOOKUP(B30,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G30" s="199">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="202">
+        <v>10</v>
+      </c>
+      <c r="B31" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="202">
         <f>_xlfn.XLOOKUP(B31,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>30</v>
-      </c>
-      <c r="E31" s="201">
-        <v>2016</v>
-      </c>
-      <c r="F31" s="201">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="204">
+        <v>330</v>
+      </c>
+      <c r="E31" s="202">
+        <v>4</v>
+      </c>
+      <c r="F31" s="202">
+        <f>_xlfn.XLOOKUP(B31,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G31" s="202">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="202">
         <v>10</v>
       </c>
-      <c r="B32" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="204" t="s">
+      <c r="B32" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="202" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="204">
+      <c r="D32" s="202">
         <f>_xlfn.XLOOKUP(B32,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>330</v>
       </c>
-      <c r="E32" s="205">
-        <v>24</v>
-      </c>
-      <c r="F32" s="204">
+      <c r="E32" s="202">
+        <v>4</v>
+      </c>
+      <c r="F32" s="202">
+        <f>_xlfn.XLOOKUP(B32,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G32" s="202">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="202">
+        <v>10</v>
+      </c>
+      <c r="B33" s="201" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="202">
+        <f>_xlfn.XLOOKUP(B33,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>565</v>
+      </c>
+      <c r="E33" s="202">
+        <v>240</v>
+      </c>
+      <c r="F33" s="202">
+        <f>_xlfn.XLOOKUP(B33,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G33" s="202">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="202">
+        <v>10</v>
+      </c>
+      <c r="B34" s="202" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="202">
+        <f>_xlfn.XLOOKUP(B34,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>35</v>
+      </c>
+      <c r="E34" s="202">
+        <v>15</v>
+      </c>
+      <c r="F34" s="202">
+        <f>_xlfn.XLOOKUP(B34,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="202">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="202">
+        <v>10</v>
+      </c>
+      <c r="B35" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="202">
+        <f>_xlfn.XLOOKUP(B35,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>20</v>
+      </c>
+      <c r="E35" s="202">
+        <v>1</v>
+      </c>
+      <c r="F35" s="202">
+        <f>_xlfn.XLOOKUP(B35,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="202">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="199">
+        <v>11</v>
+      </c>
+      <c r="B36" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="199">
+        <f>_xlfn.XLOOKUP(B36,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>150</v>
+      </c>
+      <c r="E36" s="199">
+        <v>500</v>
+      </c>
+      <c r="F36" s="199">
+        <f>_xlfn.XLOOKUP(B36,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G36" s="199">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="199">
+        <v>11</v>
+      </c>
+      <c r="B37" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="199">
+        <f>_xlfn.XLOOKUP(B37,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>145</v>
+      </c>
+      <c r="E37" s="199">
+        <v>1200</v>
+      </c>
+      <c r="F37" s="199">
+        <f>_xlfn.XLOOKUP(B37,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G37" s="199">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="202">
+        <v>12</v>
+      </c>
+      <c r="B38" s="202" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="202">
+        <f>_xlfn.XLOOKUP(B38,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>35</v>
+      </c>
+      <c r="E38" s="202">
+        <v>90</v>
+      </c>
+      <c r="F38" s="202">
+        <f>_xlfn.XLOOKUP(B38,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="202">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="202">
+        <v>12</v>
+      </c>
+      <c r="B39" s="202" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="202">
+        <f>_xlfn.XLOOKUP(B39,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>20</v>
+      </c>
+      <c r="E39" s="202">
+        <v>180</v>
+      </c>
+      <c r="F39" s="202">
+        <f>_xlfn.XLOOKUP(B39,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="202">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="202">
+        <v>12</v>
+      </c>
+      <c r="B40" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="202">
+        <v>495</v>
+      </c>
+      <c r="E40" s="202">
+        <v>400</v>
+      </c>
+      <c r="F40" s="202">
+        <f>_xlfn.XLOOKUP(B40,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="204">
-        <v>10</v>
-      </c>
-      <c r="B33" s="203" t="s">
+      <c r="G40" s="202">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="199">
+        <v>13</v>
+      </c>
+      <c r="B41" s="199" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="199" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="199">
+        <f>_xlfn.XLOOKUP(B41,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>20</v>
+      </c>
+      <c r="E41" s="199">
+        <v>400</v>
+      </c>
+      <c r="F41" s="199">
+        <f>_xlfn.XLOOKUP(B41,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="199">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="200">
+        <v>13</v>
+      </c>
+      <c r="B42" s="200" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="200" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="200">
+        <f>_xlfn.XLOOKUP(B42,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>495</v>
+      </c>
+      <c r="E42" s="200">
+        <v>360</v>
+      </c>
+      <c r="F42" s="200">
+        <f>_xlfn.XLOOKUP(B42,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>5</v>
+      </c>
+      <c r="G42" s="200">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="202">
+        <v>14</v>
+      </c>
+      <c r="B43" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="202">
+        <f>_xlfn.XLOOKUP(B43,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>330</v>
+      </c>
+      <c r="E43" s="202">
+        <v>140</v>
+      </c>
+      <c r="F43" s="202">
+        <f>_xlfn.XLOOKUP(B43,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G43" s="202">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="202">
+        <v>14</v>
+      </c>
+      <c r="B44" s="201" t="s">
         <v>168</v>
-      </c>
-      <c r="C33" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="204">
-        <f>_xlfn.XLOOKUP(B33,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E33" s="205">
-        <v>24</v>
-      </c>
-      <c r="F33" s="204">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="204">
-        <v>10</v>
-      </c>
-      <c r="B34" s="203" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="204">
-        <f>_xlfn.XLOOKUP(B34,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
-      </c>
-      <c r="E34" s="205">
-        <v>2176</v>
-      </c>
-      <c r="F34" s="204">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="204">
-        <v>10</v>
-      </c>
-      <c r="B35" s="204" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="204">
-        <f>_xlfn.XLOOKUP(B35,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
-      </c>
-      <c r="E35" s="205">
-        <v>365</v>
-      </c>
-      <c r="F35" s="204">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="204">
-        <v>10</v>
-      </c>
-      <c r="B36" s="204" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="204">
-        <f>_xlfn.XLOOKUP(B36,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
-      </c>
-      <c r="E36" s="205">
-        <v>6</v>
-      </c>
-      <c r="F36" s="204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="201">
-        <v>11</v>
-      </c>
-      <c r="B37" s="200" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="201">
-        <f>_xlfn.XLOOKUP(B37,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E37" s="196">
-        <v>73</v>
-      </c>
-      <c r="F37" s="201"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="201">
-        <v>11</v>
-      </c>
-      <c r="B38" s="200" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="201">
-        <f>_xlfn.XLOOKUP(B38,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
-      </c>
-      <c r="E38" s="196">
-        <v>172</v>
-      </c>
-      <c r="F38" s="201"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="204">
-        <v>12</v>
-      </c>
-      <c r="B39" s="204" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="204">
-        <f>_xlfn.XLOOKUP(B39,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
-      </c>
-      <c r="E39" s="205">
-        <v>470</v>
-      </c>
-      <c r="F39" s="204"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="204">
-        <v>12</v>
-      </c>
-      <c r="B40" s="204" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="204">
-        <f>_xlfn.XLOOKUP(B40,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
-      </c>
-      <c r="E40" s="205">
-        <v>940</v>
-      </c>
-      <c r="F40" s="204"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="204">
-        <v>12</v>
-      </c>
-      <c r="B41" s="203" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="204" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" s="204">
-        <f>_xlfn.XLOOKUP(B41,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E41" s="204">
-        <v>1552</v>
-      </c>
-      <c r="F41" s="204"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="204">
-        <v>12</v>
-      </c>
-      <c r="B42" s="203" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="204" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="204">
-        <f>_xlfn.XLOOKUP(B42,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E42" s="204">
-        <v>1552</v>
-      </c>
-      <c r="F42" s="204"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="201">
-        <v>13</v>
-      </c>
-      <c r="B43" s="201" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="201" t="s">
-        <v>195</v>
-      </c>
-      <c r="D43" s="201">
-        <f>_xlfn.XLOOKUP(B43,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
-      </c>
-      <c r="E43" s="201"/>
-      <c r="F43" s="201"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="202">
-        <v>13</v>
-      </c>
-      <c r="B44" s="202" t="s">
-        <v>182</v>
       </c>
       <c r="C44" s="202" t="s">
         <v>196</v>
       </c>
       <c r="D44" s="202">
         <f>_xlfn.XLOOKUP(B44,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>495</v>
-      </c>
-      <c r="E44" s="202"/>
-      <c r="F44" s="202"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="204">
+        <v>330</v>
+      </c>
+      <c r="E44" s="202">
+        <v>140</v>
+      </c>
+      <c r="F44" s="202">
+        <f>_xlfn.XLOOKUP(B44,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G44" s="202">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="202">
         <v>14</v>
       </c>
-      <c r="B45" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="204">
+      <c r="B45" s="201" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="202">
         <f>_xlfn.XLOOKUP(B45,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E45" s="205"/>
-      <c r="F45" s="204"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="204">
-        <v>14</v>
-      </c>
-      <c r="B46" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="C46" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" s="204">
+        <v>565</v>
+      </c>
+      <c r="E45" s="202">
+        <v>140</v>
+      </c>
+      <c r="F45" s="202">
+        <f>_xlfn.XLOOKUP(B45,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G45" s="202">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="199">
+        <v>15</v>
+      </c>
+      <c r="B46" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="199">
         <f>_xlfn.XLOOKUP(B46,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E46" s="205"/>
-      <c r="F46" s="204"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="204">
-        <v>14</v>
-      </c>
-      <c r="B47" s="203" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="199">
+        <v>250</v>
+      </c>
+      <c r="F46" s="199">
+        <f>_xlfn.XLOOKUP(B46,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G46" s="199">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="199">
+        <v>15</v>
+      </c>
+      <c r="B47" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="199">
+        <f>_xlfn.XLOOKUP(B47,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>145</v>
+      </c>
+      <c r="E47" s="199">
+        <v>250</v>
+      </c>
+      <c r="F47" s="199">
+        <f>_xlfn.XLOOKUP(B47,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G47" s="199">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="199">
+        <v>15</v>
+      </c>
+      <c r="B48" s="198" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" s="199">
+        <f>_xlfn.XLOOKUP(B48,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>755</v>
+      </c>
+      <c r="E48" s="199">
+        <v>250</v>
+      </c>
+      <c r="F48" s="199">
+        <f>_xlfn.XLOOKUP(B48,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G48" s="199">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="202">
+        <v>16</v>
+      </c>
+      <c r="B49" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="204" t="s">
+      <c r="C49" s="202" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="204">
-        <f>_xlfn.XLOOKUP(B47,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D49" s="202">
+        <f>_xlfn.XLOOKUP(B49,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>565</v>
       </c>
-      <c r="E47" s="205"/>
-      <c r="F47" s="204"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="201">
-        <v>15</v>
-      </c>
-      <c r="B48" s="200" t="s">
+      <c r="E49" s="202">
+        <v>220</v>
+      </c>
+      <c r="F49" s="202">
+        <f>_xlfn.XLOOKUP(B49,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G49" s="202">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="202">
+        <v>16</v>
+      </c>
+      <c r="B50" s="202" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="202">
+        <v>155</v>
+      </c>
+      <c r="E50" s="202">
+        <v>350</v>
+      </c>
+      <c r="F50" s="202">
+        <f>_xlfn.XLOOKUP(B50,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G50" s="202">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="202">
+        <v>16</v>
+      </c>
+      <c r="B51" s="202" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="202">
+        <v>155</v>
+      </c>
+      <c r="E51" s="202">
+        <v>300</v>
+      </c>
+      <c r="F51" s="202">
+        <f>_xlfn.XLOOKUP(B51,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G51" s="202">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="199">
+        <v>17</v>
+      </c>
+      <c r="B52" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="199">
+        <f>_xlfn.XLOOKUP(B52,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>80</v>
+      </c>
+      <c r="E52" s="199">
+        <v>500</v>
+      </c>
+      <c r="F52" s="199">
+        <f>_xlfn.XLOOKUP(B52,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G52" s="199">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="199">
+        <v>17</v>
+      </c>
+      <c r="B53" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="199">
+        <f>_xlfn.XLOOKUP(B53,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>155</v>
+      </c>
+      <c r="E53" s="199">
+        <v>200</v>
+      </c>
+      <c r="F53" s="199">
+        <f>_xlfn.XLOOKUP(B53,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G53" s="199">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="199">
+        <v>17</v>
+      </c>
+      <c r="B54" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="199">
+        <f>_xlfn.XLOOKUP(B54,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>155</v>
+      </c>
+      <c r="E54" s="199">
+        <v>200</v>
+      </c>
+      <c r="F54" s="199">
+        <f>_xlfn.XLOOKUP(B54,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G54" s="199">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="199">
+        <v>17</v>
+      </c>
+      <c r="B55" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="199">
+        <v>565</v>
+      </c>
+      <c r="E55" s="199">
+        <v>200</v>
+      </c>
+      <c r="F55" s="199">
+        <f>_xlfn.XLOOKUP(B55,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G55" s="199">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="202">
+        <v>18</v>
+      </c>
+      <c r="B56" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="201" t="s">
+      <c r="C56" s="202" t="s">
         <v>200</v>
       </c>
-      <c r="D48" s="201">
-        <f>_xlfn.XLOOKUP(B48,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D56" s="202">
+        <f>_xlfn.XLOOKUP(B56,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>150</v>
       </c>
-      <c r="E48" s="201"/>
-      <c r="F48" s="201"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="201">
-        <v>15</v>
-      </c>
-      <c r="B49" s="200" t="s">
+      <c r="E56" s="202">
+        <v>260</v>
+      </c>
+      <c r="F56" s="202">
+        <f>_xlfn.XLOOKUP(B56,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G56" s="202">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="202">
+        <v>18</v>
+      </c>
+      <c r="B57" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="201" t="s">
+      <c r="C57" s="202" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="201">
-        <f>_xlfn.XLOOKUP(B49,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D57" s="202">
+        <f>_xlfn.XLOOKUP(B57,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>145</v>
       </c>
-      <c r="E49" s="201"/>
-      <c r="F49" s="201"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="201">
-        <v>15</v>
-      </c>
-      <c r="B50" s="200" t="s">
+      <c r="E57" s="202">
+        <v>260</v>
+      </c>
+      <c r="F57" s="202">
+        <f>_xlfn.XLOOKUP(B57,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G57" s="202">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="202">
+        <v>18</v>
+      </c>
+      <c r="B58" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="201" t="s">
+      <c r="C58" s="202" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="201">
-        <f>_xlfn.XLOOKUP(B50,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D58" s="202">
+        <f>_xlfn.XLOOKUP(B58,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>755</v>
       </c>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="204">
-        <v>16</v>
-      </c>
-      <c r="B51" s="203" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="204">
-        <f>_xlfn.XLOOKUP(B51,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
-      </c>
-      <c r="E51" s="205"/>
-      <c r="F51" s="204"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="204">
-        <v>16</v>
-      </c>
-      <c r="B52" s="204" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="204">
-        <f>_xlfn.XLOOKUP(B52,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
-      </c>
-      <c r="E52" s="205"/>
-      <c r="F52" s="204"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="204">
-        <v>16</v>
-      </c>
-      <c r="B53" s="204" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="204">
-        <f>_xlfn.XLOOKUP(B53,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
-      </c>
-      <c r="E53" s="205"/>
-      <c r="F53" s="204"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="201">
-        <v>17</v>
-      </c>
-      <c r="B54" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="201">
-        <f>_xlfn.XLOOKUP(B54,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>80</v>
-      </c>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="201">
-        <v>17</v>
-      </c>
-      <c r="B55" s="200" t="s">
+      <c r="E58" s="202">
+        <v>230</v>
+      </c>
+      <c r="F58" s="202">
+        <f>_xlfn.XLOOKUP(B58,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G58" s="202">
+        <f t="shared" si="0"/>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="199">
+        <v>19</v>
+      </c>
+      <c r="B59" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="199">
+        <f>_xlfn.XLOOKUP(B59,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>150</v>
+      </c>
+      <c r="E59" s="199">
+        <v>400</v>
+      </c>
+      <c r="F59" s="199">
+        <f>_xlfn.XLOOKUP(B59,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G59" s="199">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="199">
+        <v>19</v>
+      </c>
+      <c r="B60" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="199">
+        <f>_xlfn.XLOOKUP(B60,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>145</v>
+      </c>
+      <c r="E60" s="199">
+        <v>400</v>
+      </c>
+      <c r="F60" s="199">
+        <f>_xlfn.XLOOKUP(B60,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G60" s="199">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="199">
+        <v>19</v>
+      </c>
+      <c r="B61" s="198" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="201" t="s">
+      <c r="C61" s="199" t="s">
         <v>202</v>
       </c>
-      <c r="D55" s="201">
-        <f>_xlfn.XLOOKUP(B55,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D61" s="199">
+        <f>_xlfn.XLOOKUP(B61,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>155</v>
       </c>
-      <c r="E55" s="201"/>
-      <c r="F55" s="201"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="201">
-        <v>17</v>
-      </c>
-      <c r="B56" s="200" t="s">
+      <c r="E61" s="199">
+        <v>380</v>
+      </c>
+      <c r="F61" s="199">
+        <f>_xlfn.XLOOKUP(B61,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G61" s="199">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="199">
+        <v>19</v>
+      </c>
+      <c r="B62" s="198" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="201" t="s">
+      <c r="C62" s="199" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="201">
-        <f>_xlfn.XLOOKUP(B56,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
-      </c>
-      <c r="E56" s="201"/>
-      <c r="F56" s="201"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="204">
-        <v>18</v>
-      </c>
-      <c r="B57" s="203" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" s="204">
-        <f>_xlfn.XLOOKUP(B57,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E57" s="204"/>
-      <c r="F57" s="204"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="204">
-        <v>18</v>
-      </c>
-      <c r="B58" s="203" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="204">
-        <f>_xlfn.XLOOKUP(B58,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
-      </c>
-      <c r="E58" s="204"/>
-      <c r="F58" s="204"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="204">
-        <v>18</v>
-      </c>
-      <c r="B59" s="203" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="204">
-        <f>_xlfn.XLOOKUP(B59,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
-      </c>
-      <c r="E59" s="204"/>
-      <c r="F59" s="204"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="201">
-        <v>19</v>
-      </c>
-      <c r="B60" s="200" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="201">
-        <f>_xlfn.XLOOKUP(B60,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E60" s="201"/>
-      <c r="F60" s="201"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="201">
-        <v>19</v>
-      </c>
-      <c r="B61" s="200" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="201">
-        <f>_xlfn.XLOOKUP(B61,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
-      </c>
-      <c r="E61" s="201"/>
-      <c r="F61" s="201"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="201">
-        <v>19</v>
-      </c>
-      <c r="B62" s="200" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="201" t="s">
-        <v>202</v>
-      </c>
-      <c r="D62" s="201">
+      <c r="D62" s="199">
         <f>_xlfn.XLOOKUP(B62,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>155</v>
       </c>
-      <c r="E62" s="201"/>
-      <c r="F62" s="201"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="201">
-        <v>19</v>
-      </c>
-      <c r="B63" s="200" t="s">
+      <c r="E62" s="199">
+        <v>380</v>
+      </c>
+      <c r="F62" s="199">
+        <f>_xlfn.XLOOKUP(B62,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G62" s="199">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="202">
+        <v>20</v>
+      </c>
+      <c r="B63" s="202" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="202">
+        <f>_xlfn.XLOOKUP(B63,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>35</v>
+      </c>
+      <c r="E63" s="202">
+        <v>490</v>
+      </c>
+      <c r="F63" s="202">
+        <f>_xlfn.XLOOKUP(B63,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G63" s="202">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="202">
+        <v>20</v>
+      </c>
+      <c r="B64" s="202" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="202" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="202">
+        <f>_xlfn.XLOOKUP(B64,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>20</v>
+      </c>
+      <c r="E64" s="202">
+        <v>490</v>
+      </c>
+      <c r="F64" s="202">
+        <f>_xlfn.XLOOKUP(B64,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="202">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="202">
+        <v>20</v>
+      </c>
+      <c r="B65" s="202" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="202">
+        <v>30</v>
+      </c>
+      <c r="E65" s="202">
+        <v>280</v>
+      </c>
+      <c r="F65" s="202">
+        <f>_xlfn.XLOOKUP(B65,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G65" s="202">
+        <f t="shared" ref="G65" si="1">E65*F65</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="202">
+        <v>20</v>
+      </c>
+      <c r="B66" s="202" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="202">
+        <v>565</v>
+      </c>
+      <c r="E66" s="202">
+        <v>265</v>
+      </c>
+      <c r="F66" s="202">
+        <f>_xlfn.XLOOKUP(B66,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G66" s="202">
+        <f t="shared" ref="G66" si="2">E66*F66</f>
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="199">
+        <v>21</v>
+      </c>
+      <c r="B67" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="199">
+        <v>330</v>
+      </c>
+      <c r="E67" s="199">
+        <v>300</v>
+      </c>
+      <c r="F67" s="199">
+        <f>_xlfn.XLOOKUP(B67,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G67" s="199">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="199">
+        <v>21</v>
+      </c>
+      <c r="B68" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="199">
+        <v>330</v>
+      </c>
+      <c r="E68" s="199">
+        <v>320</v>
+      </c>
+      <c r="F68" s="199">
+        <f>_xlfn.XLOOKUP(B68,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G68" s="199">
+        <f t="shared" ref="G68:G140" si="3">E68*F68</f>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="199">
+        <v>21</v>
+      </c>
+      <c r="B69" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="199">
+        <v>150</v>
+      </c>
+      <c r="E69" s="199">
+        <v>170</v>
+      </c>
+      <c r="F69" s="199">
+        <f>_xlfn.XLOOKUP(B69,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G69" s="199">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="199">
+        <v>21</v>
+      </c>
+      <c r="B70" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="199">
+        <v>145</v>
+      </c>
+      <c r="E70" s="199">
+        <v>170</v>
+      </c>
+      <c r="F70" s="199">
+        <f>_xlfn.XLOOKUP(B70,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G70" s="199">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="202">
+        <v>22</v>
+      </c>
+      <c r="B71" s="201" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="202">
+        <v>155</v>
+      </c>
+      <c r="E71" s="202">
+        <v>400</v>
+      </c>
+      <c r="F71" s="202">
+        <f>_xlfn.XLOOKUP(B71,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G71" s="202">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="202">
+        <v>22</v>
+      </c>
+      <c r="B72" s="201" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="201" t="s">
+      <c r="C72" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D63" s="201">
-        <f>_xlfn.XLOOKUP(B63,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D72" s="202">
         <v>155</v>
       </c>
-      <c r="E63" s="201"/>
-      <c r="F63" s="201"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="204">
-        <v>20</v>
-      </c>
-      <c r="B64" s="204" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" s="204">
-        <f>_xlfn.XLOOKUP(B64,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="E72" s="202">
+        <v>400</v>
+      </c>
+      <c r="F72" s="202">
+        <f>_xlfn.XLOOKUP(B72,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G72" s="202">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="202">
+        <v>22</v>
+      </c>
+      <c r="B73" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="202">
+        <v>150</v>
+      </c>
+      <c r="E73" s="202">
+        <v>150</v>
+      </c>
+      <c r="F73" s="202">
+        <f>_xlfn.XLOOKUP(B73,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G73" s="202">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="202">
+        <v>22</v>
+      </c>
+      <c r="B74" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="202">
+        <v>145</v>
+      </c>
+      <c r="E74" s="202">
+        <v>150</v>
+      </c>
+      <c r="F74" s="202">
+        <f>_xlfn.XLOOKUP(B74,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G74" s="202">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="202">
+        <v>22</v>
+      </c>
+      <c r="B75" s="201" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="202">
+        <v>755</v>
+      </c>
+      <c r="E75" s="202">
+        <v>200</v>
+      </c>
+      <c r="F75" s="202">
+        <f>_xlfn.XLOOKUP(B75,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G75" s="202">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="199">
+        <v>23</v>
+      </c>
+      <c r="B76" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="199">
+        <v>350</v>
+      </c>
+      <c r="E76" s="199">
+        <v>210</v>
+      </c>
+      <c r="F76" s="199">
+        <f>_xlfn.XLOOKUP(B76,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G76" s="199">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="199">
+        <v>23</v>
+      </c>
+      <c r="B77" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="199">
+        <v>350</v>
+      </c>
+      <c r="E77" s="199">
+        <v>210</v>
+      </c>
+      <c r="F77" s="199">
+        <f>_xlfn.XLOOKUP(B77,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G77" s="199">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="199">
+        <v>23</v>
+      </c>
+      <c r="B78" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="199">
+        <v>155</v>
+      </c>
+      <c r="E78" s="199">
+        <v>180</v>
+      </c>
+      <c r="F78" s="199">
+        <f>_xlfn.XLOOKUP(B78,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G78" s="199">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="199">
+        <v>23</v>
+      </c>
+      <c r="B79" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" s="199">
+        <v>155</v>
+      </c>
+      <c r="E79" s="199">
+        <v>180</v>
+      </c>
+      <c r="F79" s="199">
+        <f>_xlfn.XLOOKUP(B79,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G79" s="199">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="202">
+        <v>24</v>
+      </c>
+      <c r="B80" s="201" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="202" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="202">
         <v>35</v>
       </c>
-      <c r="E64" s="205"/>
-      <c r="F64" s="204"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="204">
-        <v>20</v>
-      </c>
-      <c r="B65" s="204" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="204">
-        <f>_xlfn.XLOOKUP(B65,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
-      </c>
-      <c r="E65" s="205"/>
-      <c r="F65" s="204"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="201">
-        <v>21</v>
-      </c>
-      <c r="B66" s="200" t="s">
+      <c r="E80" s="202">
+        <v>516</v>
+      </c>
+      <c r="F80" s="202">
+        <f>_xlfn.XLOOKUP(B80,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G80" s="202">
+        <f t="shared" si="3"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="202">
+        <v>24</v>
+      </c>
+      <c r="B81" s="201" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="202" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="202">
+        <v>35</v>
+      </c>
+      <c r="E81" s="202">
+        <v>516</v>
+      </c>
+      <c r="F81" s="202">
+        <f>_xlfn.XLOOKUP(B81,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G81" s="202">
+        <f t="shared" si="3"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="202">
+        <v>24</v>
+      </c>
+      <c r="B82" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="202">
+        <v>150</v>
+      </c>
+      <c r="E82" s="202">
+        <v>618</v>
+      </c>
+      <c r="F82" s="202">
+        <f>_xlfn.XLOOKUP(B82,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G82" s="202">
+        <f t="shared" ref="G82:G83" si="4">E82*F82</f>
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="202">
+        <v>24</v>
+      </c>
+      <c r="B83" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" s="202">
+        <v>145</v>
+      </c>
+      <c r="E83" s="202">
+        <v>516</v>
+      </c>
+      <c r="F83" s="202">
+        <f>_xlfn.XLOOKUP(B83,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G83" s="202">
+        <f t="shared" si="4"/>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="202">
+        <v>24</v>
+      </c>
+      <c r="B84" s="201" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="202" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" s="202">
+        <v>80</v>
+      </c>
+      <c r="E84" s="202">
+        <v>516</v>
+      </c>
+      <c r="F84" s="202">
+        <f>_xlfn.XLOOKUP(B84,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G84" s="202">
+        <f t="shared" si="3"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="199">
+        <v>25</v>
+      </c>
+      <c r="B85" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="199">
+        <f>_xlfn.XLOOKUP(B85,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>30</v>
+      </c>
+      <c r="E85" s="199">
+        <v>250</v>
+      </c>
+      <c r="F85" s="199">
+        <f>_xlfn.XLOOKUP(B85,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G85" s="199">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="199">
+        <v>25</v>
+      </c>
+      <c r="B86" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="199">
+        <f>_xlfn.XLOOKUP(B86,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>565</v>
+      </c>
+      <c r="E86" s="199">
+        <v>201</v>
+      </c>
+      <c r="F86" s="199">
+        <f>_xlfn.XLOOKUP(B86,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G86" s="199">
+        <f t="shared" si="3"/>
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="199">
+        <v>25</v>
+      </c>
+      <c r="B87" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="201" t="s">
+      <c r="C87" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="201">
+      <c r="D87" s="199">
+        <f>_xlfn.XLOOKUP(B87,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>330</v>
       </c>
-      <c r="E66" s="201"/>
-      <c r="F66" s="201"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="201">
-        <v>21</v>
-      </c>
-      <c r="B67" s="200" t="s">
+      <c r="E87" s="199">
+        <v>35</v>
+      </c>
+      <c r="F87" s="199">
+        <f>_xlfn.XLOOKUP(B87,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G87" s="199">
+        <f t="shared" ref="G87:G88" si="5">E87*F87</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="199">
+        <v>25</v>
+      </c>
+      <c r="B88" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="201" t="s">
+      <c r="C88" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="201">
+      <c r="D88" s="199">
+        <f>_xlfn.XLOOKUP(B88,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>330</v>
       </c>
-      <c r="E67" s="201"/>
-      <c r="F67" s="201"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="201">
-        <v>21</v>
-      </c>
-      <c r="B68" s="200" t="s">
+      <c r="E88" s="199">
+        <v>35</v>
+      </c>
+      <c r="F88" s="199">
+        <f>_xlfn.XLOOKUP(B88,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G88" s="199">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="202">
+        <v>26</v>
+      </c>
+      <c r="B89" s="201" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="202">
+        <v>755</v>
+      </c>
+      <c r="E89" s="202">
+        <v>180</v>
+      </c>
+      <c r="F89" s="202">
+        <f>_xlfn.XLOOKUP(B89,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G89" s="202">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="202">
+        <v>26</v>
+      </c>
+      <c r="B90" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" s="202">
+        <f>_xlfn.XLOOKUP(B90,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>330</v>
+      </c>
+      <c r="E90" s="202">
+        <v>96</v>
+      </c>
+      <c r="F90" s="202">
+        <f>_xlfn.XLOOKUP(B90,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G90" s="202">
+        <f t="shared" si="3"/>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="202">
+        <v>26</v>
+      </c>
+      <c r="B91" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="202">
+        <f>_xlfn.XLOOKUP(B91,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>330</v>
+      </c>
+      <c r="E91" s="202">
+        <v>96</v>
+      </c>
+      <c r="F91" s="202">
+        <f>_xlfn.XLOOKUP(B91,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G91" s="202">
+        <f t="shared" si="3"/>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="199">
+        <v>27</v>
+      </c>
+      <c r="B92" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" s="199">
+        <v>30</v>
+      </c>
+      <c r="E92" s="199">
+        <v>200</v>
+      </c>
+      <c r="F92" s="199">
+        <f>_xlfn.XLOOKUP(B92,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G92" s="199">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="199">
+        <v>27</v>
+      </c>
+      <c r="B93" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="199">
+        <v>565</v>
+      </c>
+      <c r="E93" s="199">
+        <v>175</v>
+      </c>
+      <c r="F93" s="199">
+        <f>_xlfn.XLOOKUP(B93,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G93" s="199">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="199">
+        <v>27</v>
+      </c>
+      <c r="B94" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" s="199">
+        <v>350</v>
+      </c>
+      <c r="E94" s="199">
+        <v>68</v>
+      </c>
+      <c r="F94" s="199">
+        <f>_xlfn.XLOOKUP(B94,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G94" s="199">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="199">
+        <v>27</v>
+      </c>
+      <c r="B95" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" s="199">
+        <v>350</v>
+      </c>
+      <c r="E95" s="199">
+        <v>68</v>
+      </c>
+      <c r="F95" s="199">
+        <f>_xlfn.XLOOKUP(B95,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G95" s="199">
+        <f t="shared" si="3"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="202">
+        <v>28</v>
+      </c>
+      <c r="B96" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="202">
+        <v>30</v>
+      </c>
+      <c r="E96" s="202">
+        <v>224</v>
+      </c>
+      <c r="F96" s="202">
+        <f>_xlfn.XLOOKUP(B96,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G96" s="202">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="202">
+        <v>28</v>
+      </c>
+      <c r="B97" s="201" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="202">
+        <v>565</v>
+      </c>
+      <c r="E97" s="202">
+        <v>230</v>
+      </c>
+      <c r="F97" s="202">
+        <f>_xlfn.XLOOKUP(B97,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G97" s="202">
+        <f t="shared" si="3"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="202">
+        <v>28</v>
+      </c>
+      <c r="B98" s="201" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="202" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="202">
+        <v>80</v>
+      </c>
+      <c r="E98" s="202">
+        <v>200</v>
+      </c>
+      <c r="F98" s="202">
+        <f>_xlfn.XLOOKUP(B98,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G98" s="202">
+        <f t="shared" ref="G98" si="6">E98*F98</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="199">
+        <v>29</v>
+      </c>
+      <c r="B99" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" s="199">
+        <v>330</v>
+      </c>
+      <c r="E99" s="199">
+        <v>290</v>
+      </c>
+      <c r="F99" s="199">
+        <f>_xlfn.XLOOKUP(B99,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G99" s="199">
+        <f t="shared" ref="G99:G101" si="7">E99*F99</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="199">
+        <v>29</v>
+      </c>
+      <c r="B100" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="199">
+        <v>330</v>
+      </c>
+      <c r="E100" s="199">
+        <v>292</v>
+      </c>
+      <c r="F100" s="199">
+        <f>_xlfn.XLOOKUP(B100,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G100" s="199">
+        <f t="shared" si="7"/>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="199">
+        <v>29</v>
+      </c>
+      <c r="B101" s="198" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="201" t="s">
+      <c r="C101" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="201">
+      <c r="D101" s="199">
+        <f>_xlfn.XLOOKUP(B101,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>150</v>
       </c>
-      <c r="E68" s="201"/>
-      <c r="F68" s="201"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="201">
-        <v>21</v>
-      </c>
-      <c r="B69" s="200" t="s">
+      <c r="E101" s="199">
+        <v>500</v>
+      </c>
+      <c r="F101" s="199">
+        <f>_xlfn.XLOOKUP(B101,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G101" s="199">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="199">
+        <v>29</v>
+      </c>
+      <c r="B102" s="198" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="201" t="s">
+      <c r="C102" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="D69" s="201">
+      <c r="D102" s="199">
+        <f>_xlfn.XLOOKUP(B102,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>145</v>
       </c>
-      <c r="E69" s="201"/>
-      <c r="F69" s="201"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="204">
-        <v>22</v>
-      </c>
-      <c r="B70" s="203" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="204" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="204">
-        <v>155</v>
-      </c>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="204">
-        <v>22</v>
-      </c>
-      <c r="B71" s="203" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="204" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="204">
-        <v>155</v>
-      </c>
-      <c r="E71" s="204"/>
-      <c r="F71" s="204"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="204">
-        <v>22</v>
-      </c>
-      <c r="B72" s="203" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D72" s="204">
-        <v>150</v>
-      </c>
-      <c r="E72" s="204"/>
-      <c r="F72" s="204"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="204">
-        <v>22</v>
-      </c>
-      <c r="B73" s="203" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="204">
-        <v>145</v>
-      </c>
-      <c r="E73" s="204"/>
-      <c r="F73" s="204"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="204">
-        <v>22</v>
-      </c>
-      <c r="B74" s="203" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D74" s="204">
-        <v>755</v>
-      </c>
-      <c r="E74" s="204"/>
-      <c r="F74" s="204"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="201">
-        <v>23</v>
-      </c>
-      <c r="B75" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="201">
-        <v>350</v>
-      </c>
-      <c r="E75" s="201"/>
-      <c r="F75" s="201"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="201">
-        <v>23</v>
-      </c>
-      <c r="B76" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="201">
-        <v>350</v>
-      </c>
-      <c r="E76" s="201"/>
-      <c r="F76" s="201"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="201">
-        <v>23</v>
-      </c>
-      <c r="B77" s="200" t="s">
-        <v>163</v>
-      </c>
-      <c r="C77" s="201" t="s">
-        <v>202</v>
-      </c>
-      <c r="D77" s="201">
-        <v>155</v>
-      </c>
-      <c r="E77" s="201"/>
-      <c r="F77" s="201"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="201">
-        <v>23</v>
-      </c>
-      <c r="B78" s="200" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="201" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="201">
-        <v>155</v>
-      </c>
-      <c r="E78" s="201"/>
-      <c r="F78" s="201"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="204">
-        <v>24</v>
-      </c>
-      <c r="B79" s="203" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="204" t="s">
-        <v>198</v>
-      </c>
-      <c r="D79" s="204">
-        <v>35</v>
-      </c>
-      <c r="E79" s="204"/>
-      <c r="F79" s="204"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="204">
-        <v>24</v>
-      </c>
-      <c r="B80" s="203" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="204" t="s">
-        <v>198</v>
-      </c>
-      <c r="D80" s="204">
-        <v>35</v>
-      </c>
-      <c r="E80" s="204"/>
-      <c r="F80" s="204"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="204">
-        <v>24</v>
-      </c>
-      <c r="B81" s="203" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="204" t="s">
-        <v>201</v>
-      </c>
-      <c r="D81" s="204">
-        <v>80</v>
-      </c>
-      <c r="E81" s="204"/>
-      <c r="F81" s="204"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="201">
-        <v>25</v>
-      </c>
-      <c r="B82" s="200" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="D82" s="201">
-        <f>_xlfn.XLOOKUP(B82,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="E102" s="199">
+        <v>516</v>
+      </c>
+      <c r="F102" s="199">
+        <f>_xlfn.XLOOKUP(B102,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G102" s="199">
+        <f t="shared" si="3"/>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="203">
         <v>30</v>
       </c>
-      <c r="E82" s="201"/>
-      <c r="F82" s="201"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="201">
-        <v>25</v>
-      </c>
-      <c r="B83" s="200" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="D83" s="201">
-        <f>_xlfn.XLOOKUP(B83,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
-      </c>
-      <c r="E83" s="201"/>
-      <c r="F83" s="201"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="204">
-        <v>26</v>
-      </c>
-      <c r="B84" s="203" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D84" s="204">
-        <v>755</v>
-      </c>
-      <c r="E84" s="204"/>
-      <c r="F84" s="204"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="204">
-        <v>26</v>
-      </c>
-      <c r="B85" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D85" s="204">
-        <f>_xlfn.XLOOKUP(B85,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E85" s="205"/>
-      <c r="F85" s="204"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="204">
-        <v>26</v>
-      </c>
-      <c r="B86" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="C86" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D86" s="204">
-        <f>_xlfn.XLOOKUP(B86,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E86" s="205"/>
-      <c r="F86" s="204"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="201">
-        <v>27</v>
-      </c>
-      <c r="B87" s="200" t="s">
-        <v>165</v>
-      </c>
-      <c r="C87" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="D87" s="201">
-        <v>30</v>
-      </c>
-      <c r="E87" s="201"/>
-      <c r="F87" s="201"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="201">
-        <v>27</v>
-      </c>
-      <c r="B88" s="200" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88" s="201" t="s">
-        <v>203</v>
-      </c>
-      <c r="D88" s="201">
-        <v>565</v>
-      </c>
-      <c r="E88" s="201"/>
-      <c r="F88" s="201"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="201">
-        <v>27</v>
-      </c>
-      <c r="B89" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="201">
-        <v>350</v>
-      </c>
-      <c r="E89" s="201"/>
-      <c r="F89" s="201"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="201">
-        <v>27</v>
-      </c>
-      <c r="B90" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D90" s="201">
-        <v>350</v>
-      </c>
-      <c r="E90" s="201"/>
-      <c r="F90" s="201"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="204">
-        <v>28</v>
-      </c>
-      <c r="B91" s="203" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="D91" s="204">
-        <v>30</v>
-      </c>
-      <c r="E91" s="204"/>
-      <c r="F91" s="204"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="204">
-        <v>28</v>
-      </c>
-      <c r="B92" s="203" t="s">
-        <v>166</v>
-      </c>
-      <c r="C92" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="D92" s="204">
-        <v>565</v>
-      </c>
-      <c r="E92" s="204"/>
-      <c r="F92" s="204"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="201">
-        <v>29</v>
-      </c>
-      <c r="B93" s="200" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="201">
-        <f>_xlfn.XLOOKUP(B93,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E93" s="201"/>
-      <c r="F93" s="201"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="201">
-        <v>29</v>
-      </c>
-      <c r="B94" s="200" t="s">
-        <v>160</v>
-      </c>
-      <c r="C94" s="201" t="s">
-        <v>200</v>
-      </c>
-      <c r="D94" s="201">
-        <f>_xlfn.XLOOKUP(B94,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
-      </c>
-      <c r="E94" s="201"/>
-      <c r="F94" s="201"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="206">
-        <v>30</v>
-      </c>
-      <c r="B95" s="207" t="s">
+      <c r="B103" s="204" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="206" t="s">
+      <c r="C103" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="206">
-        <f>_xlfn.XLOOKUP(B95,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E95" s="206"/>
-      <c r="F95" s="206"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="204">
-        <v>30</v>
-      </c>
-      <c r="B96" s="203" t="s">
-        <v>154</v>
-      </c>
-      <c r="C96" s="204" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" s="204">
-        <f>_xlfn.XLOOKUP(B96,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E96" s="204"/>
-      <c r="F96" s="204"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="204">
-        <v>30</v>
-      </c>
-      <c r="B97" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="C97" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="204">
-        <f>_xlfn.XLOOKUP(B97,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E97" s="204"/>
-      <c r="F97" s="204"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="204">
-        <v>30</v>
-      </c>
-      <c r="B98" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D98" s="204">
-        <f>_xlfn.XLOOKUP(B98,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E98" s="204"/>
-      <c r="F98" s="204"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="201">
-        <v>31</v>
-      </c>
-      <c r="B99" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D99" s="201">
-        <v>350</v>
-      </c>
-      <c r="E99" s="201"/>
-      <c r="F99" s="201"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="201">
-        <v>31</v>
-      </c>
-      <c r="B100" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="C100" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D100" s="201">
-        <v>350</v>
-      </c>
-      <c r="E100" s="201"/>
-      <c r="F100" s="201"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="201">
-        <v>31</v>
-      </c>
-      <c r="B101" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" s="201" t="s">
-        <v>201</v>
-      </c>
-      <c r="D101" s="201">
-        <f>_xlfn.XLOOKUP(B101,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>80</v>
-      </c>
-      <c r="E101" s="201"/>
-      <c r="F101" s="201"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="204">
-        <v>32</v>
-      </c>
-      <c r="B102" s="203" t="s">
-        <v>153</v>
-      </c>
-      <c r="C102" s="204" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" s="204">
-        <f>_xlfn.XLOOKUP(B102,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E102" s="204"/>
-      <c r="F102" s="204"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="204">
-        <v>32</v>
-      </c>
-      <c r="B103" s="203" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="204" t="s">
-        <v>197</v>
-      </c>
-      <c r="D103" s="204">
+      <c r="D103" s="203">
         <f>_xlfn.XLOOKUP(B103,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>150</v>
       </c>
-      <c r="E103" s="204"/>
-      <c r="F103" s="204"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="204">
-        <v>32</v>
-      </c>
-      <c r="B104" s="203" t="s">
+      <c r="E103" s="203">
+        <v>100</v>
+      </c>
+      <c r="F103" s="203">
+        <f>_xlfn.XLOOKUP(B103,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G103" s="203">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="202">
+        <v>30</v>
+      </c>
+      <c r="B104" s="201" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="202">
+        <f>_xlfn.XLOOKUP(B104,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>150</v>
+      </c>
+      <c r="E104" s="202">
+        <v>100</v>
+      </c>
+      <c r="F104" s="202">
+        <f>_xlfn.XLOOKUP(B104,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G104" s="202">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="202">
+        <v>30</v>
+      </c>
+      <c r="B105" s="201" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="204" t="s">
+      <c r="C105" s="202" t="s">
         <v>196</v>
       </c>
-      <c r="D104" s="204">
-        <f>_xlfn.XLOOKUP(B104,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
-      </c>
-      <c r="E104" s="204"/>
-      <c r="F104" s="204"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="204">
-        <v>32</v>
-      </c>
-      <c r="B105" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D105" s="204">
+      <c r="D105" s="202">
         <f>_xlfn.XLOOKUP(B105,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
         <v>330</v>
       </c>
-      <c r="E105" s="204"/>
-      <c r="F105" s="204"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="201">
+      <c r="E105" s="202">
+        <v>300</v>
+      </c>
+      <c r="F105" s="202">
+        <f>_xlfn.XLOOKUP(B105,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G105" s="202">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="202">
+        <v>30</v>
+      </c>
+      <c r="B106" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106" s="202">
+        <f>_xlfn.XLOOKUP(B106,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>330</v>
+      </c>
+      <c r="E106" s="202">
+        <v>320</v>
+      </c>
+      <c r="F106" s="202">
+        <f>_xlfn.XLOOKUP(B106,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G106" s="202">
+        <f t="shared" si="3"/>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="199">
+        <v>31</v>
+      </c>
+      <c r="B107" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="199">
+        <v>350</v>
+      </c>
+      <c r="E107" s="199">
+        <v>185</v>
+      </c>
+      <c r="F107" s="199">
+        <f>_xlfn.XLOOKUP(B107,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G107" s="199">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="199">
+        <v>31</v>
+      </c>
+      <c r="B108" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="199">
+        <v>350</v>
+      </c>
+      <c r="E108" s="199">
+        <v>185</v>
+      </c>
+      <c r="F108" s="199">
+        <f>_xlfn.XLOOKUP(B108,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G108" s="199">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="199">
+        <v>31</v>
+      </c>
+      <c r="B109" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="199">
+        <f>_xlfn.XLOOKUP(B109,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>80</v>
+      </c>
+      <c r="E109" s="199">
+        <v>216</v>
+      </c>
+      <c r="F109" s="199">
+        <f>_xlfn.XLOOKUP(B109,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G109" s="199">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="199">
+        <v>31</v>
+      </c>
+      <c r="B110" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D110" s="199">
+        <v>150</v>
+      </c>
+      <c r="E110" s="199">
+        <v>230</v>
+      </c>
+      <c r="F110" s="199">
+        <f>_xlfn.XLOOKUP(B110,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G110" s="199">
+        <f t="shared" ref="G110:G111" si="8">E110*F110</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="199">
+        <v>31</v>
+      </c>
+      <c r="B111" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D111" s="199">
+        <v>145</v>
+      </c>
+      <c r="E111" s="199">
+        <v>220</v>
+      </c>
+      <c r="F111" s="199">
+        <f>_xlfn.XLOOKUP(B111,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G111" s="199">
+        <f t="shared" si="8"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="202">
+        <v>32</v>
+      </c>
+      <c r="B112" s="201" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="D112" s="202">
+        <f>_xlfn.XLOOKUP(B112,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>150</v>
+      </c>
+      <c r="E112" s="202">
+        <v>415</v>
+      </c>
+      <c r="F112" s="202">
+        <f>_xlfn.XLOOKUP(B112,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G112" s="202">
+        <f t="shared" si="3"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="202">
+        <v>32</v>
+      </c>
+      <c r="B113" s="201" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="D113" s="202">
+        <f>_xlfn.XLOOKUP(B113,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>150</v>
+      </c>
+      <c r="E113" s="202">
+        <v>415</v>
+      </c>
+      <c r="F113" s="202">
+        <f>_xlfn.XLOOKUP(B113,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G113" s="202">
+        <f t="shared" si="3"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="202">
+        <v>32</v>
+      </c>
+      <c r="B114" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" s="202">
+        <f>_xlfn.XLOOKUP(B114,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>330</v>
+      </c>
+      <c r="E114" s="202">
+        <v>230</v>
+      </c>
+      <c r="F114" s="202">
+        <f>_xlfn.XLOOKUP(B114,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G114" s="202">
+        <f t="shared" si="3"/>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="202">
+        <v>32</v>
+      </c>
+      <c r="B115" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D115" s="202">
+        <f>_xlfn.XLOOKUP(B115,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>330</v>
+      </c>
+      <c r="E115" s="202">
+        <v>230</v>
+      </c>
+      <c r="F115" s="202">
+        <f>_xlfn.XLOOKUP(B115,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G115" s="202">
+        <f t="shared" si="3"/>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="199">
         <v>33</v>
       </c>
-      <c r="B106" s="200" t="s">
+      <c r="B116" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="201" t="s">
+      <c r="C116" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="201">
+      <c r="D116" s="199">
         <v>755</v>
       </c>
-      <c r="E106" s="201"/>
-      <c r="F106" s="201"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="201">
+      <c r="E116" s="199">
+        <v>105</v>
+      </c>
+      <c r="F116" s="199">
+        <f>_xlfn.XLOOKUP(B116,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G116" s="199">
+        <f t="shared" si="3"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="199">
         <v>33</v>
       </c>
-      <c r="B107" s="200" t="s">
+      <c r="B117" s="198" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="201" t="s">
+      <c r="C117" s="199" t="s">
         <v>203</v>
       </c>
-      <c r="D107" s="201">
+      <c r="D117" s="199">
         <v>565</v>
       </c>
-      <c r="E107" s="201"/>
-      <c r="F107" s="201"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="204">
+      <c r="E117" s="199">
+        <v>126</v>
+      </c>
+      <c r="F117" s="199">
+        <f>_xlfn.XLOOKUP(B117,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G117" s="199">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="202">
         <v>34</v>
       </c>
-      <c r="B108" s="203" t="s">
+      <c r="B118" s="201" t="s">
         <v>163</v>
       </c>
-      <c r="C108" s="204" t="s">
+      <c r="C118" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D108" s="204">
+      <c r="D118" s="202">
         <v>155</v>
       </c>
-      <c r="E108" s="204"/>
-      <c r="F108" s="204"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="204">
+      <c r="E118" s="202">
+        <v>700</v>
+      </c>
+      <c r="F118" s="202">
+        <f>_xlfn.XLOOKUP(B118,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G118" s="202">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="202">
         <v>34</v>
       </c>
-      <c r="B109" s="203" t="s">
+      <c r="B119" s="201" t="s">
         <v>164</v>
       </c>
-      <c r="C109" s="204" t="s">
+      <c r="C119" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D109" s="204">
+      <c r="D119" s="202">
         <v>155</v>
       </c>
-      <c r="E109" s="204"/>
-      <c r="F109" s="204"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="204">
+      <c r="E119" s="202">
+        <v>700</v>
+      </c>
+      <c r="F119" s="202">
+        <f>_xlfn.XLOOKUP(B119,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G119" s="202">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="202">
         <v>34</v>
       </c>
-      <c r="B110" s="203" t="s">
+      <c r="B120" s="201" t="s">
         <v>155</v>
       </c>
-      <c r="C110" s="204" t="s">
+      <c r="C120" s="202" t="s">
         <v>198</v>
       </c>
-      <c r="D110" s="204">
+      <c r="D120" s="202">
         <v>35</v>
       </c>
-      <c r="E110" s="204"/>
-      <c r="F110" s="204"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="204">
+      <c r="E120" s="202">
+        <v>700</v>
+      </c>
+      <c r="F120" s="202">
+        <f>_xlfn.XLOOKUP(B120,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G120" s="202">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="202">
         <v>34</v>
       </c>
-      <c r="B111" s="203" t="s">
+      <c r="B121" s="201" t="s">
         <v>156</v>
       </c>
-      <c r="C111" s="204" t="s">
+      <c r="C121" s="202" t="s">
         <v>198</v>
       </c>
-      <c r="D111" s="204">
+      <c r="D121" s="202">
         <v>35</v>
       </c>
-      <c r="E111" s="204"/>
-      <c r="F111" s="204"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="201">
+      <c r="E121" s="202">
+        <v>700</v>
+      </c>
+      <c r="F121" s="202">
+        <f>_xlfn.XLOOKUP(B121,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G121" s="202">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="199">
         <v>35</v>
       </c>
-      <c r="B112" s="200" t="s">
+      <c r="B122" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="C112" s="201" t="s">
+      <c r="C122" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="D112" s="201">
+      <c r="D122" s="199">
         <v>350</v>
       </c>
-      <c r="E112" s="201"/>
-      <c r="F112" s="201"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="201">
+      <c r="E122" s="199">
+        <v>140</v>
+      </c>
+      <c r="F122" s="199">
+        <f>_xlfn.XLOOKUP(B122,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G122" s="199">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="199">
         <v>35</v>
       </c>
-      <c r="B113" s="200" t="s">
+      <c r="B123" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="C113" s="201" t="s">
+      <c r="C123" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="D113" s="201">
+      <c r="D123" s="199">
         <v>350</v>
       </c>
-      <c r="E113" s="201"/>
-      <c r="F113" s="201"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="201">
+      <c r="E123" s="199">
+        <v>150</v>
+      </c>
+      <c r="F123" s="199">
+        <f>_xlfn.XLOOKUP(B123,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G123" s="199">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="199">
         <v>35</v>
       </c>
-      <c r="B114" s="200" t="s">
+      <c r="B124" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="C114" s="201" t="s">
+      <c r="C124" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="D114" s="201">
+      <c r="D124" s="199">
         <v>330</v>
       </c>
-      <c r="E114" s="201"/>
-      <c r="F114" s="201"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="201">
+      <c r="E124" s="199">
+        <v>110</v>
+      </c>
+      <c r="F124" s="199">
+        <f>_xlfn.XLOOKUP(B124,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G124" s="199">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="199">
         <v>35</v>
       </c>
-      <c r="B115" s="200" t="s">
+      <c r="B125" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="C115" s="201" t="s">
+      <c r="C125" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="D115" s="201">
+      <c r="D125" s="199">
         <v>330</v>
       </c>
-      <c r="E115" s="201"/>
-      <c r="F115" s="201"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="204">
+      <c r="E125" s="199">
+        <v>120</v>
+      </c>
+      <c r="F125" s="199">
+        <f>_xlfn.XLOOKUP(B125,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G125" s="199">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="202">
         <v>36</v>
       </c>
-      <c r="B116" s="203" t="s">
+      <c r="B126" s="201" t="s">
         <v>153</v>
       </c>
-      <c r="C116" s="204" t="s">
+      <c r="C126" s="202" t="s">
         <v>197</v>
       </c>
-      <c r="D116" s="204">
+      <c r="D126" s="202">
         <v>150</v>
       </c>
-      <c r="E116" s="204"/>
-      <c r="F116" s="204"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="204">
+      <c r="E126" s="202">
+        <v>10</v>
+      </c>
+      <c r="F126" s="202">
+        <f>_xlfn.XLOOKUP(B126,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G126" s="202">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="202">
         <v>36</v>
       </c>
-      <c r="B117" s="203" t="s">
+      <c r="B127" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="C117" s="204" t="s">
+      <c r="C127" s="202" t="s">
         <v>197</v>
       </c>
-      <c r="D117" s="204">
+      <c r="D127" s="202">
         <v>150</v>
       </c>
-      <c r="E117" s="204"/>
-      <c r="F117" s="204"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="204">
+      <c r="E127" s="202">
+        <v>49</v>
+      </c>
+      <c r="F127" s="202">
+        <f>_xlfn.XLOOKUP(B127,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G127" s="202">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="202">
         <v>36</v>
       </c>
-      <c r="B118" s="203" t="s">
+      <c r="B128" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="C118" s="204" t="s">
+      <c r="C128" s="202" t="s">
         <v>199</v>
       </c>
-      <c r="D118" s="204">
+      <c r="D128" s="202">
         <v>350</v>
       </c>
-      <c r="E118" s="204"/>
-      <c r="F118" s="204"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="204">
+      <c r="E128" s="202">
+        <v>210</v>
+      </c>
+      <c r="F128" s="202">
+        <f>_xlfn.XLOOKUP(B128,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G128" s="202">
+        <f t="shared" si="3"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="202">
         <v>36</v>
       </c>
-      <c r="B119" s="203" t="s">
+      <c r="B129" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="C119" s="204" t="s">
+      <c r="C129" s="202" t="s">
         <v>199</v>
       </c>
-      <c r="D119" s="204">
+      <c r="D129" s="202">
         <v>350</v>
       </c>
-      <c r="E119" s="204"/>
-      <c r="F119" s="204"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="201">
+      <c r="E129" s="202">
+        <v>212</v>
+      </c>
+      <c r="F129" s="202">
+        <f>_xlfn.XLOOKUP(B129,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G129" s="202">
+        <f t="shared" si="3"/>
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="199">
         <v>37</v>
       </c>
-      <c r="B120" s="201" t="s">
+      <c r="B130" s="199" t="s">
         <v>174</v>
       </c>
-      <c r="C120" s="201" t="s">
+      <c r="C130" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="D120" s="201">
+      <c r="D130" s="199">
         <v>35</v>
       </c>
-      <c r="E120" s="196"/>
-      <c r="F120" s="201"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="201">
+      <c r="E130" s="199">
+        <v>500</v>
+      </c>
+      <c r="F130" s="199">
+        <f>_xlfn.XLOOKUP(B130,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G130" s="199">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="199">
         <v>37</v>
       </c>
-      <c r="B121" s="201" t="s">
+      <c r="B131" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="201" t="s">
+      <c r="C131" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="D121" s="201">
+      <c r="D131" s="199">
         <v>20</v>
       </c>
-      <c r="E121" s="196"/>
-      <c r="F121" s="201"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="201">
+      <c r="E131" s="199">
+        <v>150</v>
+      </c>
+      <c r="F131" s="199">
+        <f>_xlfn.XLOOKUP(B131,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1</v>
+      </c>
+      <c r="G131" s="199">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="199">
         <v>37</v>
       </c>
-      <c r="B122" s="201" t="s">
+      <c r="B132" s="199" t="s">
         <v>182</v>
       </c>
-      <c r="C122" s="201" t="s">
+      <c r="C132" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="D122" s="201">
+      <c r="D132" s="199">
         <v>495</v>
       </c>
-      <c r="E122" s="201"/>
-      <c r="F122" s="201"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="204">
+      <c r="E132" s="199">
+        <v>300</v>
+      </c>
+      <c r="F132" s="199">
+        <f>_xlfn.XLOOKUP(B132,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>5</v>
+      </c>
+      <c r="G132" s="199">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="202">
         <v>38</v>
       </c>
-      <c r="B123" s="203" t="s">
+      <c r="B133" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="C123" s="204" t="s">
+      <c r="C133" s="202" t="s">
         <v>203</v>
       </c>
-      <c r="D123" s="204">
+      <c r="D133" s="202">
         <v>565</v>
       </c>
-      <c r="E123" s="204"/>
-      <c r="F123" s="204"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="204">
+      <c r="E133" s="202">
+        <v>120</v>
+      </c>
+      <c r="F133" s="202">
+        <f>_xlfn.XLOOKUP(B133,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G133" s="202">
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="202">
         <v>38</v>
       </c>
-      <c r="B124" s="203" t="s">
+      <c r="B134" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="204" t="s">
+      <c r="C134" s="202" t="s">
         <v>199</v>
       </c>
-      <c r="D124" s="204">
+      <c r="D134" s="202">
         <v>350</v>
       </c>
-      <c r="E124" s="204"/>
-      <c r="F124" s="204"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="204">
+      <c r="E134" s="202">
+        <v>96</v>
+      </c>
+      <c r="F134" s="202">
+        <f>_xlfn.XLOOKUP(B134,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G134" s="202">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="202">
         <v>38</v>
       </c>
-      <c r="B125" s="203" t="s">
+      <c r="B135" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="C125" s="204" t="s">
+      <c r="C135" s="202" t="s">
         <v>199</v>
       </c>
-      <c r="D125" s="204">
+      <c r="D135" s="202">
         <v>350</v>
       </c>
-      <c r="E125" s="204"/>
-      <c r="F125" s="204"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="201">
+      <c r="E135" s="202">
+        <v>96</v>
+      </c>
+      <c r="F135" s="202">
+        <f>_xlfn.XLOOKUP(B135,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G135" s="202">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="199">
         <v>39</v>
       </c>
-      <c r="B126" s="200" t="s">
+      <c r="B136" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="C126" s="201" t="s">
+      <c r="C136" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="D126" s="201">
+      <c r="D136" s="199">
         <v>350</v>
       </c>
-      <c r="E126" s="201"/>
-      <c r="F126" s="201"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="201">
+      <c r="E136" s="199">
+        <v>200</v>
+      </c>
+      <c r="F136" s="199">
+        <f>_xlfn.XLOOKUP(B136,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G136" s="199">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="199">
         <v>39</v>
       </c>
-      <c r="B127" s="200" t="s">
+      <c r="B137" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="C127" s="201" t="s">
+      <c r="C137" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="D127" s="201">
+      <c r="D137" s="199">
         <v>350</v>
       </c>
-      <c r="E127" s="201"/>
-      <c r="F127" s="201"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="201">
+      <c r="E137" s="199">
+        <v>200</v>
+      </c>
+      <c r="F137" s="199">
+        <f>_xlfn.XLOOKUP(B137,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G137" s="199">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="199">
         <v>39</v>
       </c>
-      <c r="B128" s="200" t="s">
+      <c r="B138" s="198" t="s">
         <v>159</v>
       </c>
-      <c r="C128" s="201" t="s">
+      <c r="C138" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="D128" s="201">
+      <c r="D138" s="199">
         <v>150</v>
       </c>
-      <c r="E128" s="201"/>
-      <c r="F128" s="201"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="204">
+      <c r="E138" s="199">
+        <v>300</v>
+      </c>
+      <c r="F138" s="199">
+        <f>_xlfn.XLOOKUP(B138,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G138" s="199">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="202">
         <v>40</v>
       </c>
-      <c r="B129" s="203" t="s">
+      <c r="B139" s="201" t="s">
         <v>163</v>
       </c>
-      <c r="C129" s="204" t="s">
+      <c r="C139" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D129" s="204">
+      <c r="D139" s="202">
         <v>155</v>
       </c>
-      <c r="E129" s="204"/>
-      <c r="F129" s="204"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="204">
+      <c r="E139" s="202">
+        <v>250</v>
+      </c>
+      <c r="F139" s="202">
+        <f>_xlfn.XLOOKUP(B139,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G139" s="202">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="202">
         <v>40</v>
       </c>
-      <c r="B130" s="203" t="s">
+      <c r="B140" s="201" t="s">
         <v>164</v>
       </c>
-      <c r="C130" s="204" t="s">
+      <c r="C140" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D130" s="204">
+      <c r="D140" s="202">
         <v>155</v>
       </c>
-      <c r="E130" s="204"/>
-      <c r="F130" s="204"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="204">
+      <c r="E140" s="202">
+        <v>256</v>
+      </c>
+      <c r="F140" s="202">
+        <f>_xlfn.XLOOKUP(B140,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G140" s="202">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="202">
         <v>40</v>
       </c>
-      <c r="B131" s="203" t="s">
+      <c r="B141" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="C131" s="204" t="s">
+      <c r="C141" s="202" t="s">
         <v>200</v>
       </c>
-      <c r="D131" s="204">
+      <c r="D141" s="202">
         <v>755</v>
       </c>
-      <c r="E131" s="204"/>
-      <c r="F131" s="204"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="201">
+      <c r="E141" s="202">
+        <v>200</v>
+      </c>
+      <c r="F141" s="202">
+        <f>_xlfn.XLOOKUP(B141,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G141" s="202">
+        <f t="shared" ref="G141:G168" si="9">E141*F141</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="199">
         <v>41</v>
       </c>
-      <c r="B132" s="200" t="s">
+      <c r="B142" s="198" t="s">
         <v>162</v>
       </c>
-      <c r="C132" s="201" t="s">
+      <c r="C142" s="199" t="s">
         <v>200</v>
       </c>
-      <c r="D132" s="201">
+      <c r="D142" s="199">
         <v>755</v>
       </c>
-      <c r="E132" s="201"/>
-      <c r="F132" s="201"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="201">
+      <c r="E142" s="199">
+        <v>125</v>
+      </c>
+      <c r="F142" s="199">
+        <f>_xlfn.XLOOKUP(B142,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G142" s="199">
+        <f t="shared" si="9"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="199">
         <v>41</v>
       </c>
-      <c r="B133" s="200" t="s">
+      <c r="B143" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="C133" s="201" t="s">
+      <c r="C143" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="D133" s="201">
+      <c r="D143" s="199">
         <v>330</v>
       </c>
-      <c r="E133" s="201"/>
-      <c r="F133" s="201"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="201">
+      <c r="E143" s="199">
+        <v>120</v>
+      </c>
+      <c r="F143" s="199">
+        <f>_xlfn.XLOOKUP(B143,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G143" s="199">
+        <f t="shared" si="9"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="199">
         <v>41</v>
       </c>
-      <c r="B134" s="200" t="s">
+      <c r="B144" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="C134" s="201" t="s">
+      <c r="C144" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="D134" s="201">
+      <c r="D144" s="199">
         <v>330</v>
       </c>
-      <c r="E134" s="201"/>
-      <c r="F134" s="201"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="204">
+      <c r="E144" s="199">
+        <v>120</v>
+      </c>
+      <c r="F144" s="199">
+        <f>_xlfn.XLOOKUP(B144,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G144" s="199">
+        <f t="shared" si="9"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="202">
         <v>42</v>
       </c>
-      <c r="B135" s="203" t="s">
+      <c r="B145" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="C135" s="204" t="s">
+      <c r="C145" s="202" t="s">
         <v>203</v>
       </c>
-      <c r="D135" s="204">
+      <c r="D145" s="202">
         <v>565</v>
       </c>
-      <c r="E135" s="204"/>
-      <c r="F135" s="204"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="204">
+      <c r="E145" s="202">
+        <v>210</v>
+      </c>
+      <c r="F145" s="202">
+        <f>_xlfn.XLOOKUP(B145,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G145" s="202">
+        <f t="shared" si="9"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="202">
         <v>42</v>
       </c>
-      <c r="B136" s="203" t="s">
+      <c r="B146" s="201" t="s">
         <v>167</v>
       </c>
-      <c r="C136" s="204" t="s">
+      <c r="C146" s="202" t="s">
         <v>204</v>
       </c>
-      <c r="D136" s="204">
+      <c r="D146" s="202">
         <v>40</v>
       </c>
-      <c r="E136" s="204"/>
-      <c r="F136" s="204"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="204">
+      <c r="E146" s="202">
+        <v>256</v>
+      </c>
+      <c r="F146" s="202">
+        <f>_xlfn.XLOOKUP(B146,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G146" s="202">
+        <f t="shared" si="9"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="202">
         <v>42</v>
       </c>
-      <c r="B137" s="203" t="s">
+      <c r="B147" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="C137" s="204" t="s">
+      <c r="C147" s="202" t="s">
         <v>204</v>
       </c>
-      <c r="D137" s="204">
+      <c r="D147" s="202">
         <v>40</v>
       </c>
-      <c r="E137" s="204"/>
-      <c r="F137" s="204"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="201">
+      <c r="E147" s="202">
+        <v>256</v>
+      </c>
+      <c r="F147" s="202">
+        <f>_xlfn.XLOOKUP(B147,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G147" s="202">
+        <f t="shared" si="9"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="199">
         <v>43</v>
       </c>
-      <c r="B138" s="200" t="s">
+      <c r="B148" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C148" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D148" s="199">
+        <v>565</v>
+      </c>
+      <c r="E148" s="199">
+        <v>210</v>
+      </c>
+      <c r="F148" s="199">
+        <f>_xlfn.XLOOKUP(B148,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G148" s="199">
+        <f t="shared" si="9"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="199">
+        <v>43</v>
+      </c>
+      <c r="B149" s="198" t="s">
+        <v>167</v>
+      </c>
+      <c r="C149" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="D149" s="199">
+        <v>40</v>
+      </c>
+      <c r="E149" s="199">
+        <v>214</v>
+      </c>
+      <c r="F149" s="199">
+        <f>_xlfn.XLOOKUP(B149,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G149" s="199">
+        <f t="shared" si="9"/>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="199">
+        <v>43</v>
+      </c>
+      <c r="B150" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="C150" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="D150" s="199">
+        <v>40</v>
+      </c>
+      <c r="E150" s="199">
+        <v>214</v>
+      </c>
+      <c r="F150" s="199">
+        <f>_xlfn.XLOOKUP(B150,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G150" s="199">
+        <f t="shared" si="9"/>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="202">
+        <v>44</v>
+      </c>
+      <c r="B151" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C151" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D151" s="202">
+        <v>330</v>
+      </c>
+      <c r="E151" s="202">
+        <v>150</v>
+      </c>
+      <c r="F151" s="202">
+        <f>_xlfn.XLOOKUP(B151,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G151" s="202">
+        <f t="shared" si="9"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="202">
+        <v>44</v>
+      </c>
+      <c r="B152" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D152" s="202">
+        <v>330</v>
+      </c>
+      <c r="E152" s="202">
+        <v>150</v>
+      </c>
+      <c r="F152" s="202">
+        <f>_xlfn.XLOOKUP(B152,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G152" s="202">
+        <f t="shared" si="9"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="202">
+        <v>44</v>
+      </c>
+      <c r="B153" s="201" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153" s="202" t="s">
+        <v>203</v>
+      </c>
+      <c r="D153" s="202">
+        <v>565</v>
+      </c>
+      <c r="E153" s="202">
+        <v>130</v>
+      </c>
+      <c r="F153" s="202">
+        <f>_xlfn.XLOOKUP(B153,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G153" s="202">
+        <f t="shared" si="9"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="199">
+        <v>45</v>
+      </c>
+      <c r="B154" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" s="199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154" s="199">
+        <v>155</v>
+      </c>
+      <c r="E154" s="199">
+        <v>90</v>
+      </c>
+      <c r="F154" s="199">
+        <f>_xlfn.XLOOKUP(B154,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G154" s="199">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="199">
+        <v>45</v>
+      </c>
+      <c r="B155" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" s="199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D155" s="199">
+        <v>155</v>
+      </c>
+      <c r="E155" s="199">
+        <v>90</v>
+      </c>
+      <c r="F155" s="199">
+        <f>_xlfn.XLOOKUP(B155,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G155" s="199">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="199">
+        <v>45</v>
+      </c>
+      <c r="B156" s="198" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="D156" s="199">
+        <v>40</v>
+      </c>
+      <c r="E156" s="199">
+        <v>680</v>
+      </c>
+      <c r="F156" s="199">
+        <f>_xlfn.XLOOKUP(B156,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G156" s="199">
+        <f t="shared" si="9"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="199">
+        <v>45</v>
+      </c>
+      <c r="B157" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="D157" s="199">
+        <v>40</v>
+      </c>
+      <c r="E157" s="199">
+        <v>680</v>
+      </c>
+      <c r="F157" s="199">
+        <f>_xlfn.XLOOKUP(B157,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G157" s="199">
+        <f t="shared" si="9"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="202">
+        <v>46</v>
+      </c>
+      <c r="B158" s="204" t="s">
         <v>153</v>
       </c>
-      <c r="C138" s="201" t="s">
+      <c r="C158" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="D138" s="201">
-        <f>_xlfn.XLOOKUP(B138,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D158" s="203">
         <v>150</v>
       </c>
-      <c r="E138" s="201"/>
-      <c r="F138" s="201"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="201">
-        <v>43</v>
-      </c>
-      <c r="B139" s="200" t="s">
+      <c r="E158" s="203">
+        <v>260</v>
+      </c>
+      <c r="F158" s="203">
+        <v>3</v>
+      </c>
+      <c r="G158" s="203">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="202">
+        <v>46</v>
+      </c>
+      <c r="B159" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="C139" s="201" t="s">
+      <c r="C159" s="202" t="s">
         <v>197</v>
       </c>
-      <c r="D139" s="201">
-        <f>_xlfn.XLOOKUP(B139,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D159" s="202">
         <v>150</v>
       </c>
-      <c r="E139" s="201"/>
-      <c r="F139" s="201"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="201">
-        <v>43</v>
-      </c>
-      <c r="B140" s="200" t="s">
+      <c r="E159" s="202">
+        <v>260</v>
+      </c>
+      <c r="F159" s="202">
+        <v>3</v>
+      </c>
+      <c r="G159" s="202">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="202">
+        <v>46</v>
+      </c>
+      <c r="B160" s="201" t="s">
         <v>170</v>
       </c>
-      <c r="C140" s="201" t="s">
+      <c r="C160" s="202" t="s">
         <v>196</v>
       </c>
-      <c r="D140" s="201">
-        <f>_xlfn.XLOOKUP(B140,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D160" s="202">
         <v>330</v>
       </c>
-      <c r="E140" s="201"/>
-      <c r="F140" s="201"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="201">
-        <v>43</v>
-      </c>
-      <c r="B141" s="200" t="s">
+      <c r="E160" s="202">
+        <v>300</v>
+      </c>
+      <c r="F160" s="202">
+        <v>7</v>
+      </c>
+      <c r="G160" s="202">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="202">
+        <v>46</v>
+      </c>
+      <c r="B161" s="201" t="s">
         <v>168</v>
       </c>
-      <c r="C141" s="201" t="s">
+      <c r="C161" s="202" t="s">
         <v>196</v>
       </c>
-      <c r="D141" s="201">
-        <f>_xlfn.XLOOKUP(B141,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+      <c r="D161" s="202">
         <v>330</v>
       </c>
-      <c r="E141" s="201"/>
-      <c r="F141" s="201"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="204">
-        <v>44</v>
-      </c>
-      <c r="B142" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="C142" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D142" s="204">
-        <v>330</v>
-      </c>
-      <c r="E142" s="204"/>
-      <c r="F142" s="204"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="204">
-        <v>44</v>
-      </c>
-      <c r="B143" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="C143" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D143" s="204">
-        <v>330</v>
-      </c>
-      <c r="E143" s="204"/>
-      <c r="F143" s="204"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="204">
-        <v>44</v>
-      </c>
-      <c r="B144" s="203" t="s">
-        <v>166</v>
-      </c>
-      <c r="C144" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="D144" s="204">
-        <v>565</v>
-      </c>
-      <c r="E144" s="204"/>
-      <c r="F144" s="204"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="201">
-        <v>45</v>
-      </c>
-      <c r="B145" s="200" t="s">
+      <c r="E161" s="202">
+        <v>300</v>
+      </c>
+      <c r="F161" s="202">
+        <v>7</v>
+      </c>
+      <c r="G161" s="202">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="199">
+        <v>47</v>
+      </c>
+      <c r="B162" s="198" t="s">
+        <v>155</v>
+      </c>
+      <c r="C162" s="199" t="s">
+        <v>198</v>
+      </c>
+      <c r="D162" s="199">
+        <f>_xlfn.XLOOKUP(B162,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>35</v>
+      </c>
+      <c r="E162" s="199">
+        <v>500</v>
+      </c>
+      <c r="F162" s="199">
+        <f>_xlfn.XLOOKUP(B162,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G162" s="199">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="199">
+        <v>47</v>
+      </c>
+      <c r="B163" s="198" t="s">
+        <v>156</v>
+      </c>
+      <c r="C163" s="199" t="s">
+        <v>198</v>
+      </c>
+      <c r="D163" s="199">
+        <f>_xlfn.XLOOKUP(B163,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>35</v>
+      </c>
+      <c r="E163" s="199">
+        <v>500</v>
+      </c>
+      <c r="F163" s="199">
+        <f>_xlfn.XLOOKUP(B163,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G163" s="199">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="199">
+        <v>47</v>
+      </c>
+      <c r="B164" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D164" s="199">
+        <f>_xlfn.XLOOKUP(B164,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>350</v>
+      </c>
+      <c r="E164" s="199">
+        <v>200</v>
+      </c>
+      <c r="F164" s="199">
+        <f>_xlfn.XLOOKUP(B164,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G164" s="199">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="199">
+        <v>47</v>
+      </c>
+      <c r="B165" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D165" s="199">
+        <f>_xlfn.XLOOKUP(B165,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
+        <v>350</v>
+      </c>
+      <c r="E165" s="199">
+        <v>200</v>
+      </c>
+      <c r="F165" s="199">
+        <f>_xlfn.XLOOKUP(B165,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G165" s="199">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="202">
+        <v>48</v>
+      </c>
+      <c r="B166" s="201" t="s">
         <v>163</v>
       </c>
-      <c r="C145" s="201" t="s">
+      <c r="C166" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D145" s="201">
+      <c r="D166" s="202">
         <v>155</v>
       </c>
-      <c r="E145" s="201"/>
-      <c r="F145" s="201"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="201">
-        <v>45</v>
-      </c>
-      <c r="B146" s="200" t="s">
+      <c r="E166" s="202">
+        <v>540</v>
+      </c>
+      <c r="F166" s="202">
+        <f>_xlfn.XLOOKUP(B166,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G166" s="202">
+        <f t="shared" si="9"/>
+        <v>1620</v>
+      </c>
+      <c r="H166" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="202">
+        <v>48</v>
+      </c>
+      <c r="B167" s="201" t="s">
         <v>164</v>
       </c>
-      <c r="C146" s="201" t="s">
+      <c r="C167" s="202" t="s">
         <v>202</v>
       </c>
-      <c r="D146" s="201">
+      <c r="D167" s="202">
         <v>155</v>
       </c>
-      <c r="E146" s="201"/>
-      <c r="F146" s="201"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="201">
-        <v>45</v>
-      </c>
-      <c r="B147" s="200" t="s">
+      <c r="E167" s="202">
+        <v>540</v>
+      </c>
+      <c r="F167" s="202">
+        <f>_xlfn.XLOOKUP(B167,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G167" s="202">
+        <f t="shared" si="9"/>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="202">
+        <v>48</v>
+      </c>
+      <c r="B168" s="201" t="s">
         <v>167</v>
       </c>
-      <c r="C147" s="201" t="s">
+      <c r="C168" s="202" t="s">
         <v>204</v>
       </c>
-      <c r="D147" s="201">
+      <c r="D168" s="202">
         <v>40</v>
       </c>
-      <c r="E147" s="201"/>
-      <c r="F147" s="201"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="201">
-        <v>45</v>
-      </c>
-      <c r="B148" s="200" t="s">
+      <c r="E168" s="202">
+        <v>480</v>
+      </c>
+      <c r="F168" s="202">
+        <f>_xlfn.XLOOKUP(B168,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G168" s="202">
+        <f t="shared" si="9"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="202">
+        <v>48</v>
+      </c>
+      <c r="B169" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="C148" s="201" t="s">
+      <c r="C169" s="202" t="s">
         <v>204</v>
       </c>
-      <c r="D148" s="201">
+      <c r="D169" s="202">
         <v>40</v>
       </c>
-      <c r="E148" s="201"/>
-      <c r="F148" s="201"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="204">
-        <v>46</v>
-      </c>
-      <c r="B149" s="204" t="s">
-        <v>182</v>
-      </c>
-      <c r="C149" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D149" s="204">
-        <v>495</v>
-      </c>
-      <c r="E149" s="204"/>
-      <c r="F149" s="204"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="204">
-        <v>46</v>
-      </c>
-      <c r="B150" s="203" t="s">
-        <v>165</v>
-      </c>
-      <c r="C150" s="204" t="s">
-        <v>203</v>
-      </c>
-      <c r="D150" s="204">
-        <f>_xlfn.XLOOKUP(B150,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>30</v>
-      </c>
-      <c r="E150" s="204"/>
-      <c r="F150" s="204"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="201">
-        <v>47</v>
-      </c>
-      <c r="B151" s="200" t="s">
-        <v>155</v>
-      </c>
-      <c r="C151" s="201" t="s">
-        <v>198</v>
-      </c>
-      <c r="D151" s="201">
-        <f>_xlfn.XLOOKUP(B151,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
-      </c>
-      <c r="E151" s="201"/>
-      <c r="F151" s="201"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="201">
-        <v>47</v>
-      </c>
-      <c r="B152" s="200" t="s">
-        <v>156</v>
-      </c>
-      <c r="C152" s="201" t="s">
-        <v>198</v>
-      </c>
-      <c r="D152" s="201">
-        <f>_xlfn.XLOOKUP(B152,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
-      </c>
-      <c r="E152" s="201"/>
-      <c r="F152" s="201"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="201">
-        <v>47</v>
-      </c>
-      <c r="B153" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D153" s="201">
-        <f>_xlfn.XLOOKUP(B153,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
-      </c>
-      <c r="E153" s="201"/>
-      <c r="F153" s="201"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="201">
-        <v>47</v>
-      </c>
-      <c r="B154" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="C154" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="D154" s="201">
-        <f>_xlfn.XLOOKUP(B154,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
-      </c>
-      <c r="E154" s="201"/>
-      <c r="F154" s="201"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="204">
-        <v>48</v>
-      </c>
-      <c r="B155" s="203" t="s">
-        <v>159</v>
-      </c>
-      <c r="C155" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D155" s="204">
-        <f>_xlfn.XLOOKUP(B155,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
-      </c>
-      <c r="E155" s="204"/>
-      <c r="F155" s="204"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="204">
-        <v>48</v>
-      </c>
-      <c r="B156" s="203" t="s">
-        <v>160</v>
-      </c>
-      <c r="C156" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D156" s="204">
-        <f>_xlfn.XLOOKUP(B156,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
-      </c>
-      <c r="E156" s="204"/>
-      <c r="F156" s="204"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="204">
-        <v>48</v>
-      </c>
-      <c r="B157" s="203" t="s">
-        <v>162</v>
-      </c>
-      <c r="C157" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="D157" s="204">
-        <f>_xlfn.XLOOKUP(B157,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
-      </c>
-      <c r="E157" s="204"/>
-      <c r="F157" s="204"/>
+      <c r="E169" s="202">
+        <v>480</v>
+      </c>
+      <c r="F169" s="202">
+        <f>_xlfn.XLOOKUP(B169,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G169" s="202">
+        <f t="shared" ref="G169" si="10">E169*F169</f>
+        <v>1440</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5970,8 +7553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="B54" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="C42" zoomScale="97" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6005,10 +7588,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="187" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" s="187" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H1" s="187" t="s">
         <v>190</v>
@@ -9409,10 +10992,10 @@
       <c r="B26" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="208" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="209" t="s">
+      <c r="C26" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="99" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="88">
@@ -9436,10 +11019,10 @@
       <c r="B27" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="211" t="s">
+      <c r="C27" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="88">
@@ -9463,10 +11046,10 @@
       <c r="B28" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="211" t="s">
+      <c r="C28" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="88">
@@ -9490,10 +11073,10 @@
       <c r="B29" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="211" t="s">
+      <c r="C29" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="88">
@@ -9517,10 +11100,10 @@
       <c r="B30" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="211" t="s">
+      <c r="C30" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="88">
@@ -9544,10 +11127,10 @@
       <c r="B31" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="211" t="s">
+      <c r="C31" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="88">
@@ -9571,10 +11154,10 @@
       <c r="B32" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="211" t="s">
+      <c r="C32" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="88">
@@ -9598,10 +11181,10 @@
       <c r="B33" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="211" t="s">
+      <c r="C33" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="88">
@@ -9625,10 +11208,10 @@
       <c r="B34" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="211" t="s">
+      <c r="C34" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="88">
@@ -9652,10 +11235,10 @@
       <c r="B35" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="211" t="s">
+      <c r="C35" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="88">
@@ -9679,10 +11262,10 @@
       <c r="B36" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="211" t="s">
+      <c r="C36" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="88">
@@ -9706,10 +11289,10 @@
       <c r="B37" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="211" t="s">
+      <c r="C37" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="88">
@@ -9733,10 +11316,10 @@
       <c r="B38" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="211" t="s">
+      <c r="C38" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="88">
@@ -9760,10 +11343,10 @@
       <c r="B39" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" s="211" t="s">
+      <c r="C39" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="88">
@@ -9787,10 +11370,10 @@
       <c r="B40" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" s="211" t="s">
+      <c r="C40" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="88">
@@ -9814,10 +11397,10 @@
       <c r="B41" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="211" t="s">
+      <c r="C41" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="88">
@@ -9841,10 +11424,10 @@
       <c r="B42" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="211" t="s">
+      <c r="C42" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="88">
@@ -9868,10 +11451,10 @@
       <c r="B43" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="211" t="s">
+      <c r="C43" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E43" s="88">
@@ -9895,10 +11478,10 @@
       <c r="B44" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" s="211" t="s">
+      <c r="C44" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="88">
@@ -9922,10 +11505,10 @@
       <c r="B45" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="211" t="s">
+      <c r="C45" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="88">
@@ -9949,10 +11532,10 @@
       <c r="B46" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="211" t="s">
+      <c r="C46" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="88">
@@ -9976,10 +11559,10 @@
       <c r="B47" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D47" s="211" t="s">
+      <c r="C47" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="88">
@@ -10003,10 +11586,10 @@
       <c r="B48" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="211" t="s">
+      <c r="C48" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="88">
@@ -10030,10 +11613,10 @@
       <c r="B49" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="212" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="213" t="s">
+      <c r="C49" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="61" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="89">
@@ -15444,10 +17027,10 @@
       <c r="A2" s="129">
         <v>2</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="215" t="s">
+      <c r="C2" s="206" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="130" t="s">
@@ -15458,14 +17041,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="214">
+      <c r="A3" s="205">
         <v>4</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="217" t="s">
-        <v>210</v>
+      <c r="C3" s="208" t="s">
+        <v>209</v>
       </c>
       <c r="D3" s="130" t="s">
         <v>120</v>

--- a/DATA/DataMaster.xlsx
+++ b/DATA/DataMaster.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\University\4th year\Thesis\Hopefully\Thesis\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CEEADB-2F2E-436D-AA69-BDB9F194B26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38594C45-A2FC-49B7-A563-F84636284F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineMaster" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="212">
   <si>
     <t>MachineID</t>
   </si>
@@ -674,9 +674,6 @@
   </si>
   <si>
     <t>TotalOperation</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -3239,10 +3236,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1E3C2B-EB2A-4B5B-9A38-8DCE83FFCF73}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3338,7 +3335,7 @@
         <v>565</v>
       </c>
       <c r="E4" s="199">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F4" s="199">
         <v>6</v>
@@ -3414,7 +3411,7 @@
         <v>350</v>
       </c>
       <c r="E7" s="202">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F7" s="202">
         <f>_xlfn.XLOOKUP(B7,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3422,7 +3419,7 @@
       </c>
       <c r="G7" s="202">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3440,7 +3437,7 @@
         <v>350</v>
       </c>
       <c r="E8" s="202">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F8" s="202">
         <f>_xlfn.XLOOKUP(B8,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3448,7 +3445,7 @@
       </c>
       <c r="G8" s="202">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3518,7 +3515,7 @@
         <v>755</v>
       </c>
       <c r="E11" s="199">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F11" s="199">
         <f>_xlfn.XLOOKUP(B11,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3526,7 +3523,7 @@
       </c>
       <c r="G11" s="199">
         <f t="shared" si="0"/>
-        <v>1855</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3596,7 +3593,7 @@
         <v>155</v>
       </c>
       <c r="E14" s="202">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F14" s="202">
         <f>_xlfn.XLOOKUP(B14,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3604,7 +3601,7 @@
       </c>
       <c r="G14" s="202">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3674,7 +3671,7 @@
         <v>565</v>
       </c>
       <c r="E17" s="199">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F17" s="199">
         <f>_xlfn.XLOOKUP(B17,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3682,7 +3679,7 @@
       </c>
       <c r="G17" s="199">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3752,7 +3749,7 @@
         <v>330</v>
       </c>
       <c r="E20" s="202">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F20" s="202">
         <f>_xlfn.XLOOKUP(B20,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3760,7 +3757,7 @@
       </c>
       <c r="G20" s="202">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3856,7 +3853,7 @@
         <v>350</v>
       </c>
       <c r="E24" s="199">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F24" s="199">
         <f>_xlfn.XLOOKUP(B24,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3864,7 +3861,7 @@
       </c>
       <c r="G24" s="199">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3960,7 +3957,7 @@
         <v>755</v>
       </c>
       <c r="E28" s="202">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F28" s="202">
         <f>_xlfn.XLOOKUP(B28,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3968,7 +3965,7 @@
       </c>
       <c r="G28" s="202">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3986,7 +3983,7 @@
         <v>80</v>
       </c>
       <c r="E29" s="199">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="F29" s="199">
         <f>_xlfn.XLOOKUP(B29,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -3994,7 +3991,7 @@
       </c>
       <c r="G29" s="199">
         <f t="shared" si="0"/>
-        <v>1420</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4064,7 +4061,7 @@
         <v>330</v>
       </c>
       <c r="E32" s="202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="202">
         <f>_xlfn.XLOOKUP(B32,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4072,7 +4069,7 @@
       </c>
       <c r="G32" s="202">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4090,7 +4087,7 @@
         <v>565</v>
       </c>
       <c r="E33" s="202">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F33" s="202">
         <f>_xlfn.XLOOKUP(B33,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4098,7 +4095,7 @@
       </c>
       <c r="G33" s="202">
         <f t="shared" si="0"/>
-        <v>1440</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4168,7 +4165,7 @@
         <v>150</v>
       </c>
       <c r="E36" s="199">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="F36" s="199">
         <f>_xlfn.XLOOKUP(B36,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4176,7 +4173,7 @@
       </c>
       <c r="G36" s="199">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4271,7 +4268,7 @@
         <v>495</v>
       </c>
       <c r="E40" s="202">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F40" s="202">
         <f>_xlfn.XLOOKUP(B40,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4279,7 +4276,7 @@
       </c>
       <c r="G40" s="202">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4323,7 +4320,7 @@
         <v>495</v>
       </c>
       <c r="E42" s="200">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F42" s="200">
         <f>_xlfn.XLOOKUP(B42,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4331,7 +4328,7 @@
       </c>
       <c r="G42" s="200">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -4401,7 +4398,7 @@
         <v>565</v>
       </c>
       <c r="E45" s="202">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F45" s="202">
         <f>_xlfn.XLOOKUP(B45,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4409,7 +4406,7 @@
       </c>
       <c r="G45" s="202">
         <f t="shared" si="0"/>
-        <v>840</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -4479,7 +4476,7 @@
         <v>755</v>
       </c>
       <c r="E48" s="199">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F48" s="199">
         <f>_xlfn.XLOOKUP(B48,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4487,7 +4484,7 @@
       </c>
       <c r="G48" s="199">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -4505,7 +4502,7 @@
         <v>565</v>
       </c>
       <c r="E49" s="202">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F49" s="202">
         <f>_xlfn.XLOOKUP(B49,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4513,7 +4510,7 @@
       </c>
       <c r="G49" s="202">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -4658,7 +4655,7 @@
         <v>565</v>
       </c>
       <c r="E55" s="199">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="F55" s="199">
         <f>_xlfn.XLOOKUP(B55,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4666,7 +4663,7 @@
       </c>
       <c r="G55" s="199">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -4736,7 +4733,7 @@
         <v>755</v>
       </c>
       <c r="E58" s="202">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F58" s="202">
         <f>_xlfn.XLOOKUP(B58,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4744,7 +4741,7 @@
       </c>
       <c r="G58" s="202">
         <f t="shared" si="0"/>
-        <v>1610</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4762,7 +4759,7 @@
         <v>150</v>
       </c>
       <c r="E59" s="199">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F59" s="199">
         <f>_xlfn.XLOOKUP(B59,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4770,7 +4767,7 @@
       </c>
       <c r="G59" s="199">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -4840,7 +4837,7 @@
         <v>155</v>
       </c>
       <c r="E62" s="199">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F62" s="199">
         <f>_xlfn.XLOOKUP(B62,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4848,7 +4845,7 @@
       </c>
       <c r="G62" s="199">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4892,7 +4889,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="202">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F64" s="202">
         <f>_xlfn.XLOOKUP(B64,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4900,7 +4897,7 @@
       </c>
       <c r="G64" s="202">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4917,7 +4914,7 @@
         <v>30</v>
       </c>
       <c r="E65" s="202">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F65" s="202">
         <f>_xlfn.XLOOKUP(B65,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4925,7 +4922,7 @@
       </c>
       <c r="G65" s="202">
         <f t="shared" ref="G65" si="1">E65*F65</f>
-        <v>560</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4942,7 +4939,7 @@
         <v>565</v>
       </c>
       <c r="E66" s="202">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F66" s="202">
         <f>_xlfn.XLOOKUP(B66,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4950,7 +4947,7 @@
       </c>
       <c r="G66" s="202">
         <f t="shared" ref="G66" si="2">E66*F66</f>
-        <v>1590</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4967,7 +4964,7 @@
         <v>330</v>
       </c>
       <c r="E67" s="199">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F67" s="199">
         <f>_xlfn.XLOOKUP(B67,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -4975,7 +4972,7 @@
       </c>
       <c r="G67" s="199">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -5042,7 +5039,7 @@
         <v>145</v>
       </c>
       <c r="E70" s="199">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F70" s="199">
         <f>_xlfn.XLOOKUP(B70,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5050,7 +5047,7 @@
       </c>
       <c r="G70" s="199">
         <f t="shared" si="3"/>
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -5167,7 +5164,7 @@
         <v>755</v>
       </c>
       <c r="E75" s="202">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F75" s="202">
         <f>_xlfn.XLOOKUP(B75,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5175,7 +5172,7 @@
       </c>
       <c r="G75" s="202">
         <f t="shared" si="3"/>
-        <v>1400</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -5192,7 +5189,7 @@
         <v>350</v>
       </c>
       <c r="E76" s="199">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F76" s="199">
         <f>_xlfn.XLOOKUP(B76,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5200,7 +5197,7 @@
       </c>
       <c r="G76" s="199">
         <f t="shared" si="3"/>
-        <v>1260</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -5242,7 +5239,7 @@
         <v>155</v>
       </c>
       <c r="E78" s="199">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="F78" s="199">
         <f>_xlfn.XLOOKUP(B78,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5250,7 +5247,7 @@
       </c>
       <c r="G78" s="199">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -5342,7 +5339,7 @@
         <v>150</v>
       </c>
       <c r="E82" s="202">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="F82" s="202">
         <f>_xlfn.XLOOKUP(B82,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5350,7 +5347,7 @@
       </c>
       <c r="G82" s="202">
         <f t="shared" ref="G82:G83" si="4">E82*F82</f>
-        <v>1854</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -5367,7 +5364,7 @@
         <v>145</v>
       </c>
       <c r="E83" s="202">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="F83" s="202">
         <f>_xlfn.XLOOKUP(B83,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5375,7 +5372,7 @@
       </c>
       <c r="G83" s="202">
         <f t="shared" si="4"/>
-        <v>1548</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -5444,7 +5441,7 @@
         <v>565</v>
       </c>
       <c r="E86" s="199">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F86" s="199">
         <f>_xlfn.XLOOKUP(B86,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5452,7 +5449,7 @@
       </c>
       <c r="G86" s="199">
         <f t="shared" si="3"/>
-        <v>1206</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -5470,7 +5467,7 @@
         <v>330</v>
       </c>
       <c r="E87" s="199">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F87" s="199">
         <f>_xlfn.XLOOKUP(B87,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5478,7 +5475,7 @@
       </c>
       <c r="G87" s="199">
         <f t="shared" ref="G87:G88" si="5">E87*F87</f>
-        <v>245</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -5521,7 +5518,7 @@
         <v>755</v>
       </c>
       <c r="E89" s="202">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="F89" s="202">
         <f>_xlfn.XLOOKUP(B89,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5529,7 +5526,7 @@
       </c>
       <c r="G89" s="202">
         <f t="shared" si="3"/>
-        <v>1260</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -5547,7 +5544,7 @@
         <v>330</v>
       </c>
       <c r="E90" s="202">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F90" s="202">
         <f>_xlfn.XLOOKUP(B90,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5555,7 +5552,7 @@
       </c>
       <c r="G90" s="202">
         <f t="shared" si="3"/>
-        <v>672</v>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -5623,7 +5620,7 @@
         <v>565</v>
       </c>
       <c r="E93" s="199">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F93" s="199">
         <f>_xlfn.XLOOKUP(B93,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5631,7 +5628,7 @@
       </c>
       <c r="G93" s="199">
         <f t="shared" si="3"/>
-        <v>1050</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -5648,7 +5645,7 @@
         <v>350</v>
       </c>
       <c r="E94" s="199">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F94" s="199">
         <f>_xlfn.XLOOKUP(B94,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5656,7 +5653,7 @@
       </c>
       <c r="G94" s="199">
         <f t="shared" si="3"/>
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -5698,7 +5695,7 @@
         <v>30</v>
       </c>
       <c r="E96" s="202">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F96" s="202">
         <f>_xlfn.XLOOKUP(B96,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5706,7 +5703,7 @@
       </c>
       <c r="G96" s="202">
         <f t="shared" si="3"/>
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -5723,7 +5720,7 @@
         <v>565</v>
       </c>
       <c r="E97" s="202">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F97" s="202">
         <f>_xlfn.XLOOKUP(B97,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5731,7 +5728,7 @@
       </c>
       <c r="G97" s="202">
         <f t="shared" si="3"/>
-        <v>1380</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -5798,7 +5795,7 @@
         <v>330</v>
       </c>
       <c r="E100" s="199">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F100" s="199">
         <f>_xlfn.XLOOKUP(B100,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5806,7 +5803,7 @@
       </c>
       <c r="G100" s="199">
         <f t="shared" si="7"/>
-        <v>2044</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -5850,7 +5847,7 @@
         <v>145</v>
       </c>
       <c r="E102" s="199">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F102" s="199">
         <f>_xlfn.XLOOKUP(B102,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5858,7 +5855,7 @@
       </c>
       <c r="G102" s="199">
         <f t="shared" si="3"/>
-        <v>1548</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -5928,7 +5925,7 @@
         <v>330</v>
       </c>
       <c r="E105" s="202">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="F105" s="202">
         <f>_xlfn.XLOOKUP(B105,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -5936,7 +5933,7 @@
       </c>
       <c r="G105" s="202">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -6004,7 +6001,7 @@
         <v>350</v>
       </c>
       <c r="E108" s="199">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F108" s="199">
         <f>_xlfn.XLOOKUP(B108,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6012,7 +6009,7 @@
       </c>
       <c r="G108" s="199">
         <f t="shared" si="3"/>
-        <v>1110</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -6158,7 +6155,7 @@
         <v>330</v>
       </c>
       <c r="E114" s="202">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F114" s="202">
         <f>_xlfn.XLOOKUP(B114,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6166,7 +6163,7 @@
       </c>
       <c r="G114" s="202">
         <f t="shared" si="3"/>
-        <v>1610</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -6209,7 +6206,7 @@
         <v>755</v>
       </c>
       <c r="E116" s="199">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F116" s="199">
         <f>_xlfn.XLOOKUP(B116,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6217,7 +6214,7 @@
       </c>
       <c r="G116" s="199">
         <f t="shared" si="3"/>
-        <v>735</v>
+        <v>805</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -6259,7 +6256,7 @@
         <v>155</v>
       </c>
       <c r="E118" s="202">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="F118" s="202">
         <f>_xlfn.XLOOKUP(B118,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6267,7 +6264,7 @@
       </c>
       <c r="G118" s="202">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -6384,7 +6381,7 @@
         <v>350</v>
       </c>
       <c r="E123" s="199">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F123" s="199">
         <f>_xlfn.XLOOKUP(B123,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6392,7 +6389,7 @@
       </c>
       <c r="G123" s="199">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -6509,7 +6506,7 @@
         <v>350</v>
       </c>
       <c r="E128" s="202">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F128" s="202">
         <f>_xlfn.XLOOKUP(B128,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6517,7 +6514,7 @@
       </c>
       <c r="G128" s="202">
         <f t="shared" si="3"/>
-        <v>1260</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -6584,7 +6581,7 @@
         <v>20</v>
       </c>
       <c r="E131" s="199">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="F131" s="199">
         <f>_xlfn.XLOOKUP(B131,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6592,7 +6589,7 @@
       </c>
       <c r="G131" s="199">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -6609,7 +6606,7 @@
         <v>495</v>
       </c>
       <c r="E132" s="199">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F132" s="199">
         <f>_xlfn.XLOOKUP(B132,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6617,7 +6614,7 @@
       </c>
       <c r="G132" s="199">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -6634,7 +6631,7 @@
         <v>565</v>
       </c>
       <c r="E133" s="202">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F133" s="202">
         <f>_xlfn.XLOOKUP(B133,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6642,7 +6639,7 @@
       </c>
       <c r="G133" s="202">
         <f t="shared" si="3"/>
-        <v>720</v>
+        <v>780</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -6709,7 +6706,7 @@
         <v>350</v>
       </c>
       <c r="E136" s="199">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F136" s="199">
         <f>_xlfn.XLOOKUP(B136,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6717,7 +6714,7 @@
       </c>
       <c r="G136" s="199">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -6784,7 +6781,7 @@
         <v>155</v>
       </c>
       <c r="E139" s="202">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F139" s="202">
         <f>_xlfn.XLOOKUP(B139,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6792,7 +6789,7 @@
       </c>
       <c r="G139" s="202">
         <f t="shared" si="3"/>
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -6834,7 +6831,7 @@
         <v>755</v>
       </c>
       <c r="E141" s="202">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F141" s="202">
         <f>_xlfn.XLOOKUP(B141,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6842,7 +6839,7 @@
       </c>
       <c r="G141" s="202">
         <f t="shared" ref="G141:G168" si="9">E141*F141</f>
-        <v>1400</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -6859,7 +6856,7 @@
         <v>755</v>
       </c>
       <c r="E142" s="199">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="F142" s="199">
         <f>_xlfn.XLOOKUP(B142,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6867,7 +6864,7 @@
       </c>
       <c r="G142" s="199">
         <f t="shared" si="9"/>
-        <v>875</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -6934,7 +6931,7 @@
         <v>565</v>
       </c>
       <c r="E145" s="202">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="F145" s="202">
         <f>_xlfn.XLOOKUP(B145,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -6942,7 +6939,7 @@
       </c>
       <c r="G145" s="202">
         <f t="shared" si="9"/>
-        <v>1260</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -7009,7 +7006,7 @@
         <v>565</v>
       </c>
       <c r="E148" s="199">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F148" s="199">
         <f>_xlfn.XLOOKUP(B148,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -7017,7 +7014,7 @@
       </c>
       <c r="G148" s="199">
         <f t="shared" si="9"/>
-        <v>1260</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -7034,7 +7031,7 @@
         <v>40</v>
       </c>
       <c r="E149" s="199">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F149" s="199">
         <f>_xlfn.XLOOKUP(B149,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -7042,7 +7039,7 @@
       </c>
       <c r="G149" s="199">
         <f t="shared" si="9"/>
-        <v>642</v>
+        <v>690</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -7134,7 +7131,7 @@
         <v>565</v>
       </c>
       <c r="E153" s="202">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F153" s="202">
         <f>_xlfn.XLOOKUP(B153,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -7142,7 +7139,7 @@
       </c>
       <c r="G153" s="202">
         <f t="shared" si="9"/>
-        <v>780</v>
+        <v>900</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -7159,7 +7156,7 @@
         <v>155</v>
       </c>
       <c r="E154" s="199">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F154" s="199">
         <f>_xlfn.XLOOKUP(B154,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -7167,7 +7164,7 @@
       </c>
       <c r="G154" s="199">
         <f t="shared" si="9"/>
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -7184,7 +7181,7 @@
         <v>155</v>
       </c>
       <c r="E155" s="199">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F155" s="199">
         <f>_xlfn.XLOOKUP(B155,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -7192,7 +7189,7 @@
       </c>
       <c r="G155" s="199">
         <f t="shared" si="9"/>
-        <v>270</v>
+        <v>363</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -7305,7 +7302,7 @@
         <v>330</v>
       </c>
       <c r="E160" s="202">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F160" s="202">
         <v>7</v>
@@ -7314,7 +7311,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="202">
         <v>46</v>
       </c>
@@ -7328,7 +7325,7 @@
         <v>330</v>
       </c>
       <c r="E161" s="202">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="F161" s="202">
         <v>7</v>
@@ -7337,7 +7334,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="199">
         <v>47</v>
       </c>
@@ -7363,7 +7360,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="199">
         <v>47</v>
       </c>
@@ -7389,7 +7386,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="199">
         <v>47</v>
       </c>
@@ -7404,7 +7401,7 @@
         <v>350</v>
       </c>
       <c r="E164" s="199">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="F164" s="199">
         <f>_xlfn.XLOOKUP(B164,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -7412,10 +7409,10 @@
       </c>
       <c r="G164" s="199">
         <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="199">
         <v>47</v>
       </c>
@@ -7441,7 +7438,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="202">
         <v>48</v>
       </c>
@@ -7455,7 +7452,7 @@
         <v>155</v>
       </c>
       <c r="E166" s="202">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="F166" s="202">
         <f>_xlfn.XLOOKUP(B166,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -7463,13 +7460,10 @@
       </c>
       <c r="G166" s="202">
         <f t="shared" si="9"/>
-        <v>1620</v>
-      </c>
-      <c r="H166" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="202">
         <v>48</v>
       </c>
@@ -7483,7 +7477,7 @@
         <v>155</v>
       </c>
       <c r="E167" s="202">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="F167" s="202">
         <f>_xlfn.XLOOKUP(B167,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
@@ -7491,10 +7485,10 @@
       </c>
       <c r="G167" s="202">
         <f t="shared" si="9"/>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="202">
         <v>48</v>
       </c>
@@ -7519,7 +7513,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="202">
         <v>48</v>
       </c>

--- a/DATA/DataMaster.xlsx
+++ b/DATA/DataMaster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\University\4th year\Thesis\Hopefully\Thesis\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38594C45-A2FC-49B7-A563-F84636284F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3572382-BAA6-460E-B067-6FD45EABBF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineMaster" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ComponentMaster" sheetId="3" r:id="rId4"/>
     <sheet name="Breakdown" sheetId="2" r:id="rId5"/>
     <sheet name="Distribution" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="231">
   <si>
     <t>MachineID</t>
   </si>
@@ -674,6 +675,64 @@
   </si>
   <si>
     <t>TotalOperation</t>
+  </si>
+  <si>
+    <t>Operation (WS)</t>
+  </si>
+  <si>
+    <t>Number of Machine</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Operation 
+(WS)</t>
+  </si>
+  <si>
+    <t>_fixed_instance</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>valid1</t>
+  </si>
+  <si>
+    <t>valid2</t>
+  </si>
+  <si>
+    <t>valid3</t>
+  </si>
+  <si>
+    <t>valid4</t>
+  </si>
+  <si>
+    <t>valid5</t>
+  </si>
+  <si>
+    <t>valid6</t>
+  </si>
+  <si>
+    <t>valid7</t>
+  </si>
+  <si>
+    <t>valid8</t>
+  </si>
+  <si>
+    <t>valid9</t>
+  </si>
+  <si>
+    <t>valid10</t>
+  </si>
+  <si>
+    <t>valid11</t>
+  </si>
+  <si>
+    <t>valid12</t>
   </si>
 </sst>
 </file>
@@ -686,7 +745,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _B_F_-;\-* #,##0\ _B_F_-;_-* &quot;-&quot;\ _B_F_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,6 +839,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -849,7 +928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -997,6 +1076,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1005,7 +1108,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1489,6 +1592,157 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1811,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1824,7 +2078,7 @@
     <col min="5" max="5" width="28.44140625" style="52" customWidth="1"/>
     <col min="6" max="7" width="8.88671875" style="52" customWidth="1"/>
     <col min="8" max="8" width="18.21875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="52" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="52" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" style="52" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" style="52" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" style="52" customWidth="1"/>
@@ -2392,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="74">
         <v>16</v>
       </c>
@@ -2411,8 +2665,14 @@
       <c r="F17" s="77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="209" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="209" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="78">
         <v>17</v>
       </c>
@@ -2431,8 +2691,14 @@
       <c r="F18" s="80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="210" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="81">
         <v>18</v>
       </c>
@@ -2451,8 +2717,14 @@
       <c r="F19" s="83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" s="210" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="69">
         <v>19</v>
       </c>
@@ -2471,8 +2743,14 @@
       <c r="F20" s="72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="210" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="74">
         <v>20</v>
       </c>
@@ -2491,8 +2769,14 @@
       <c r="F21" s="77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" s="210" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="211">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="78">
         <v>21</v>
       </c>
@@ -2511,8 +2795,14 @@
       <c r="F22" s="80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" s="210" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="81">
         <v>22</v>
       </c>
@@ -2531,8 +2821,14 @@
       <c r="F23" s="83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" s="210" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="69">
         <v>23</v>
       </c>
@@ -2551,8 +2847,14 @@
       <c r="F24" s="72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" s="210" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="54">
         <v>24</v>
       </c>
@@ -2571,8 +2873,14 @@
       <c r="F25" s="56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="210" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="74">
         <v>25</v>
       </c>
@@ -2591,8 +2899,14 @@
       <c r="F26" s="77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" s="210" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="78">
         <v>26</v>
       </c>
@@ -2611,8 +2925,14 @@
       <c r="F27" s="80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27" s="210" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="81">
         <v>27</v>
       </c>
@@ -2631,8 +2951,14 @@
       <c r="F28" s="83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" s="210" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="69">
         <v>28</v>
       </c>
@@ -2651,8 +2977,15 @@
       <c r="F29" s="72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" s="212" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="212">
+        <f>SUM(I18:I28)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="54">
         <v>29</v>
       </c>
@@ -2672,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="60">
         <v>30</v>
       </c>
@@ -2704,542 +3037,771 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3BC26D-AF97-4798-83B8-6ABF36AF857F}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="E23" activeCellId="1" sqref="B23:C24 E23:E24"/>
+    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
+      <selection activeCell="F21" activeCellId="1" sqref="C21:D24 F21:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="C1" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="D1" s="186" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="E1" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="186" t="s">
+      <c r="F1" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="195" t="s">
+      <c r="G1" s="195" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="C2" s="155" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="D2" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="155">
+      <c r="E2" s="155">
         <v>2.0371784999999999E-3</v>
       </c>
-      <c r="E2" s="155">
-        <f>ROUND(D2*60*60,0)*ComponentMaster!$O$2</f>
-        <v>35</v>
-      </c>
       <c r="F2" s="155">
+        <f>ROUND(E2*60*60,0)*ComponentMaster!$O$2</f>
+        <v>70</v>
+      </c>
+      <c r="G2" s="155">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="194" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="194" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="C3" s="194" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="D3" s="194" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="194">
+      <c r="E3" s="194">
         <v>1.0185893E-3</v>
       </c>
-      <c r="E3" s="194">
-        <f>ROUND(D3*60*60,0)*ComponentMaster!$O$2</f>
-        <v>20</v>
-      </c>
       <c r="F3" s="194">
+        <f>ROUND(E3*60*60,0)*ComponentMaster!$O$2</f>
+        <v>40</v>
+      </c>
+      <c r="G3" s="194">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="145" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="C4" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="D4" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="145">
+      <c r="E4" s="145">
         <v>2.0371784999999999E-3</v>
       </c>
-      <c r="E4" s="145">
-        <f>ROUND(D4*60*60,0)*ComponentMaster!$O$2</f>
-        <v>35</v>
-      </c>
       <c r="F4" s="145">
+        <f>ROUND(E4*60*60,0)*ComponentMaster!$O$2</f>
+        <v>70</v>
+      </c>
+      <c r="G4" s="145">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="193" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="193" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="193" t="s">
+      <c r="C5" s="193" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="193" t="s">
+      <c r="D5" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="193">
+      <c r="E5" s="193">
         <v>1.0185893E-3</v>
       </c>
-      <c r="E5" s="193">
-        <f>ROUND(D5*60*60,0)*ComponentMaster!$O$2</f>
-        <v>20</v>
-      </c>
       <c r="F5" s="193">
+        <f>ROUND(E5*60*60,0)*ComponentMaster!$O$2</f>
+        <v>40</v>
+      </c>
+      <c r="G5" s="193">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="189" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="189" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="C6" s="189" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="D6" s="189" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="189">
+      <c r="E6" s="189">
         <v>2.7398196800000003E-2</v>
       </c>
-      <c r="E6" s="189">
-        <f>ROUND(D6*60*60,0)*ComponentMaster!$O$2</f>
-        <v>495</v>
-      </c>
       <c r="F6" s="189">
+        <f>ROUND(E6*60*60,0)*ComponentMaster!$O$2</f>
+        <v>990</v>
+      </c>
+      <c r="G6" s="189">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="190" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="C7" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="190" t="s">
+      <c r="D7" s="190" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="190">
+      <c r="E7" s="190">
         <v>8.4190476999999996E-3</v>
       </c>
-      <c r="E7" s="190">
-        <f>ROUND(D7*60*60,0)*ComponentMaster!$O$2</f>
-        <v>150</v>
-      </c>
       <c r="F7" s="190">
+        <f>ROUND(E7*60*60,0)*ComponentMaster!$O$2</f>
+        <v>300</v>
+      </c>
+      <c r="G7" s="190">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="191" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="C8" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="D8" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="191">
+      <c r="E8" s="191">
         <v>8.4190476999999996E-3</v>
       </c>
-      <c r="E8" s="191">
-        <f>ROUND(D8*60*60,0)*ComponentMaster!$O$2</f>
-        <v>150</v>
-      </c>
       <c r="F8" s="191">
+        <f>ROUND(E8*60*60,0)*ComponentMaster!$O$2</f>
+        <v>300</v>
+      </c>
+      <c r="G8" s="191">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="191" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="C9" s="162" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="D9" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="191">
+      <c r="E9" s="191">
         <v>1.8977646000000001E-3</v>
       </c>
-      <c r="E9" s="191">
-        <f>ROUND(D9*60*60,0)*ComponentMaster!$O$2</f>
-        <v>35</v>
-      </c>
       <c r="F9" s="191">
+        <f>ROUND(E9*60*60,0)*ComponentMaster!$O$2</f>
+        <v>70</v>
+      </c>
+      <c r="G9" s="191">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="191" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="C10" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="191" t="s">
+      <c r="D10" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="191">
+      <c r="E10" s="191">
         <v>1.8977646000000001E-3</v>
       </c>
-      <c r="E10" s="191">
-        <f>ROUND(D10*60*60,0)*ComponentMaster!$O$2</f>
-        <v>35</v>
-      </c>
       <c r="F10" s="191">
+        <f>ROUND(E10*60*60,0)*ComponentMaster!$O$2</f>
+        <v>70</v>
+      </c>
+      <c r="G10" s="191">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="191" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="C11" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="D11" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="191">
+      <c r="E11" s="191">
         <v>1.95464651E-2</v>
       </c>
-      <c r="E11" s="191">
-        <f>ROUND(D11*60*60,0)*ComponentMaster!$O$2</f>
-        <v>350</v>
-      </c>
       <c r="F11" s="191">
+        <f>ROUND(E11*60*60,0)*ComponentMaster!$O$2</f>
+        <v>700</v>
+      </c>
+      <c r="G11" s="191">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="191" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="C12" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="191" t="s">
+      <c r="D12" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="191">
+      <c r="E12" s="191">
         <v>1.95464651E-2</v>
       </c>
-      <c r="E12" s="191">
-        <f>ROUND(D12*60*60,0)*ComponentMaster!$O$2</f>
-        <v>350</v>
-      </c>
       <c r="F12" s="191">
+        <f>ROUND(E12*60*60,0)*ComponentMaster!$O$2</f>
+        <v>700</v>
+      </c>
+      <c r="G12" s="191">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="191" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="162" t="s">
+      <c r="C13" s="162" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="191" t="s">
+      <c r="D13" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="D13" s="191">
+      <c r="E13" s="191">
         <v>8.1992673999999998E-3</v>
       </c>
-      <c r="E13" s="191">
-        <f>ROUND(D13*60*60,0)*ComponentMaster!$O$2</f>
-        <v>150</v>
-      </c>
       <c r="F13" s="191">
+        <f>ROUND(E13*60*60,0)*ComponentMaster!$O$2</f>
+        <v>300</v>
+      </c>
+      <c r="G13" s="191">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="191" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="162" t="s">
+      <c r="C14" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="191" t="s">
+      <c r="D14" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="191">
+      <c r="E14" s="191">
         <v>8.1260255E-3</v>
       </c>
-      <c r="E14" s="191">
-        <f>ROUND(D14*60*60,0)*ComponentMaster!$O$2</f>
-        <v>145</v>
-      </c>
       <c r="F14" s="191">
+        <f>ROUND(E14*60*60,0)*ComponentMaster!$O$2</f>
+        <v>290</v>
+      </c>
+      <c r="G14" s="191">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="191" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="162" t="s">
+      <c r="C15" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="191" t="s">
+      <c r="D15" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="191">
+      <c r="E15" s="191">
         <v>4.4444444000000007E-3</v>
       </c>
-      <c r="E15" s="191">
-        <f>ROUND(D15*60*60,0)*ComponentMaster!$O$2</f>
+      <c r="F15" s="191">
+        <f>ROUND(E15*60*60,0)*ComponentMaster!$O$2</f>
+        <v>160</v>
+      </c>
+      <c r="G15" s="191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="162" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="191" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="191">
+        <v>4.1819548300000002E-2</v>
+      </c>
+      <c r="F16" s="191">
+        <f>ROUND(E16*60*60,0)*ComponentMaster!$O$2</f>
+        <v>1510</v>
+      </c>
+      <c r="G16" s="191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="191" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="191">
+        <v>8.6593587999999992E-3</v>
+      </c>
+      <c r="F17" s="191">
+        <f>ROUND(E17*60*60,0)*ComponentMaster!$O$2</f>
+        <v>310</v>
+      </c>
+      <c r="G17" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="191" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="191">
+        <v>8.6593587999999992E-3</v>
+      </c>
+      <c r="F18" s="191">
+        <f>ROUND(E18*60*60,0)*ComponentMaster!$O$2</f>
+        <v>310</v>
+      </c>
+      <c r="G18" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="191" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="191">
+        <v>1.5978305000000001E-3</v>
+      </c>
+      <c r="F19" s="191">
+        <f>ROUND(E19*60*60,0)*ComponentMaster!$O$2</f>
+        <v>60</v>
+      </c>
+      <c r="G19" s="191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="162" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="191" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="191">
+        <v>3.1436385800000001E-2</v>
+      </c>
+      <c r="F20" s="191">
+        <f>ROUND(E20*60*60,0)*ComponentMaster!$O$2</f>
+        <v>1130</v>
+      </c>
+      <c r="G20" s="191">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="191" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="191">
+        <v>2.2358973999999998E-3</v>
+      </c>
+      <c r="F21" s="191">
+        <f>ROUND(E21*60*60,0)*ComponentMaster!$O$2</f>
         <v>80</v>
       </c>
-      <c r="F15" s="191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="191" t="s">
+      <c r="G21" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="C22" s="162" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="191" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="191">
+        <v>2.2358973999999998E-3</v>
+      </c>
+      <c r="F22" s="191">
+        <f>ROUND(E22*60*60,0)*ComponentMaster!$O$2</f>
+        <v>80</v>
+      </c>
+      <c r="G22" s="191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="162" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="191" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="191">
+        <v>1.8363218599999998E-2</v>
+      </c>
+      <c r="F23" s="191">
+        <f>ROUND(E23*60*60,0)*ComponentMaster!$O$2</f>
+        <v>660</v>
+      </c>
+      <c r="G23" s="191">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="192" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="192">
+        <v>1.8363218599999998E-2</v>
+      </c>
+      <c r="F24" s="192">
+        <f>ROUND(E24*60*60,0)*ComponentMaster!$O$2</f>
+        <v>660</v>
+      </c>
+      <c r="G24" s="192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="213" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="213" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="213" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="253" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="214" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="214" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="254"/>
+      <c r="C30" s="215" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="215" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="250" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="217" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="217" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="252"/>
+      <c r="C32" s="218" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="218" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="223" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="216" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="216" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="250" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="219" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="217" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="251"/>
+      <c r="C35" s="221" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="220" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="251"/>
+      <c r="C36" s="221" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="220" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="251"/>
+      <c r="C37" s="221" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="220" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="251"/>
+      <c r="C38" s="221" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="220" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="251"/>
+      <c r="C39" s="221" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="220" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="251"/>
+      <c r="C40" s="221" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="220" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="251"/>
+      <c r="C41" s="221" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="220" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="251"/>
+      <c r="C42" s="221" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="220" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="251"/>
+      <c r="C43" s="221" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="191" t="s">
+      <c r="D43" s="220" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="191">
-        <v>4.1819548300000002E-2</v>
-      </c>
-      <c r="E16" s="191">
-        <f>ROUND(D16*60*60,0)*ComponentMaster!$O$2</f>
-        <v>755</v>
-      </c>
-      <c r="F16" s="191">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="162" t="s">
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="251"/>
+      <c r="C44" s="221" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="D44" s="220" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="191">
-        <v>8.6593587999999992E-3</v>
-      </c>
-      <c r="E17" s="191">
-        <f>ROUND(D17*60*60,0)*ComponentMaster!$O$2</f>
-        <v>155</v>
-      </c>
-      <c r="F17" s="191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="162" t="s">
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="251"/>
+      <c r="C45" s="221" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="191" t="s">
+      <c r="D45" s="220" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="191">
-        <v>8.6593587999999992E-3</v>
-      </c>
-      <c r="E18" s="191">
-        <f>ROUND(D18*60*60,0)*ComponentMaster!$O$2</f>
-        <v>155</v>
-      </c>
-      <c r="F18" s="191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="162" t="s">
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="251"/>
+      <c r="C46" s="221" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="191" t="s">
+      <c r="D46" s="220" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="191">
-        <v>1.5978305000000001E-3</v>
-      </c>
-      <c r="E19" s="191">
-        <f>ROUND(D19*60*60,0)*ComponentMaster!$O$2</f>
-        <v>30</v>
-      </c>
-      <c r="F19" s="191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="162" t="s">
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="251"/>
+      <c r="C47" s="221" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="D47" s="220" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="191">
-        <v>3.1436385800000001E-2</v>
-      </c>
-      <c r="E20" s="191">
-        <f>ROUND(D20*60*60,0)*ComponentMaster!$O$2</f>
-        <v>565</v>
-      </c>
-      <c r="F20" s="191">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="162" t="s">
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="251"/>
+      <c r="C48" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="D48" s="220" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="191">
-        <v>2.2358973999999998E-3</v>
-      </c>
-      <c r="E21" s="191">
-        <f>ROUND(D21*60*60,0)*ComponentMaster!$O$2</f>
-        <v>40</v>
-      </c>
-      <c r="F21" s="191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="162" t="s">
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="251"/>
+      <c r="C49" s="221" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="191" t="s">
+      <c r="D49" s="220" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="191">
-        <v>2.2358973999999998E-3</v>
-      </c>
-      <c r="E22" s="191">
-        <f>ROUND(D22*60*60,0)*ComponentMaster!$O$2</f>
-        <v>40</v>
-      </c>
-      <c r="F22" s="191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="162" t="s">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="251"/>
+      <c r="C50" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="D50" s="220" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="191">
-        <v>1.8363218599999998E-2</v>
-      </c>
-      <c r="E23" s="191">
-        <f>ROUND(D23*60*60,0)*ComponentMaster!$O$2</f>
-        <v>330</v>
-      </c>
-      <c r="F23" s="191">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="192" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="164" t="s">
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="252"/>
+      <c r="C51" s="222" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="192" t="s">
+      <c r="D51" s="218" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="192">
-        <v>1.8363218599999998E-2</v>
-      </c>
-      <c r="E24" s="192">
-        <f>ROUND(D24*60*60,0)*ComponentMaster!$O$2</f>
-        <v>330</v>
-      </c>
-      <c r="F24" s="192">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H45" s="196"/>
-      <c r="I45" s="196"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B34:B51"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B29:B30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1E3C2B-EB2A-4B5B-9A38-8DCE83FFCF73}">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3276,8 +3838,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="197">
-        <v>1</v>
+      <c r="A2" s="197" t="s">
+        <v>216</v>
       </c>
       <c r="B2" s="199" t="s">
         <v>182</v>
@@ -3286,10 +3848,11 @@
         <v>196</v>
       </c>
       <c r="D2" s="199">
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(B2,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
       </c>
       <c r="E2" s="199">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="F2" s="199">
         <v>5</v>
@@ -3299,8 +3862,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="199">
-        <v>1</v>
+      <c r="A3" s="197" t="s">
+        <v>216</v>
       </c>
       <c r="B3" s="198" t="s">
         <v>165</v>
@@ -3309,10 +3872,11 @@
         <v>203</v>
       </c>
       <c r="D3" s="199">
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(B3,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="E3" s="199">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F3" s="199">
         <v>2</v>
@@ -3322,8 +3886,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="199">
-        <v>1</v>
+      <c r="A4" s="197" t="s">
+        <v>216</v>
       </c>
       <c r="B4" s="198" t="s">
         <v>166</v>
@@ -3332,10 +3896,11 @@
         <v>203</v>
       </c>
       <c r="D4" s="199">
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B4,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E4" s="199">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="F4" s="199">
         <v>6</v>
@@ -3355,19 +3920,19 @@
         <v>198</v>
       </c>
       <c r="D5" s="202">
-        <f>_xlfn.XLOOKUP(B5,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B5,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E5" s="202">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F5" s="202">
-        <f>_xlfn.XLOOKUP(B5,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B5,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G5" s="202">
         <f t="shared" ref="G5:G67" si="0">E5*F5</f>
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3381,19 +3946,19 @@
         <v>198</v>
       </c>
       <c r="D6" s="202">
-        <f>_xlfn.XLOOKUP(B6,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B6,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E6" s="202">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F6" s="202">
-        <f>_xlfn.XLOOKUP(B6,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B6,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G6" s="202">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3407,19 +3972,19 @@
         <v>199</v>
       </c>
       <c r="D7" s="202">
-        <f>_xlfn.XLOOKUP(B7,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B7,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E7" s="202">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="F7" s="202">
-        <f>_xlfn.XLOOKUP(B7,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B7,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G7" s="202">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3433,19 +3998,19 @@
         <v>199</v>
       </c>
       <c r="D8" s="202">
-        <f>_xlfn.XLOOKUP(B8,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B8,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E8" s="202">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="F8" s="202">
-        <f>_xlfn.XLOOKUP(B8,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B8,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G8" s="202">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3459,19 +4024,19 @@
         <v>200</v>
       </c>
       <c r="D9" s="199">
-        <f>_xlfn.XLOOKUP(B9,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B9,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E9" s="199">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F9" s="199">
-        <f>_xlfn.XLOOKUP(B9,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B9,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G9" s="199">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3485,19 +4050,19 @@
         <v>200</v>
       </c>
       <c r="D10" s="199">
-        <f>_xlfn.XLOOKUP(B10,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B10,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E10" s="199">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F10" s="199">
-        <f>_xlfn.XLOOKUP(B10,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B10,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G10" s="199">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3511,19 +4076,19 @@
         <v>200</v>
       </c>
       <c r="D11" s="199">
-        <f>_xlfn.XLOOKUP(B11,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(B11,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E11" s="199">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="F11" s="199">
-        <f>_xlfn.XLOOKUP(B11,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B11,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G11" s="199">
         <f t="shared" si="0"/>
-        <v>1890</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3537,19 +4102,19 @@
         <v>197</v>
       </c>
       <c r="D12" s="203">
-        <f>_xlfn.XLOOKUP(B12,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B12,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E12" s="202">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="F12" s="203">
-        <f>_xlfn.XLOOKUP(B12,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B12,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G12" s="203">
         <f t="shared" si="0"/>
-        <v>1245</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3563,19 +4128,19 @@
         <v>197</v>
       </c>
       <c r="D13" s="202">
-        <f>_xlfn.XLOOKUP(B13,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B13,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E13" s="202">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="F13" s="202">
-        <f>_xlfn.XLOOKUP(B13,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B13,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G13" s="202">
         <f t="shared" si="0"/>
-        <v>1245</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -3589,19 +4154,19 @@
         <v>202</v>
       </c>
       <c r="D14" s="202">
-        <f>_xlfn.XLOOKUP(B14,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B14,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E14" s="202">
-        <v>410</v>
+        <v>265</v>
       </c>
       <c r="F14" s="202">
-        <f>_xlfn.XLOOKUP(B14,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B14,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G14" s="202">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -3615,19 +4180,19 @@
         <v>202</v>
       </c>
       <c r="D15" s="202">
-        <f>_xlfn.XLOOKUP(B15,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B15,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E15" s="202">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="F15" s="202">
-        <f>_xlfn.XLOOKUP(B15,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B15,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G15" s="202">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>795</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3641,19 +4206,19 @@
         <v>203</v>
       </c>
       <c r="D16" s="199">
-        <f>_xlfn.XLOOKUP(B16,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(B16,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="E16" s="199">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F16" s="199">
-        <f>_xlfn.XLOOKUP(B16,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B16,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G16" s="199">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3667,19 +4232,19 @@
         <v>203</v>
       </c>
       <c r="D17" s="199">
-        <f>_xlfn.XLOOKUP(B17,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B17,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E17" s="199">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="F17" s="199">
-        <f>_xlfn.XLOOKUP(B17,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B17,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G17" s="199">
         <f t="shared" si="0"/>
-        <v>1470</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3693,19 +4258,19 @@
         <v>197</v>
       </c>
       <c r="D18" s="202">
-        <f>_xlfn.XLOOKUP(B18,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B18,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E18" s="202">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="F18" s="202">
-        <f>_xlfn.XLOOKUP(B18,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B18,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G18" s="202">
         <f t="shared" si="0"/>
-        <v>465</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3719,19 +4284,19 @@
         <v>197</v>
       </c>
       <c r="D19" s="202">
-        <f>_xlfn.XLOOKUP(B19,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B19,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E19" s="202">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="F19" s="202">
-        <f>_xlfn.XLOOKUP(B19,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B19,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G19" s="202">
         <f t="shared" si="0"/>
-        <v>465</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3745,19 +4310,19 @@
         <v>196</v>
       </c>
       <c r="D20" s="202">
-        <f>_xlfn.XLOOKUP(B20,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B20,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E20" s="202">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="F20" s="202">
-        <f>_xlfn.XLOOKUP(B20,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B20,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G20" s="202">
         <f t="shared" si="0"/>
-        <v>2240</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3771,19 +4336,19 @@
         <v>196</v>
       </c>
       <c r="D21" s="202">
-        <f>_xlfn.XLOOKUP(B21,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B21,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E21" s="202">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="F21" s="202">
-        <f>_xlfn.XLOOKUP(B21,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B21,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G21" s="202">
         <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -3797,19 +4362,19 @@
         <v>198</v>
       </c>
       <c r="D22" s="199">
-        <f>_xlfn.XLOOKUP(B22,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B22,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E22" s="199">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="F22" s="199">
-        <f>_xlfn.XLOOKUP(B22,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B22,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G22" s="199">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -3823,19 +4388,19 @@
         <v>198</v>
       </c>
       <c r="D23" s="199">
-        <f>_xlfn.XLOOKUP(B23,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B23,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E23" s="199">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="F23" s="199">
-        <f>_xlfn.XLOOKUP(B23,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B23,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G23" s="199">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -3849,19 +4414,19 @@
         <v>199</v>
       </c>
       <c r="D24" s="199">
-        <f>_xlfn.XLOOKUP(B24,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B24,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E24" s="199">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="F24" s="199">
-        <f>_xlfn.XLOOKUP(B24,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B24,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G24" s="199">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3875,19 +4440,19 @@
         <v>199</v>
       </c>
       <c r="D25" s="199">
-        <f>_xlfn.XLOOKUP(B25,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B25,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E25" s="199">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="F25" s="199">
-        <f>_xlfn.XLOOKUP(B25,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B25,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G25" s="199">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3901,19 +4466,19 @@
         <v>200</v>
       </c>
       <c r="D26" s="202">
-        <f>_xlfn.XLOOKUP(B26,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B26,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E26" s="202">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F26" s="202">
-        <f>_xlfn.XLOOKUP(B26,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B26,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G26" s="202">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -3927,19 +4492,19 @@
         <v>200</v>
       </c>
       <c r="D27" s="202">
-        <f>_xlfn.XLOOKUP(B27,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B27,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E27" s="202">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F27" s="202">
-        <f>_xlfn.XLOOKUP(B27,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B27,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G27" s="202">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3953,19 +4518,19 @@
         <v>200</v>
       </c>
       <c r="D28" s="202">
-        <f>_xlfn.XLOOKUP(B28,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(B28,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E28" s="202">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="F28" s="202">
-        <f>_xlfn.XLOOKUP(B28,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B28,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G28" s="202">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -3979,19 +4544,19 @@
         <v>201</v>
       </c>
       <c r="D29" s="199">
-        <f>_xlfn.XLOOKUP(B29,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>80</v>
+        <f>_xlfn.XLOOKUP(B29,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>160</v>
       </c>
       <c r="E29" s="199">
-        <v>800</v>
+        <v>465</v>
       </c>
       <c r="F29" s="199">
-        <f>_xlfn.XLOOKUP(B29,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B29,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G29" s="199">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>930</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4005,19 +4570,19 @@
         <v>203</v>
       </c>
       <c r="D30" s="199">
-        <f>_xlfn.XLOOKUP(B30,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(B30,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="E30" s="199">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F30" s="199">
-        <f>_xlfn.XLOOKUP(B30,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B30,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G30" s="199">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4031,19 +4596,19 @@
         <v>196</v>
       </c>
       <c r="D31" s="202">
-        <f>_xlfn.XLOOKUP(B31,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B31,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E31" s="202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="202">
-        <f>_xlfn.XLOOKUP(B31,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B31,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G31" s="202">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4057,22 +4622,22 @@
         <v>196</v>
       </c>
       <c r="D32" s="202">
-        <f>_xlfn.XLOOKUP(B32,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B32,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E32" s="202">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" s="202">
-        <f>_xlfn.XLOOKUP(B32,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B32,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G32" s="202">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="202">
         <v>10</v>
       </c>
@@ -4083,22 +4648,22 @@
         <v>203</v>
       </c>
       <c r="D33" s="202">
-        <f>_xlfn.XLOOKUP(B33,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B33,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E33" s="202">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="F33" s="202">
-        <f>_xlfn.XLOOKUP(B33,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B33,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G33" s="202">
         <f t="shared" si="0"/>
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="202">
         <v>10</v>
       </c>
@@ -4109,22 +4674,22 @@
         <v>195</v>
       </c>
       <c r="D34" s="202">
-        <f>_xlfn.XLOOKUP(B34,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B34,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E34" s="202">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F34" s="202">
-        <f>_xlfn.XLOOKUP(B34,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B34,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>1</v>
       </c>
       <c r="G34" s="202">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="202">
         <v>10</v>
       </c>
@@ -4135,14 +4700,14 @@
         <v>195</v>
       </c>
       <c r="D35" s="202">
-        <f>_xlfn.XLOOKUP(B35,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
+        <f>_xlfn.XLOOKUP(B35,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>40</v>
       </c>
       <c r="E35" s="202">
         <v>1</v>
       </c>
       <c r="F35" s="202">
-        <f>_xlfn.XLOOKUP(B35,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B35,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>1</v>
       </c>
       <c r="G35" s="202">
@@ -4150,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="199">
         <v>11</v>
       </c>
@@ -4161,22 +4726,25 @@
         <v>200</v>
       </c>
       <c r="D36" s="199">
-        <f>_xlfn.XLOOKUP(B36,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B36,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E36" s="199">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="F36" s="199">
-        <f>_xlfn.XLOOKUP(B36,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B36,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G36" s="199">
         <f t="shared" si="0"/>
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1470</v>
+      </c>
+      <c r="H36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="199">
         <v>11</v>
       </c>
@@ -4187,22 +4755,22 @@
         <v>200</v>
       </c>
       <c r="D37" s="199">
-        <f>_xlfn.XLOOKUP(B37,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B37,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E37" s="199">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="F37" s="199">
-        <f>_xlfn.XLOOKUP(B37,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B37,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G37" s="199">
         <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="202">
         <v>12</v>
       </c>
@@ -4213,22 +4781,25 @@
         <v>195</v>
       </c>
       <c r="D38" s="202">
-        <f>_xlfn.XLOOKUP(B38,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B38,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E38" s="202">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F38" s="202">
-        <f>_xlfn.XLOOKUP(B38,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B38,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>1</v>
       </c>
       <c r="G38" s="202">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="202">
         <v>12</v>
       </c>
@@ -4239,22 +4810,22 @@
         <v>195</v>
       </c>
       <c r="D39" s="202">
-        <f>_xlfn.XLOOKUP(B39,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
+        <f>_xlfn.XLOOKUP(B39,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>40</v>
       </c>
       <c r="E39" s="202">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="F39" s="202">
-        <f>_xlfn.XLOOKUP(B39,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B39,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>1</v>
       </c>
       <c r="G39" s="202">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="202">
         <v>12</v>
       </c>
@@ -4265,21 +4836,22 @@
         <v>196</v>
       </c>
       <c r="D40" s="202">
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(B40,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
       </c>
       <c r="E40" s="202">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="F40" s="202">
-        <f>_xlfn.XLOOKUP(B40,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B40,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>5</v>
       </c>
       <c r="G40" s="202">
         <f t="shared" si="0"/>
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="199">
         <v>13</v>
       </c>
@@ -4290,22 +4862,25 @@
         <v>195</v>
       </c>
       <c r="D41" s="199">
-        <f>_xlfn.XLOOKUP(B41,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
+        <f>_xlfn.XLOOKUP(B41,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>40</v>
       </c>
       <c r="E41" s="199">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F41" s="199">
-        <f>_xlfn.XLOOKUP(B41,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B41,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>1</v>
       </c>
       <c r="G41" s="199">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="H41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="200">
         <v>13</v>
       </c>
@@ -4316,22 +4891,22 @@
         <v>196</v>
       </c>
       <c r="D42" s="200">
-        <f>_xlfn.XLOOKUP(B42,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(B42,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
       </c>
       <c r="E42" s="200">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="F42" s="200">
-        <f>_xlfn.XLOOKUP(B42,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B42,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>5</v>
       </c>
       <c r="G42" s="200">
         <f t="shared" si="0"/>
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="202">
         <v>14</v>
       </c>
@@ -4342,22 +4917,25 @@
         <v>196</v>
       </c>
       <c r="D43" s="202">
-        <f>_xlfn.XLOOKUP(B43,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B43,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E43" s="202">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F43" s="202">
-        <f>_xlfn.XLOOKUP(B43,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B43,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G43" s="202">
         <f t="shared" si="0"/>
-        <v>980</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="H43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="202">
         <v>14</v>
       </c>
@@ -4368,22 +4946,22 @@
         <v>196</v>
       </c>
       <c r="D44" s="202">
-        <f>_xlfn.XLOOKUP(B44,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B44,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E44" s="202">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F44" s="202">
-        <f>_xlfn.XLOOKUP(B44,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B44,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G44" s="202">
         <f t="shared" si="0"/>
-        <v>980</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="202">
         <v>14</v>
       </c>
@@ -4394,22 +4972,22 @@
         <v>203</v>
       </c>
       <c r="D45" s="202">
-        <f>_xlfn.XLOOKUP(B45,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B45,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E45" s="202">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F45" s="202">
-        <f>_xlfn.XLOOKUP(B45,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B45,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G45" s="202">
         <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="199">
         <v>15</v>
       </c>
@@ -4420,22 +4998,25 @@
         <v>200</v>
       </c>
       <c r="D46" s="199">
-        <f>_xlfn.XLOOKUP(B46,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B46,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E46" s="199">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="F46" s="199">
-        <f>_xlfn.XLOOKUP(B46,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B46,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G46" s="199">
         <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="H46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="199">
         <v>15</v>
       </c>
@@ -4446,22 +5027,22 @@
         <v>200</v>
       </c>
       <c r="D47" s="199">
-        <f>_xlfn.XLOOKUP(B47,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B47,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E47" s="199">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="F47" s="199">
-        <f>_xlfn.XLOOKUP(B47,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B47,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G47" s="199">
         <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="199">
         <v>15</v>
       </c>
@@ -4472,19 +5053,19 @@
         <v>200</v>
       </c>
       <c r="D48" s="199">
-        <f>_xlfn.XLOOKUP(B48,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(B48,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E48" s="199">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="F48" s="199">
-        <f>_xlfn.XLOOKUP(B48,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B48,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G48" s="199">
         <f t="shared" si="0"/>
-        <v>1813</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -4498,19 +5079,19 @@
         <v>203</v>
       </c>
       <c r="D49" s="202">
-        <f>_xlfn.XLOOKUP(B49,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B49,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E49" s="202">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="F49" s="202">
-        <f>_xlfn.XLOOKUP(B49,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B49,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G49" s="202">
         <f t="shared" si="0"/>
-        <v>1368</v>
+        <v>810</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -4524,18 +5105,19 @@
         <v>202</v>
       </c>
       <c r="D50" s="202">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B50,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E50" s="202">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="F50" s="202">
-        <f>_xlfn.XLOOKUP(B50,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B50,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G50" s="202">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -4549,18 +5131,19 @@
         <v>202</v>
       </c>
       <c r="D51" s="202">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B51,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E51" s="202">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="F51" s="202">
-        <f>_xlfn.XLOOKUP(B51,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B51,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G51" s="202">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -4574,19 +5157,19 @@
         <v>201</v>
       </c>
       <c r="D52" s="199">
-        <f>_xlfn.XLOOKUP(B52,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>80</v>
+        <f>_xlfn.XLOOKUP(B52,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>160</v>
       </c>
       <c r="E52" s="199">
-        <v>500</v>
+        <v>175</v>
       </c>
       <c r="F52" s="199">
-        <f>_xlfn.XLOOKUP(B52,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B52,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G52" s="199">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -4600,19 +5183,19 @@
         <v>202</v>
       </c>
       <c r="D53" s="199">
-        <f>_xlfn.XLOOKUP(B53,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B53,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E53" s="199">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="F53" s="199">
-        <f>_xlfn.XLOOKUP(B53,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B53,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G53" s="199">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -4626,19 +5209,19 @@
         <v>202</v>
       </c>
       <c r="D54" s="199">
-        <f>_xlfn.XLOOKUP(B54,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B54,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E54" s="199">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="F54" s="199">
-        <f>_xlfn.XLOOKUP(B54,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B54,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G54" s="199">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -4652,18 +5235,19 @@
         <v>203</v>
       </c>
       <c r="D55" s="199">
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B55,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E55" s="199">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="F55" s="199">
-        <f>_xlfn.XLOOKUP(B55,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B55,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G55" s="199">
         <f t="shared" si="0"/>
-        <v>1380</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -4677,19 +5261,19 @@
         <v>200</v>
       </c>
       <c r="D56" s="202">
-        <f>_xlfn.XLOOKUP(B56,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B56,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E56" s="202">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="F56" s="202">
-        <f>_xlfn.XLOOKUP(B56,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B56,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G56" s="202">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -4703,19 +5287,19 @@
         <v>200</v>
       </c>
       <c r="D57" s="202">
-        <f>_xlfn.XLOOKUP(B57,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B57,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E57" s="202">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="F57" s="202">
-        <f>_xlfn.XLOOKUP(B57,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B57,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G57" s="202">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -4729,19 +5313,19 @@
         <v>200</v>
       </c>
       <c r="D58" s="202">
-        <f>_xlfn.XLOOKUP(B58,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(B58,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E58" s="202">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="F58" s="202">
-        <f>_xlfn.XLOOKUP(B58,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B58,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G58" s="202">
         <f t="shared" si="0"/>
-        <v>1680</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -4755,19 +5339,19 @@
         <v>200</v>
       </c>
       <c r="D59" s="199">
-        <f>_xlfn.XLOOKUP(B59,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B59,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E59" s="199">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="F59" s="199">
-        <f>_xlfn.XLOOKUP(B59,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B59,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G59" s="199">
         <f t="shared" si="0"/>
-        <v>1230</v>
+        <v>750</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -4781,19 +5365,19 @@
         <v>200</v>
       </c>
       <c r="D60" s="199">
-        <f>_xlfn.XLOOKUP(B60,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B60,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E60" s="199">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="F60" s="199">
-        <f>_xlfn.XLOOKUP(B60,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B60,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G60" s="199">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>825</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -4807,19 +5391,19 @@
         <v>202</v>
       </c>
       <c r="D61" s="199">
-        <f>_xlfn.XLOOKUP(B61,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B61,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E61" s="199">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="F61" s="199">
-        <f>_xlfn.XLOOKUP(B61,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B61,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G61" s="199">
         <f t="shared" si="0"/>
-        <v>1140</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -4833,19 +5417,19 @@
         <v>202</v>
       </c>
       <c r="D62" s="199">
-        <f>_xlfn.XLOOKUP(B62,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B62,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E62" s="199">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="F62" s="199">
-        <f>_xlfn.XLOOKUP(B62,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B62,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G62" s="199">
         <f t="shared" si="0"/>
-        <v>1170</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4859,19 +5443,19 @@
         <v>195</v>
       </c>
       <c r="D63" s="202">
-        <f>_xlfn.XLOOKUP(B63,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B63,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E63" s="202">
-        <v>490</v>
+        <v>245</v>
       </c>
       <c r="F63" s="202">
-        <f>_xlfn.XLOOKUP(B63,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B63,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>1</v>
       </c>
       <c r="G63" s="202">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -4885,19 +5469,19 @@
         <v>195</v>
       </c>
       <c r="D64" s="202">
-        <f>_xlfn.XLOOKUP(B64,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
+        <f>_xlfn.XLOOKUP(B64,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>40</v>
       </c>
       <c r="E64" s="202">
-        <v>500</v>
+        <v>245</v>
       </c>
       <c r="F64" s="202">
-        <f>_xlfn.XLOOKUP(B64,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B64,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>1</v>
       </c>
       <c r="G64" s="202">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -4911,18 +5495,19 @@
         <v>203</v>
       </c>
       <c r="D65" s="202">
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(B65,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="E65" s="202">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="F65" s="202">
-        <f>_xlfn.XLOOKUP(B65,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B65,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G65" s="202">
         <f t="shared" ref="G65" si="1">E65*F65</f>
-        <v>580</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4936,18 +5521,19 @@
         <v>203</v>
       </c>
       <c r="D66" s="202">
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B66,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E66" s="202">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="F66" s="202">
-        <f>_xlfn.XLOOKUP(B66,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B66,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G66" s="202">
         <f t="shared" ref="G66" si="2">E66*F66</f>
-        <v>1650</v>
+        <v>780</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -4961,18 +5547,19 @@
         <v>196</v>
       </c>
       <c r="D67" s="199">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B67,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E67" s="199">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="F67" s="199">
-        <f>_xlfn.XLOOKUP(B67,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B67,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G67" s="199">
         <f t="shared" si="0"/>
-        <v>2205</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -4986,18 +5573,19 @@
         <v>196</v>
       </c>
       <c r="D68" s="199">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B68,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E68" s="199">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="F68" s="199">
-        <f>_xlfn.XLOOKUP(B68,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B68,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G68" s="199">
-        <f t="shared" ref="G68:G140" si="3">E68*F68</f>
-        <v>2240</v>
+        <f t="shared" ref="G68:G141" si="3">E68*F68</f>
+        <v>1225</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -5011,18 +5599,19 @@
         <v>200</v>
       </c>
       <c r="D69" s="199">
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B69,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E69" s="199">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="F69" s="199">
-        <f>_xlfn.XLOOKUP(B69,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B69,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G69" s="199">
         <f t="shared" si="3"/>
-        <v>510</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -5036,18 +5625,19 @@
         <v>200</v>
       </c>
       <c r="D70" s="199">
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B70,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E70" s="199">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="F70" s="199">
-        <f>_xlfn.XLOOKUP(B70,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B70,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G70" s="199">
         <f t="shared" si="3"/>
-        <v>525</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -5061,18 +5651,19 @@
         <v>202</v>
       </c>
       <c r="D71" s="202">
+        <f>_xlfn.XLOOKUP(B71,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
+      </c>
+      <c r="E71" s="202">
         <v>155</v>
       </c>
-      <c r="E71" s="202">
-        <v>400</v>
-      </c>
       <c r="F71" s="202">
-        <f>_xlfn.XLOOKUP(B71,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B71,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G71" s="202">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -5086,18 +5677,19 @@
         <v>202</v>
       </c>
       <c r="D72" s="202">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B72,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E72" s="202">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F72" s="202">
-        <f>_xlfn.XLOOKUP(B72,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B72,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G72" s="202">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -5111,18 +5703,19 @@
         <v>200</v>
       </c>
       <c r="D73" s="202">
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B73,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E73" s="202">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="F73" s="202">
-        <f>_xlfn.XLOOKUP(B73,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B73,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G73" s="202">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -5136,18 +5729,19 @@
         <v>200</v>
       </c>
       <c r="D74" s="202">
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B74,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E74" s="202">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="F74" s="202">
-        <f>_xlfn.XLOOKUP(B74,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B74,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G74" s="202">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -5161,18 +5755,19 @@
         <v>200</v>
       </c>
       <c r="D75" s="202">
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(B75,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E75" s="202">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="F75" s="202">
-        <f>_xlfn.XLOOKUP(B75,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B75,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G75" s="202">
         <f t="shared" si="3"/>
-        <v>1470</v>
+        <v>672</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -5186,18 +5781,19 @@
         <v>199</v>
       </c>
       <c r="D76" s="199">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B76,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E76" s="199">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="F76" s="199">
-        <f>_xlfn.XLOOKUP(B76,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B76,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G76" s="199">
         <f t="shared" si="3"/>
-        <v>1350</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -5211,18 +5807,19 @@
         <v>199</v>
       </c>
       <c r="D77" s="199">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B77,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E77" s="199">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="F77" s="199">
-        <f>_xlfn.XLOOKUP(B77,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B77,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G77" s="199">
         <f t="shared" si="3"/>
-        <v>1260</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -5236,18 +5833,19 @@
         <v>202</v>
       </c>
       <c r="D78" s="199">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B78,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E78" s="199">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F78" s="199">
-        <f>_xlfn.XLOOKUP(B78,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B78,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G78" s="199">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -5261,18 +5859,19 @@
         <v>202</v>
       </c>
       <c r="D79" s="199">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B79,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E79" s="199">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F79" s="199">
-        <f>_xlfn.XLOOKUP(B79,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B79,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G79" s="199">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -5286,18 +5885,19 @@
         <v>198</v>
       </c>
       <c r="D80" s="202">
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B80,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E80" s="202">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="F80" s="202">
-        <f>_xlfn.XLOOKUP(B80,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B80,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G80" s="202">
         <f t="shared" si="3"/>
-        <v>1032</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -5311,18 +5911,19 @@
         <v>198</v>
       </c>
       <c r="D81" s="202">
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B81,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E81" s="202">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="F81" s="202">
-        <f>_xlfn.XLOOKUP(B81,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B81,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G81" s="202">
         <f t="shared" si="3"/>
-        <v>1032</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -5336,18 +5937,19 @@
         <v>200</v>
       </c>
       <c r="D82" s="202">
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B82,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E82" s="202">
-        <v>625</v>
+        <v>300</v>
       </c>
       <c r="F82" s="202">
-        <f>_xlfn.XLOOKUP(B82,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B82,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G82" s="202">
         <f t="shared" ref="G82:G83" si="4">E82*F82</f>
-        <v>1875</v>
+        <v>900</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -5361,18 +5963,19 @@
         <v>200</v>
       </c>
       <c r="D83" s="202">
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B83,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E83" s="202">
-        <v>525</v>
+        <v>300</v>
       </c>
       <c r="F83" s="202">
-        <f>_xlfn.XLOOKUP(B83,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B83,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G83" s="202">
         <f t="shared" si="4"/>
-        <v>1575</v>
+        <v>900</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -5386,18 +5989,19 @@
         <v>201</v>
       </c>
       <c r="D84" s="202">
-        <v>80</v>
+        <f>_xlfn.XLOOKUP(B84,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>160</v>
       </c>
       <c r="E84" s="202">
-        <v>516</v>
+        <v>350</v>
       </c>
       <c r="F84" s="202">
-        <f>_xlfn.XLOOKUP(B84,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B84,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G84" s="202">
         <f t="shared" si="3"/>
-        <v>1032</v>
+        <v>700</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -5411,19 +6015,19 @@
         <v>203</v>
       </c>
       <c r="D85" s="199">
-        <f>_xlfn.XLOOKUP(B85,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(B85,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="E85" s="199">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="F85" s="199">
-        <f>_xlfn.XLOOKUP(B85,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B85,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G85" s="199">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -5437,19 +6041,19 @@
         <v>203</v>
       </c>
       <c r="D86" s="199">
-        <f>_xlfn.XLOOKUP(B86,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B86,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E86" s="199">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="F86" s="199">
-        <f>_xlfn.XLOOKUP(B86,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B86,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G86" s="199">
         <f t="shared" si="3"/>
-        <v>1260</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -5463,19 +6067,19 @@
         <v>196</v>
       </c>
       <c r="D87" s="199">
-        <f>_xlfn.XLOOKUP(B87,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B87,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E87" s="199">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F87" s="199">
-        <f>_xlfn.XLOOKUP(B87,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B87,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G87" s="199">
         <f t="shared" ref="G87:G88" si="5">E87*F87</f>
-        <v>294</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -5489,19 +6093,19 @@
         <v>196</v>
       </c>
       <c r="D88" s="199">
-        <f>_xlfn.XLOOKUP(B88,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B88,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E88" s="199">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F88" s="199">
-        <f>_xlfn.XLOOKUP(B88,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B88,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G88" s="199">
         <f t="shared" si="5"/>
-        <v>245</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -5515,18 +6119,19 @@
         <v>200</v>
       </c>
       <c r="D89" s="202">
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(B89,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E89" s="202">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F89" s="202">
-        <f>_xlfn.XLOOKUP(B89,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B89,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G89" s="202">
         <f t="shared" si="3"/>
-        <v>770</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -5540,19 +6145,19 @@
         <v>196</v>
       </c>
       <c r="D90" s="202">
-        <f>_xlfn.XLOOKUP(B90,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B90,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E90" s="202">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F90" s="202">
-        <f>_xlfn.XLOOKUP(B90,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B90,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G90" s="202">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>560</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -5566,19 +6171,19 @@
         <v>196</v>
       </c>
       <c r="D91" s="202">
-        <f>_xlfn.XLOOKUP(B91,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B91,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E91" s="202">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F91" s="202">
-        <f>_xlfn.XLOOKUP(B91,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B91,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G91" s="202">
         <f t="shared" si="3"/>
-        <v>672</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -5592,18 +6197,19 @@
         <v>203</v>
       </c>
       <c r="D92" s="199">
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(B92,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="E92" s="199">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F92" s="199">
-        <f>_xlfn.XLOOKUP(B92,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B92,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G92" s="199">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -5617,18 +6223,19 @@
         <v>203</v>
       </c>
       <c r="D93" s="199">
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B93,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E93" s="199">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="F93" s="199">
-        <f>_xlfn.XLOOKUP(B93,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B93,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G93" s="199">
         <f t="shared" si="3"/>
-        <v>1110</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -5642,18 +6249,19 @@
         <v>199</v>
       </c>
       <c r="D94" s="199">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B94,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E94" s="199">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F94" s="199">
-        <f>_xlfn.XLOOKUP(B94,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B94,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G94" s="199">
         <f t="shared" si="3"/>
-        <v>432</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -5667,18 +6275,19 @@
         <v>199</v>
       </c>
       <c r="D95" s="199">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B95,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E95" s="199">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F95" s="199">
-        <f>_xlfn.XLOOKUP(B95,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B95,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G95" s="199">
         <f t="shared" si="3"/>
-        <v>408</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -5692,18 +6301,19 @@
         <v>203</v>
       </c>
       <c r="D96" s="202">
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(B96,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="E96" s="202">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="F96" s="202">
-        <f>_xlfn.XLOOKUP(B96,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B96,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G96" s="202">
         <f t="shared" si="3"/>
-        <v>474</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -5717,18 +6327,19 @@
         <v>203</v>
       </c>
       <c r="D97" s="202">
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B97,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E97" s="202">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="F97" s="202">
-        <f>_xlfn.XLOOKUP(B97,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B97,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G97" s="202">
         <f t="shared" si="3"/>
-        <v>1470</v>
+        <v>780</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -5742,18 +6353,19 @@
         <v>201</v>
       </c>
       <c r="D98" s="202">
-        <v>80</v>
+        <f>_xlfn.XLOOKUP(B98,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>160</v>
       </c>
       <c r="E98" s="202">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F98" s="202">
-        <f>_xlfn.XLOOKUP(B98,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B98,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G98" s="202">
         <f t="shared" ref="G98" si="6">E98*F98</f>
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -5767,18 +6379,19 @@
         <v>196</v>
       </c>
       <c r="D99" s="199">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B99,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E99" s="199">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="F99" s="199">
-        <f>_xlfn.XLOOKUP(B99,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B99,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G99" s="199">
         <f t="shared" ref="G99:G101" si="7">E99*F99</f>
-        <v>2030</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -5792,18 +6405,19 @@
         <v>196</v>
       </c>
       <c r="D100" s="199">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B100,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E100" s="199">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="F100" s="199">
-        <f>_xlfn.XLOOKUP(B100,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B100,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G100" s="199">
         <f t="shared" si="7"/>
-        <v>2135</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -5817,19 +6431,19 @@
         <v>200</v>
       </c>
       <c r="D101" s="199">
-        <f>_xlfn.XLOOKUP(B101,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B101,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E101" s="199">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="F101" s="199">
-        <f>_xlfn.XLOOKUP(B101,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B101,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G101" s="199">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>747</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -5843,19 +6457,19 @@
         <v>200</v>
       </c>
       <c r="D102" s="199">
-        <f>_xlfn.XLOOKUP(B102,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B102,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E102" s="199">
-        <v>524</v>
+        <v>260</v>
       </c>
       <c r="F102" s="199">
-        <f>_xlfn.XLOOKUP(B102,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B102,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G102" s="199">
         <f t="shared" si="3"/>
-        <v>1572</v>
+        <v>780</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -5869,19 +6483,19 @@
         <v>197</v>
       </c>
       <c r="D103" s="203">
-        <f>_xlfn.XLOOKUP(B103,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B103,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E103" s="203">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F103" s="203">
-        <f>_xlfn.XLOOKUP(B103,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B103,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G103" s="203">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -5895,19 +6509,19 @@
         <v>197</v>
       </c>
       <c r="D104" s="202">
-        <f>_xlfn.XLOOKUP(B104,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B104,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E104" s="202">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F104" s="202">
-        <f>_xlfn.XLOOKUP(B104,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B104,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G104" s="202">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -5921,19 +6535,19 @@
         <v>196</v>
       </c>
       <c r="D105" s="202">
-        <f>_xlfn.XLOOKUP(B105,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B105,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E105" s="202">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="F105" s="202">
-        <f>_xlfn.XLOOKUP(B105,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B105,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G105" s="202">
         <f t="shared" si="3"/>
-        <v>2415</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -5947,19 +6561,19 @@
         <v>196</v>
       </c>
       <c r="D106" s="202">
-        <f>_xlfn.XLOOKUP(B106,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B106,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E106" s="202">
-        <v>320</v>
+        <v>175</v>
       </c>
       <c r="F106" s="202">
-        <f>_xlfn.XLOOKUP(B106,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B106,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G106" s="202">
         <f t="shared" si="3"/>
-        <v>2240</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -5973,18 +6587,19 @@
         <v>199</v>
       </c>
       <c r="D107" s="199">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B107,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E107" s="199">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="F107" s="199">
-        <f>_xlfn.XLOOKUP(B107,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B107,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G107" s="199">
         <f t="shared" si="3"/>
-        <v>1110</v>
+        <v>750</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -5998,18 +6613,19 @@
         <v>199</v>
       </c>
       <c r="D108" s="199">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B108,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E108" s="199">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F108" s="199">
-        <f>_xlfn.XLOOKUP(B108,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B108,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G108" s="199">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -6023,19 +6639,19 @@
         <v>201</v>
       </c>
       <c r="D109" s="199">
-        <f>_xlfn.XLOOKUP(B109,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>80</v>
+        <f>_xlfn.XLOOKUP(B109,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>160</v>
       </c>
       <c r="E109" s="199">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="F109" s="199">
-        <f>_xlfn.XLOOKUP(B109,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B109,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G109" s="199">
         <f t="shared" si="3"/>
-        <v>432</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -6049,18 +6665,19 @@
         <v>200</v>
       </c>
       <c r="D110" s="199">
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B110,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E110" s="199">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="F110" s="199">
-        <f>_xlfn.XLOOKUP(B110,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B110,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G110" s="199">
         <f t="shared" ref="G110:G111" si="8">E110*F110</f>
-        <v>690</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -6074,18 +6691,19 @@
         <v>200</v>
       </c>
       <c r="D111" s="199">
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(B111,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="E111" s="199">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="F111" s="199">
-        <f>_xlfn.XLOOKUP(B111,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B111,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G111" s="199">
         <f t="shared" si="8"/>
-        <v>660</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -6099,19 +6717,19 @@
         <v>197</v>
       </c>
       <c r="D112" s="202">
-        <f>_xlfn.XLOOKUP(B112,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B112,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E112" s="202">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="F112" s="202">
-        <f>_xlfn.XLOOKUP(B112,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B112,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G112" s="202">
         <f t="shared" si="3"/>
-        <v>1245</v>
+        <v>624</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -6125,19 +6743,19 @@
         <v>197</v>
       </c>
       <c r="D113" s="202">
-        <f>_xlfn.XLOOKUP(B113,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B113,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E113" s="202">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="F113" s="202">
-        <f>_xlfn.XLOOKUP(B113,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B113,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G113" s="202">
         <f t="shared" si="3"/>
-        <v>1245</v>
+        <v>624</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -6151,19 +6769,19 @@
         <v>196</v>
       </c>
       <c r="D114" s="202">
-        <f>_xlfn.XLOOKUP(B114,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B114,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E114" s="202">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="F114" s="202">
-        <f>_xlfn.XLOOKUP(B114,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B114,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G114" s="202">
         <f t="shared" si="3"/>
-        <v>1750</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -6177,19 +6795,19 @@
         <v>196</v>
       </c>
       <c r="D115" s="202">
-        <f>_xlfn.XLOOKUP(B115,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B115,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E115" s="202">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="F115" s="202">
-        <f>_xlfn.XLOOKUP(B115,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B115,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G115" s="202">
         <f t="shared" si="3"/>
-        <v>1610</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -6203,18 +6821,19 @@
         <v>200</v>
       </c>
       <c r="D116" s="199">
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(B116,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E116" s="199">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F116" s="199">
-        <f>_xlfn.XLOOKUP(B116,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B116,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G116" s="199">
         <f t="shared" si="3"/>
-        <v>805</v>
+        <v>700</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -6228,18 +6847,19 @@
         <v>203</v>
       </c>
       <c r="D117" s="199">
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(B117,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E117" s="199">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="F117" s="199">
-        <f>_xlfn.XLOOKUP(B117,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B117,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G117" s="199">
         <f t="shared" si="3"/>
-        <v>756</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -6253,18 +6873,19 @@
         <v>202</v>
       </c>
       <c r="D118" s="202">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B118,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E118" s="202">
-        <v>730</v>
+        <v>240</v>
       </c>
       <c r="F118" s="202">
-        <f>_xlfn.XLOOKUP(B118,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B118,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G118" s="202">
         <f t="shared" si="3"/>
-        <v>2190</v>
+        <v>720</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -6278,18 +6899,19 @@
         <v>202</v>
       </c>
       <c r="D119" s="202">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B119,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E119" s="202">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="F119" s="202">
-        <f>_xlfn.XLOOKUP(B119,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B119,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G119" s="202">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>720</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -6297,24 +6919,25 @@
         <v>34</v>
       </c>
       <c r="B120" s="201" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C120" s="202" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D120" s="202">
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B120,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E120" s="202">
-        <v>700</v>
+        <v>118</v>
       </c>
       <c r="F120" s="202">
-        <f>_xlfn.XLOOKUP(B120,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>2</v>
+        <f>_xlfn.XLOOKUP(B120,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
       </c>
       <c r="G120" s="202">
-        <f t="shared" si="3"/>
-        <v>1400</v>
+        <f t="shared" ref="G120" si="9">E120*F120</f>
+        <v>826</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -6322,49 +6945,51 @@
         <v>34</v>
       </c>
       <c r="B121" s="201" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C121" s="202" t="s">
         <v>198</v>
       </c>
       <c r="D121" s="202">
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B121,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E121" s="202">
-        <v>700</v>
+        <v>25</v>
       </c>
       <c r="F121" s="202">
-        <f>_xlfn.XLOOKUP(B121,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B121,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G121" s="202">
         <f t="shared" si="3"/>
-        <v>1400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="199">
-        <v>35</v>
-      </c>
-      <c r="B122" s="198" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="199" t="s">
-        <v>199</v>
-      </c>
-      <c r="D122" s="199">
-        <v>350</v>
-      </c>
-      <c r="E122" s="199">
-        <v>140</v>
-      </c>
-      <c r="F122" s="199">
-        <f>_xlfn.XLOOKUP(B122,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>6</v>
-      </c>
-      <c r="G122" s="199">
+      <c r="A122" s="202">
+        <v>34</v>
+      </c>
+      <c r="B122" s="201" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122" s="202" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="202">
+        <f>_xlfn.XLOOKUP(B122,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
+      </c>
+      <c r="E122" s="202">
+        <v>25</v>
+      </c>
+      <c r="F122" s="202">
+        <f>_xlfn.XLOOKUP(B122,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G122" s="202">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -6372,24 +6997,25 @@
         <v>35</v>
       </c>
       <c r="B123" s="198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C123" s="199" t="s">
         <v>199</v>
       </c>
       <c r="D123" s="199">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B123,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E123" s="199">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="F123" s="199">
-        <f>_xlfn.XLOOKUP(B123,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B123,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G123" s="199">
         <f t="shared" si="3"/>
-        <v>1020</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -6397,24 +7023,25 @@
         <v>35</v>
       </c>
       <c r="B124" s="198" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C124" s="199" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D124" s="199">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B124,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E124" s="199">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F124" s="199">
-        <f>_xlfn.XLOOKUP(B124,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>7</v>
+        <f>_xlfn.XLOOKUP(B124,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
       </c>
       <c r="G124" s="199">
         <f t="shared" si="3"/>
-        <v>770</v>
+        <v>438</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -6422,49 +7049,51 @@
         <v>35</v>
       </c>
       <c r="B125" s="198" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C125" s="199" t="s">
         <v>196</v>
       </c>
       <c r="D125" s="199">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B125,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E125" s="199">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="F125" s="199">
-        <f>_xlfn.XLOOKUP(B125,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B125,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G125" s="199">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>455</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="202">
-        <v>36</v>
-      </c>
-      <c r="B126" s="201" t="s">
-        <v>153</v>
-      </c>
-      <c r="C126" s="202" t="s">
-        <v>197</v>
-      </c>
-      <c r="D126" s="202">
-        <v>150</v>
-      </c>
-      <c r="E126" s="202">
-        <v>10</v>
-      </c>
-      <c r="F126" s="202">
-        <f>_xlfn.XLOOKUP(B126,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>3</v>
-      </c>
-      <c r="G126" s="202">
+      <c r="A126" s="199">
+        <v>35</v>
+      </c>
+      <c r="B126" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" s="199">
+        <f>_xlfn.XLOOKUP(B126,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
+      </c>
+      <c r="E126" s="199">
+        <v>65</v>
+      </c>
+      <c r="F126" s="199">
+        <f>_xlfn.XLOOKUP(B126,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G126" s="199">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -6472,24 +7101,25 @@
         <v>36</v>
       </c>
       <c r="B127" s="201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C127" s="202" t="s">
         <v>197</v>
       </c>
       <c r="D127" s="202">
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B127,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E127" s="202">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F127" s="202">
-        <f>_xlfn.XLOOKUP(B127,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B127,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G127" s="202">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -6497,24 +7127,25 @@
         <v>36</v>
       </c>
       <c r="B128" s="201" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C128" s="202" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D128" s="202">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B128,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E128" s="202">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="F128" s="202">
-        <f>_xlfn.XLOOKUP(B128,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>6</v>
+        <f>_xlfn.XLOOKUP(B128,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
       </c>
       <c r="G128" s="202">
         <f t="shared" si="3"/>
-        <v>1290</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -6522,49 +7153,51 @@
         <v>36</v>
       </c>
       <c r="B129" s="201" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C129" s="202" t="s">
         <v>199</v>
       </c>
       <c r="D129" s="202">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B129,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E129" s="202">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="F129" s="202">
-        <f>_xlfn.XLOOKUP(B129,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B129,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G129" s="202">
         <f t="shared" si="3"/>
-        <v>1272</v>
+        <v>672</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="199">
-        <v>37</v>
-      </c>
-      <c r="B130" s="199" t="s">
-        <v>174</v>
-      </c>
-      <c r="C130" s="199" t="s">
-        <v>195</v>
-      </c>
-      <c r="D130" s="199">
-        <v>35</v>
-      </c>
-      <c r="E130" s="199">
-        <v>500</v>
-      </c>
-      <c r="F130" s="199">
-        <f>_xlfn.XLOOKUP(B130,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>1</v>
-      </c>
-      <c r="G130" s="199">
+      <c r="A130" s="202">
+        <v>36</v>
+      </c>
+      <c r="B130" s="201" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="202" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130" s="202">
+        <f>_xlfn.XLOOKUP(B130,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
+      </c>
+      <c r="E130" s="202">
+        <v>112</v>
+      </c>
+      <c r="F130" s="202">
+        <f>_xlfn.XLOOKUP(B130,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G130" s="202">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>672</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -6572,24 +7205,25 @@
         <v>37</v>
       </c>
       <c r="B131" s="199" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C131" s="199" t="s">
         <v>195</v>
       </c>
       <c r="D131" s="199">
-        <v>20</v>
+        <f>_xlfn.XLOOKUP(B131,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E131" s="199">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="F131" s="199">
-        <f>_xlfn.XLOOKUP(B131,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B131,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>1</v>
       </c>
       <c r="G131" s="199">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -6597,49 +7231,51 @@
         <v>37</v>
       </c>
       <c r="B132" s="199" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C132" s="199" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D132" s="199">
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(B132,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>40</v>
       </c>
       <c r="E132" s="199">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="F132" s="199">
-        <f>_xlfn.XLOOKUP(B132,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>5</v>
+        <f>_xlfn.XLOOKUP(B132,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>1</v>
       </c>
       <c r="G132" s="199">
         <f t="shared" si="3"/>
-        <v>1525</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="202">
-        <v>38</v>
-      </c>
-      <c r="B133" s="201" t="s">
-        <v>166</v>
-      </c>
-      <c r="C133" s="202" t="s">
-        <v>203</v>
-      </c>
-      <c r="D133" s="202">
-        <v>565</v>
-      </c>
-      <c r="E133" s="202">
-        <v>130</v>
-      </c>
-      <c r="F133" s="202">
-        <f>_xlfn.XLOOKUP(B133,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>6</v>
-      </c>
-      <c r="G133" s="202">
+      <c r="A133" s="199">
+        <v>37</v>
+      </c>
+      <c r="B133" s="199" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="D133" s="199">
+        <f>_xlfn.XLOOKUP(B133,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
+      </c>
+      <c r="E133" s="199">
+        <v>154</v>
+      </c>
+      <c r="F133" s="199">
+        <f>_xlfn.XLOOKUP(B133,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>5</v>
+      </c>
+      <c r="G133" s="199">
         <f t="shared" si="3"/>
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -6647,24 +7283,25 @@
         <v>38</v>
       </c>
       <c r="B134" s="201" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C134" s="202" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D134" s="202">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B134,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E134" s="202">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F134" s="202">
-        <f>_xlfn.XLOOKUP(B134,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B134,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G134" s="202">
         <f t="shared" si="3"/>
-        <v>576</v>
+        <v>450</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -6672,49 +7309,51 @@
         <v>38</v>
       </c>
       <c r="B135" s="201" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C135" s="202" t="s">
         <v>199</v>
       </c>
       <c r="D135" s="202">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B135,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E135" s="202">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F135" s="202">
-        <f>_xlfn.XLOOKUP(B135,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B135,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G135" s="202">
         <f t="shared" si="3"/>
-        <v>576</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="199">
-        <v>39</v>
-      </c>
-      <c r="B136" s="198" t="s">
-        <v>157</v>
-      </c>
-      <c r="C136" s="199" t="s">
+      <c r="A136" s="202">
+        <v>38</v>
+      </c>
+      <c r="B136" s="201" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" s="202" t="s">
         <v>199</v>
       </c>
-      <c r="D136" s="199">
-        <v>350</v>
-      </c>
-      <c r="E136" s="199">
-        <v>215</v>
-      </c>
-      <c r="F136" s="199">
-        <f>_xlfn.XLOOKUP(B136,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+      <c r="D136" s="202">
+        <f>_xlfn.XLOOKUP(B136,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
+      </c>
+      <c r="E136" s="202">
+        <v>52</v>
+      </c>
+      <c r="F136" s="202">
+        <f>_xlfn.XLOOKUP(B136,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
-      <c r="G136" s="199">
+      <c r="G136" s="202">
         <f t="shared" si="3"/>
-        <v>1290</v>
+        <v>312</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -6722,24 +7361,25 @@
         <v>39</v>
       </c>
       <c r="B137" s="198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C137" s="199" t="s">
         <v>199</v>
       </c>
       <c r="D137" s="199">
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B137,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E137" s="199">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="F137" s="199">
-        <f>_xlfn.XLOOKUP(B137,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B137,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G137" s="199">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>690</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -6747,49 +7387,51 @@
         <v>39</v>
       </c>
       <c r="B138" s="198" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C138" s="199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D138" s="199">
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(B138,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E138" s="199">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="F138" s="199">
-        <f>_xlfn.XLOOKUP(B138,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>3</v>
+        <f>_xlfn.XLOOKUP(B138,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
       </c>
       <c r="G138" s="199">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="202">
-        <v>40</v>
-      </c>
-      <c r="B139" s="201" t="s">
-        <v>163</v>
-      </c>
-      <c r="C139" s="202" t="s">
-        <v>202</v>
-      </c>
-      <c r="D139" s="202">
-        <v>155</v>
-      </c>
-      <c r="E139" s="202">
-        <v>256</v>
-      </c>
-      <c r="F139" s="202">
-        <f>_xlfn.XLOOKUP(B139,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+      <c r="A139" s="199">
+        <v>39</v>
+      </c>
+      <c r="B139" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C139" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D139" s="199">
+        <f>_xlfn.XLOOKUP(B139,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
+      </c>
+      <c r="E139" s="199">
+        <v>150</v>
+      </c>
+      <c r="F139" s="199">
+        <f>_xlfn.XLOOKUP(B139,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G139" s="202">
+      <c r="G139" s="199">
         <f t="shared" si="3"/>
-        <v>768</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -6797,24 +7439,25 @@
         <v>40</v>
       </c>
       <c r="B140" s="201" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" s="202" t="s">
         <v>202</v>
       </c>
       <c r="D140" s="202">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B140,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E140" s="202">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="F140" s="202">
-        <f>_xlfn.XLOOKUP(B140,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B140,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G140" s="202">
         <f t="shared" si="3"/>
-        <v>768</v>
+        <v>570</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -6822,49 +7465,51 @@
         <v>40</v>
       </c>
       <c r="B141" s="201" t="s">
+        <v>164</v>
+      </c>
+      <c r="C141" s="202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" s="202">
+        <f>_xlfn.XLOOKUP(B141,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
+      </c>
+      <c r="E141" s="202">
+        <v>190</v>
+      </c>
+      <c r="F141" s="202">
+        <f>_xlfn.XLOOKUP(B141,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G141" s="202">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="202">
+        <v>40</v>
+      </c>
+      <c r="B142" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="C141" s="202" t="s">
+      <c r="C142" s="202" t="s">
         <v>200</v>
       </c>
-      <c r="D141" s="202">
-        <v>755</v>
-      </c>
-      <c r="E141" s="202">
-        <v>208</v>
-      </c>
-      <c r="F141" s="202">
-        <f>_xlfn.XLOOKUP(B141,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+      <c r="D142" s="202">
+        <f>_xlfn.XLOOKUP(B142,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
+      </c>
+      <c r="E142" s="202">
+        <v>136</v>
+      </c>
+      <c r="F142" s="202">
+        <f>_xlfn.XLOOKUP(B142,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G141" s="202">
-        <f t="shared" ref="G141:G168" si="9">E141*F141</f>
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="199">
-        <v>41</v>
-      </c>
-      <c r="B142" s="198" t="s">
-        <v>162</v>
-      </c>
-      <c r="C142" s="199" t="s">
-        <v>200</v>
-      </c>
-      <c r="D142" s="199">
-        <v>755</v>
-      </c>
-      <c r="E142" s="199">
-        <v>150</v>
-      </c>
-      <c r="F142" s="199">
-        <f>_xlfn.XLOOKUP(B142,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>7</v>
-      </c>
-      <c r="G142" s="199">
-        <f t="shared" si="9"/>
-        <v>1050</v>
+      <c r="G142" s="202">
+        <f t="shared" ref="G142:G169" si="10">E142*F142</f>
+        <v>952</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -6872,24 +7517,25 @@
         <v>41</v>
       </c>
       <c r="B143" s="198" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C143" s="199" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D143" s="199">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B143,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="E143" s="199">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F143" s="199">
-        <f>_xlfn.XLOOKUP(B143,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B143,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G143" s="199">
-        <f t="shared" si="9"/>
-        <v>840</v>
+        <f t="shared" si="10"/>
+        <v>630</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -6897,49 +7543,51 @@
         <v>41</v>
       </c>
       <c r="B144" s="198" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C144" s="199" t="s">
         <v>196</v>
       </c>
       <c r="D144" s="199">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B144,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E144" s="199">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F144" s="199">
-        <f>_xlfn.XLOOKUP(B144,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B144,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G144" s="199">
-        <f t="shared" si="9"/>
-        <v>840</v>
+        <f t="shared" si="10"/>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="202">
-        <v>42</v>
-      </c>
-      <c r="B145" s="201" t="s">
-        <v>166</v>
-      </c>
-      <c r="C145" s="202" t="s">
-        <v>203</v>
-      </c>
-      <c r="D145" s="202">
-        <v>565</v>
-      </c>
-      <c r="E145" s="202">
-        <v>236</v>
-      </c>
-      <c r="F145" s="202">
-        <f>_xlfn.XLOOKUP(B145,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>6</v>
-      </c>
-      <c r="G145" s="202">
-        <f t="shared" si="9"/>
-        <v>1416</v>
+      <c r="A145" s="199">
+        <v>41</v>
+      </c>
+      <c r="B145" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" s="199" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145" s="199">
+        <f>_xlfn.XLOOKUP(B145,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
+      </c>
+      <c r="E145" s="199">
+        <v>60</v>
+      </c>
+      <c r="F145" s="199">
+        <f>_xlfn.XLOOKUP(B145,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G145" s="199">
+        <f t="shared" si="10"/>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -6947,23 +7595,24 @@
         <v>42</v>
       </c>
       <c r="B146" s="201" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C146" s="202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D146" s="202">
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(B146,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E146" s="202">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F146" s="202">
-        <f>_xlfn.XLOOKUP(B146,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>3</v>
+        <f>_xlfn.XLOOKUP(B146,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
       </c>
       <c r="G146" s="202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>768</v>
       </c>
     </row>
@@ -6972,49 +7621,51 @@
         <v>42</v>
       </c>
       <c r="B147" s="201" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C147" s="202" t="s">
         <v>204</v>
       </c>
       <c r="D147" s="202">
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(B147,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="E147" s="202">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="F147" s="202">
-        <f>_xlfn.XLOOKUP(B147,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B147,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G147" s="202">
-        <f t="shared" si="9"/>
-        <v>768</v>
+        <f t="shared" si="10"/>
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="199">
-        <v>43</v>
-      </c>
-      <c r="B148" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="C148" s="199" t="s">
-        <v>203</v>
-      </c>
-      <c r="D148" s="199">
-        <v>565</v>
-      </c>
-      <c r="E148" s="199">
-        <v>215</v>
-      </c>
-      <c r="F148" s="199">
-        <f>_xlfn.XLOOKUP(B148,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>6</v>
-      </c>
-      <c r="G148" s="199">
-        <f t="shared" si="9"/>
-        <v>1290</v>
+      <c r="A148" s="202">
+        <v>42</v>
+      </c>
+      <c r="B148" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="C148" s="202" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" s="202">
+        <f>_xlfn.XLOOKUP(B148,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
+      </c>
+      <c r="E148" s="202">
+        <v>128</v>
+      </c>
+      <c r="F148" s="202">
+        <f>_xlfn.XLOOKUP(B148,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G148" s="202">
+        <f t="shared" si="10"/>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -7022,23 +7673,24 @@
         <v>43</v>
       </c>
       <c r="B149" s="198" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C149" s="199" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D149" s="199">
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(B149,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="E149" s="199">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="F149" s="199">
-        <f>_xlfn.XLOOKUP(B149,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>3</v>
+        <f>_xlfn.XLOOKUP(B149,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
       </c>
       <c r="G149" s="199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>690</v>
       </c>
     </row>
@@ -7047,49 +7699,51 @@
         <v>43</v>
       </c>
       <c r="B150" s="198" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C150" s="199" t="s">
         <v>204</v>
       </c>
       <c r="D150" s="199">
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(B150,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="E150" s="199">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="F150" s="199">
-        <f>_xlfn.XLOOKUP(B150,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B150,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G150" s="199">
-        <f t="shared" si="9"/>
-        <v>642</v>
+        <f t="shared" si="10"/>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="202">
-        <v>44</v>
-      </c>
-      <c r="B151" s="201" t="s">
-        <v>170</v>
-      </c>
-      <c r="C151" s="202" t="s">
-        <v>196</v>
-      </c>
-      <c r="D151" s="202">
-        <v>330</v>
-      </c>
-      <c r="E151" s="202">
-        <v>150</v>
-      </c>
-      <c r="F151" s="202">
-        <f>_xlfn.XLOOKUP(B151,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>7</v>
-      </c>
-      <c r="G151" s="202">
-        <f t="shared" si="9"/>
-        <v>1050</v>
+      <c r="A151" s="199">
+        <v>43</v>
+      </c>
+      <c r="B151" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="C151" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="D151" s="199">
+        <f>_xlfn.XLOOKUP(B151,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
+      </c>
+      <c r="E151" s="199">
+        <v>115</v>
+      </c>
+      <c r="F151" s="199">
+        <f>_xlfn.XLOOKUP(B151,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G151" s="199">
+        <f t="shared" si="10"/>
+        <v>345</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -7097,24 +7751,25 @@
         <v>44</v>
       </c>
       <c r="B152" s="201" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C152" s="202" t="s">
         <v>196</v>
       </c>
       <c r="D152" s="202">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B152,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E152" s="202">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="F152" s="202">
-        <f>_xlfn.XLOOKUP(B152,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B152,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
       <c r="G152" s="202">
-        <f t="shared" si="9"/>
-        <v>1050</v>
+        <f t="shared" si="10"/>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -7122,49 +7777,51 @@
         <v>44</v>
       </c>
       <c r="B153" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C153" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D153" s="202">
+        <f>_xlfn.XLOOKUP(B153,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
+      </c>
+      <c r="E153" s="202">
+        <v>75</v>
+      </c>
+      <c r="F153" s="202">
+        <f>_xlfn.XLOOKUP(B153,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G153" s="202">
+        <f t="shared" si="10"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="202">
+        <v>44</v>
+      </c>
+      <c r="B154" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="C153" s="202" t="s">
+      <c r="C154" s="202" t="s">
         <v>203</v>
       </c>
-      <c r="D153" s="202">
-        <v>565</v>
-      </c>
-      <c r="E153" s="202">
-        <v>150</v>
-      </c>
-      <c r="F153" s="202">
-        <f>_xlfn.XLOOKUP(B153,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+      <c r="D154" s="202">
+        <f>_xlfn.XLOOKUP(B154,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
+      </c>
+      <c r="E154" s="202">
+        <v>75</v>
+      </c>
+      <c r="F154" s="202">
+        <f>_xlfn.XLOOKUP(B154,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
-      <c r="G153" s="202">
-        <f t="shared" si="9"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="199">
-        <v>45</v>
-      </c>
-      <c r="B154" s="198" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154" s="199" t="s">
-        <v>202</v>
-      </c>
-      <c r="D154" s="199">
-        <v>155</v>
-      </c>
-      <c r="E154" s="199">
-        <v>105</v>
-      </c>
-      <c r="F154" s="199">
-        <f>_xlfn.XLOOKUP(B154,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>3</v>
-      </c>
-      <c r="G154" s="199">
-        <f t="shared" si="9"/>
-        <v>315</v>
+      <c r="G154" s="202">
+        <f t="shared" si="10"/>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -7172,24 +7829,25 @@
         <v>45</v>
       </c>
       <c r="B155" s="198" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C155" s="199" t="s">
         <v>202</v>
       </c>
       <c r="D155" s="199">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B155,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E155" s="199">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="F155" s="199">
-        <f>_xlfn.XLOOKUP(B155,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B155,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G155" s="199">
-        <f t="shared" si="9"/>
-        <v>363</v>
+        <f t="shared" si="10"/>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -7197,24 +7855,25 @@
         <v>45</v>
       </c>
       <c r="B156" s="198" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C156" s="199" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D156" s="199">
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(B156,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E156" s="199">
-        <v>680</v>
+        <v>60</v>
       </c>
       <c r="F156" s="199">
-        <f>_xlfn.XLOOKUP(B156,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B156,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G156" s="199">
-        <f t="shared" si="9"/>
-        <v>2040</v>
+        <f t="shared" si="10"/>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -7222,69 +7881,74 @@
         <v>45</v>
       </c>
       <c r="B157" s="198" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C157" s="199" t="s">
         <v>204</v>
       </c>
       <c r="D157" s="199">
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(B157,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="E157" s="199">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="F157" s="199">
-        <f>_xlfn.XLOOKUP(B157,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B157,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G157" s="199">
-        <f t="shared" si="9"/>
-        <v>2040</v>
+        <f t="shared" si="10"/>
+        <v>1020</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="202">
-        <v>46</v>
-      </c>
-      <c r="B158" s="204" t="s">
-        <v>153</v>
-      </c>
-      <c r="C158" s="203" t="s">
-        <v>197</v>
-      </c>
-      <c r="D158" s="203">
-        <v>150</v>
-      </c>
-      <c r="E158" s="203">
-        <v>260</v>
-      </c>
-      <c r="F158" s="203">
+      <c r="A158" s="199">
+        <v>45</v>
+      </c>
+      <c r="B158" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="D158" s="199">
+        <f>_xlfn.XLOOKUP(B158,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
+      </c>
+      <c r="E158" s="199">
+        <v>340</v>
+      </c>
+      <c r="F158" s="199">
+        <f>_xlfn.XLOOKUP(B158,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G158" s="203">
-        <v>780</v>
+      <c r="G158" s="199">
+        <f t="shared" si="10"/>
+        <v>1020</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="202">
         <v>46</v>
       </c>
-      <c r="B159" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="C159" s="202" t="s">
+      <c r="B159" s="204" t="s">
+        <v>153</v>
+      </c>
+      <c r="C159" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="D159" s="202">
-        <v>150</v>
-      </c>
-      <c r="E159" s="202">
-        <v>260</v>
-      </c>
-      <c r="F159" s="202">
+      <c r="D159" s="203">
+        <f>_xlfn.XLOOKUP(B159,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
+      </c>
+      <c r="E159" s="203">
+        <v>175</v>
+      </c>
+      <c r="F159" s="203">
         <v>3</v>
       </c>
-      <c r="G159" s="202">
+      <c r="G159" s="203">
         <v>780</v>
       </c>
     </row>
@@ -7293,22 +7957,23 @@
         <v>46</v>
       </c>
       <c r="B160" s="201" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C160" s="202" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D160" s="202">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B160,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="E160" s="202">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="F160" s="202">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G160" s="202">
-        <v>2100</v>
+        <v>780</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -7316,16 +7981,17 @@
         <v>46</v>
       </c>
       <c r="B161" s="201" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C161" s="202" t="s">
         <v>196</v>
       </c>
       <c r="D161" s="202">
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(B161,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="E161" s="202">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="F161" s="202">
         <v>7</v>
@@ -7335,29 +8001,27 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="199">
-        <v>47</v>
-      </c>
-      <c r="B162" s="198" t="s">
-        <v>155</v>
-      </c>
-      <c r="C162" s="199" t="s">
-        <v>198</v>
-      </c>
-      <c r="D162" s="199">
-        <f>_xlfn.XLOOKUP(B162,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
-      </c>
-      <c r="E162" s="199">
-        <v>500</v>
-      </c>
-      <c r="F162" s="199">
-        <f>_xlfn.XLOOKUP(B162,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>2</v>
-      </c>
-      <c r="G162" s="199">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+      <c r="A162" s="202">
+        <v>46</v>
+      </c>
+      <c r="B162" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162" s="202" t="s">
+        <v>196</v>
+      </c>
+      <c r="D162" s="202">
+        <f>_xlfn.XLOOKUP(B162,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
+      </c>
+      <c r="E162" s="202">
+        <v>175</v>
+      </c>
+      <c r="F162" s="202">
+        <v>7</v>
+      </c>
+      <c r="G162" s="202">
+        <v>2100</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -7365,25 +8029,25 @@
         <v>47</v>
       </c>
       <c r="B163" s="198" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C163" s="199" t="s">
         <v>198</v>
       </c>
       <c r="D163" s="199">
-        <f>_xlfn.XLOOKUP(B163,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(B163,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E163" s="199">
-        <v>500</v>
+        <v>105</v>
       </c>
       <c r="F163" s="199">
-        <f>_xlfn.XLOOKUP(B163,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B163,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
       <c r="G163" s="199">
-        <f t="shared" si="9"/>
-        <v>1000</v>
+        <f t="shared" si="10"/>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -7391,25 +8055,25 @@
         <v>47</v>
       </c>
       <c r="B164" s="198" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C164" s="199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D164" s="199">
-        <f>_xlfn.XLOOKUP(B164,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B164,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="E164" s="199">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="F164" s="199">
-        <f>_xlfn.XLOOKUP(B164,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>6</v>
+        <f>_xlfn.XLOOKUP(B164,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>2</v>
       </c>
       <c r="G164" s="199">
-        <f t="shared" si="9"/>
-        <v>1434</v>
+        <f t="shared" si="10"/>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -7417,50 +8081,51 @@
         <v>47</v>
       </c>
       <c r="B165" s="198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165" s="199" t="s">
         <v>199</v>
       </c>
       <c r="D165" s="199">
-        <f>_xlfn.XLOOKUP(B165,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(B165,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="E165" s="199">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="F165" s="199">
-        <f>_xlfn.XLOOKUP(B165,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B165,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
       <c r="G165" s="199">
-        <f t="shared" si="9"/>
-        <v>1200</v>
+        <f t="shared" si="10"/>
+        <v>606</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="202">
-        <v>48</v>
-      </c>
-      <c r="B166" s="201" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" s="202" t="s">
-        <v>202</v>
-      </c>
-      <c r="D166" s="202">
-        <v>155</v>
-      </c>
-      <c r="E166" s="202">
-        <v>560</v>
-      </c>
-      <c r="F166" s="202">
-        <f>_xlfn.XLOOKUP(B166,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
-        <v>3</v>
-      </c>
-      <c r="G166" s="202">
-        <f t="shared" si="9"/>
-        <v>1680</v>
+      <c r="A166" s="199">
+        <v>47</v>
+      </c>
+      <c r="B166" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C166" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="D166" s="199">
+        <f>_xlfn.XLOOKUP(B166,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
+      </c>
+      <c r="E166" s="199">
+        <v>101</v>
+      </c>
+      <c r="F166" s="199">
+        <f>_xlfn.XLOOKUP(B166,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G166" s="199">
+        <f t="shared" si="10"/>
+        <v>606</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -7468,24 +8133,25 @@
         <v>48</v>
       </c>
       <c r="B167" s="201" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167" s="202" t="s">
         <v>202</v>
       </c>
       <c r="D167" s="202">
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(B167,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E167" s="202">
-        <v>560</v>
+        <v>310</v>
       </c>
       <c r="F167" s="202">
-        <f>_xlfn.XLOOKUP(B167,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B167,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G167" s="202">
-        <f t="shared" si="9"/>
-        <v>1680</v>
+        <f t="shared" si="10"/>
+        <v>930</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -7493,24 +8159,25 @@
         <v>48</v>
       </c>
       <c r="B168" s="201" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C168" s="202" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D168" s="202">
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(B168,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="E168" s="202">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="F168" s="202">
-        <f>_xlfn.XLOOKUP(B168,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B168,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G168" s="202">
-        <f t="shared" si="9"/>
-        <v>1440</v>
+        <f t="shared" si="10"/>
+        <v>930</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -7518,27 +8185,1130 @@
         <v>48</v>
       </c>
       <c r="B169" s="201" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C169" s="202" t="s">
         <v>204</v>
       </c>
       <c r="D169" s="202">
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(B169,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="E169" s="202">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="F169" s="202">
-        <f>_xlfn.XLOOKUP(B169,ComponentDuration!$B$2:$B$24,ComponentDuration!$F$2:$F$24)</f>
+        <f>_xlfn.XLOOKUP(B169,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
       <c r="G169" s="202">
-        <f t="shared" ref="G169" si="10">E169*F169</f>
-        <v>1440</v>
+        <f t="shared" si="10"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="202">
+        <v>48</v>
+      </c>
+      <c r="B170" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" s="202" t="s">
+        <v>204</v>
+      </c>
+      <c r="D170" s="202">
+        <f>_xlfn.XLOOKUP(B170,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
+      </c>
+      <c r="E170" s="202">
+        <v>350</v>
+      </c>
+      <c r="F170" s="202">
+        <f>_xlfn.XLOOKUP(B170,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G170" s="202">
+        <f t="shared" ref="G170:G173" si="11">E170*F170</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B171" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="C171" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="D171" s="249">
+        <v>990</v>
+      </c>
+      <c r="E171" s="249">
+        <v>192</v>
+      </c>
+      <c r="F171" s="249">
+        <f>_xlfn.XLOOKUP(B171,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>5</v>
+      </c>
+      <c r="G171" s="249">
+        <f t="shared" si="11"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B172" s="198" t="s">
+        <v>153</v>
+      </c>
+      <c r="C172" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="D172" s="249">
+        <v>300</v>
+      </c>
+      <c r="E172" s="249">
+        <v>285</v>
+      </c>
+      <c r="F172" s="249">
+        <f>_xlfn.XLOOKUP(B172,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G172" s="249">
+        <f t="shared" si="11"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B173" s="198" t="s">
+        <v>154</v>
+      </c>
+      <c r="C173" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="D173" s="249">
+        <v>300</v>
+      </c>
+      <c r="E173" s="249">
+        <v>285</v>
+      </c>
+      <c r="F173" s="249">
+        <f>_xlfn.XLOOKUP(B173,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G173" s="249">
+        <f t="shared" si="11"/>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="262" t="s">
+        <v>220</v>
+      </c>
+      <c r="B174" s="201" t="s">
+        <v>157</v>
+      </c>
+      <c r="C174" s="201" t="s">
+        <v>199</v>
+      </c>
+      <c r="D174" s="263">
+        <v>700</v>
+      </c>
+      <c r="E174" s="263">
+        <v>112</v>
+      </c>
+      <c r="F174" s="263">
+        <f>_xlfn.XLOOKUP(B174,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G174" s="263">
+        <f t="shared" ref="G174:G213" si="12">E174*F174</f>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="262" t="s">
+        <v>220</v>
+      </c>
+      <c r="B175" s="201" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175" s="201" t="s">
+        <v>199</v>
+      </c>
+      <c r="D175" s="263">
+        <v>700</v>
+      </c>
+      <c r="E175" s="263">
+        <v>114</v>
+      </c>
+      <c r="F175" s="263">
+        <f>_xlfn.XLOOKUP(B175,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G175" s="263">
+        <f t="shared" si="12"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="262" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="C176" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D176" s="263">
+        <v>300</v>
+      </c>
+      <c r="E176" s="263">
+        <v>80</v>
+      </c>
+      <c r="F176" s="263">
+        <f>_xlfn.XLOOKUP(B176,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G176" s="263">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="262" t="s">
+        <v>220</v>
+      </c>
+      <c r="B177" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D177" s="263">
+        <v>290</v>
+      </c>
+      <c r="E177" s="263">
+        <v>80</v>
+      </c>
+      <c r="F177" s="263">
+        <f>_xlfn.XLOOKUP(B177,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G177" s="263">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B178" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="C178" s="198" t="s">
+        <v>201</v>
+      </c>
+      <c r="D178" s="249">
+        <v>160</v>
+      </c>
+      <c r="E178" s="249">
+        <v>90</v>
+      </c>
+      <c r="F178" s="249">
+        <f>_xlfn.XLOOKUP(B178,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G178" s="249">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B179" s="198" t="s">
+        <v>162</v>
+      </c>
+      <c r="C179" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="D179" s="249">
+        <v>1510</v>
+      </c>
+      <c r="E179" s="249">
+        <v>75</v>
+      </c>
+      <c r="F179" s="249">
+        <f>_xlfn.XLOOKUP(B179,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G179" s="249">
+        <f t="shared" si="12"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B180" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="C180" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="D180" s="249">
+        <v>310</v>
+      </c>
+      <c r="E180" s="249">
+        <v>100</v>
+      </c>
+      <c r="F180" s="249">
+        <f>_xlfn.XLOOKUP(B180,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G180" s="249">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B181" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="C181" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="D181" s="249">
+        <v>310</v>
+      </c>
+      <c r="E181" s="249">
+        <v>100</v>
+      </c>
+      <c r="F181" s="249">
+        <f>_xlfn.XLOOKUP(B181,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G181" s="249">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B182" s="198" t="s">
+        <v>165</v>
+      </c>
+      <c r="C182" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="D182" s="249">
+        <v>60</v>
+      </c>
+      <c r="E182" s="249">
+        <v>55</v>
+      </c>
+      <c r="F182" s="249">
+        <f>_xlfn.XLOOKUP(B182,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G182" s="249">
+        <f t="shared" si="12"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B183" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C183" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="D183" s="249">
+        <v>1130</v>
+      </c>
+      <c r="E183" s="249">
+        <v>75</v>
+      </c>
+      <c r="F183" s="249">
+        <f>_xlfn.XLOOKUP(B183,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G183" s="249">
+        <f t="shared" si="12"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="262" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="C184" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D184" s="263">
+        <v>300</v>
+      </c>
+      <c r="E184" s="263">
+        <v>130</v>
+      </c>
+      <c r="F184" s="263">
+        <f>_xlfn.XLOOKUP(B184,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G184" s="263">
+        <f t="shared" si="12"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="262" t="s">
+        <v>222</v>
+      </c>
+      <c r="B185" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C185" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D185" s="263">
+        <v>290</v>
+      </c>
+      <c r="E185" s="263">
+        <v>130</v>
+      </c>
+      <c r="F185" s="263">
+        <f>_xlfn.XLOOKUP(B185,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G185" s="263">
+        <f t="shared" si="12"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="262" t="s">
+        <v>222</v>
+      </c>
+      <c r="B186" s="201" t="s">
+        <v>162</v>
+      </c>
+      <c r="C186" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D186" s="263">
+        <v>1510</v>
+      </c>
+      <c r="E186" s="263">
+        <v>135</v>
+      </c>
+      <c r="F186" s="263">
+        <f>_xlfn.XLOOKUP(B186,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G186" s="263">
+        <f t="shared" si="12"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="B187" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C187" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D187" s="249">
+        <v>700</v>
+      </c>
+      <c r="E187" s="249">
+        <v>115</v>
+      </c>
+      <c r="F187" s="249">
+        <f>_xlfn.XLOOKUP(B187,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G187" s="249">
+        <f t="shared" si="12"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="B188" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D188" s="249">
+        <v>700</v>
+      </c>
+      <c r="E188" s="249">
+        <v>120</v>
+      </c>
+      <c r="F188" s="249">
+        <f>_xlfn.XLOOKUP(B188,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G188" s="249">
+        <f t="shared" si="12"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="B189" s="198" t="s">
+        <v>167</v>
+      </c>
+      <c r="C189" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="D189" s="249">
+        <v>80</v>
+      </c>
+      <c r="E189" s="249">
+        <v>201</v>
+      </c>
+      <c r="F189" s="249">
+        <f>_xlfn.XLOOKUP(B189,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G189" s="249">
+        <f t="shared" si="12"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="B190" s="198" t="s">
+        <v>169</v>
+      </c>
+      <c r="C190" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="D190" s="249">
+        <v>80</v>
+      </c>
+      <c r="E190" s="249">
+        <v>201</v>
+      </c>
+      <c r="F190" s="249">
+        <f>_xlfn.XLOOKUP(B190,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G190" s="249">
+        <f t="shared" si="12"/>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="262" t="s">
+        <v>224</v>
+      </c>
+      <c r="B191" s="201" t="s">
+        <v>182</v>
+      </c>
+      <c r="C191" s="201" t="s">
+        <v>196</v>
+      </c>
+      <c r="D191" s="263">
+        <v>990</v>
+      </c>
+      <c r="E191" s="263">
+        <v>249</v>
+      </c>
+      <c r="F191" s="263">
+        <f>_xlfn.XLOOKUP(B191,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>5</v>
+      </c>
+      <c r="G191" s="263">
+        <f t="shared" si="12"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="262" t="s">
+        <v>224</v>
+      </c>
+      <c r="B192" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C192" s="201" t="s">
+        <v>196</v>
+      </c>
+      <c r="D192" s="263">
+        <v>660</v>
+      </c>
+      <c r="E192" s="263">
+        <v>120</v>
+      </c>
+      <c r="F192" s="263">
+        <f>_xlfn.XLOOKUP(B192,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G192" s="263">
+        <f t="shared" si="12"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="262" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193" s="201" t="s">
+        <v>196</v>
+      </c>
+      <c r="D193" s="263">
+        <v>660</v>
+      </c>
+      <c r="E193" s="263">
+        <v>150</v>
+      </c>
+      <c r="F193" s="263">
+        <f>_xlfn.XLOOKUP(B193,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G193" s="263">
+        <f t="shared" si="12"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="107" t="s">
+        <v>225</v>
+      </c>
+      <c r="B194" s="198" t="s">
+        <v>162</v>
+      </c>
+      <c r="C194" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="D194" s="249">
+        <v>1510</v>
+      </c>
+      <c r="E194" s="249">
+        <v>90</v>
+      </c>
+      <c r="F194" s="249">
+        <f>_xlfn.XLOOKUP(B194,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G194" s="249">
+        <f t="shared" si="12"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="107" t="s">
+        <v>225</v>
+      </c>
+      <c r="B195" s="198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C195" s="198" t="s">
+        <v>203</v>
+      </c>
+      <c r="D195" s="249">
+        <v>1130</v>
+      </c>
+      <c r="E195" s="249">
+        <v>70</v>
+      </c>
+      <c r="F195" s="249">
+        <f>_xlfn.XLOOKUP(B195,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G195" s="249">
+        <f t="shared" si="12"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="262" t="s">
+        <v>226</v>
+      </c>
+      <c r="B196" s="201" t="s">
+        <v>161</v>
+      </c>
+      <c r="C196" s="201" t="s">
+        <v>201</v>
+      </c>
+      <c r="D196" s="263">
+        <v>160</v>
+      </c>
+      <c r="E196" s="263">
+        <v>355</v>
+      </c>
+      <c r="F196" s="263">
+        <f>_xlfn.XLOOKUP(B196,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G196" s="263">
+        <f t="shared" si="12"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="262" t="s">
+        <v>226</v>
+      </c>
+      <c r="B197" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="C197" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="D197" s="263">
+        <v>60</v>
+      </c>
+      <c r="E197" s="263">
+        <v>100</v>
+      </c>
+      <c r="F197" s="263">
+        <f>_xlfn.XLOOKUP(B197,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G197" s="263">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="262" t="s">
+        <v>226</v>
+      </c>
+      <c r="B198" s="201" t="s">
+        <v>166</v>
+      </c>
+      <c r="C198" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="D198" s="263">
+        <v>1130</v>
+      </c>
+      <c r="E198" s="263">
+        <v>130</v>
+      </c>
+      <c r="F198" s="263">
+        <f>_xlfn.XLOOKUP(B198,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G198" s="263">
+        <f t="shared" si="12"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="B199" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="C199" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="D199" s="249">
+        <v>990</v>
+      </c>
+      <c r="E199" s="249">
+        <v>245</v>
+      </c>
+      <c r="F199" s="249">
+        <f>_xlfn.XLOOKUP(B199,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>5</v>
+      </c>
+      <c r="G199" s="249">
+        <f t="shared" si="12"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="B200" s="198" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="D200" s="249">
+        <v>300</v>
+      </c>
+      <c r="E200" s="249">
+        <v>110</v>
+      </c>
+      <c r="F200" s="249">
+        <f>_xlfn.XLOOKUP(B200,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G200" s="249">
+        <f t="shared" si="12"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="B201" s="198" t="s">
+        <v>154</v>
+      </c>
+      <c r="C201" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="D201" s="249">
+        <v>300</v>
+      </c>
+      <c r="E201" s="249">
+        <v>108</v>
+      </c>
+      <c r="F201" s="249">
+        <f>_xlfn.XLOOKUP(B201,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G201" s="249">
+        <f t="shared" si="12"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="262" t="s">
+        <v>228</v>
+      </c>
+      <c r="B202" s="201" t="s">
+        <v>157</v>
+      </c>
+      <c r="C202" s="201" t="s">
+        <v>199</v>
+      </c>
+      <c r="D202" s="263">
+        <v>700</v>
+      </c>
+      <c r="E202" s="263">
+        <v>115</v>
+      </c>
+      <c r="F202" s="263">
+        <f>_xlfn.XLOOKUP(B202,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G202" s="263">
+        <f t="shared" si="12"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="262" t="s">
+        <v>228</v>
+      </c>
+      <c r="B203" s="201" t="s">
+        <v>158</v>
+      </c>
+      <c r="C203" s="201" t="s">
+        <v>199</v>
+      </c>
+      <c r="D203" s="263">
+        <v>700</v>
+      </c>
+      <c r="E203" s="263">
+        <v>110</v>
+      </c>
+      <c r="F203" s="263">
+        <f>_xlfn.XLOOKUP(B203,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G203" s="263">
+        <f t="shared" si="12"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="262" t="s">
+        <v>228</v>
+      </c>
+      <c r="B204" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="C204" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D204" s="263">
+        <v>300</v>
+      </c>
+      <c r="E204" s="263">
+        <v>106</v>
+      </c>
+      <c r="F204" s="263">
+        <f>_xlfn.XLOOKUP(B204,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G204" s="263">
+        <f t="shared" si="12"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="262" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C205" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D205" s="263">
+        <v>290</v>
+      </c>
+      <c r="E205" s="263">
+        <v>106</v>
+      </c>
+      <c r="F205" s="263">
+        <f>_xlfn.XLOOKUP(B205,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G205" s="263">
+        <f t="shared" si="12"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B206" s="198" t="s">
+        <v>159</v>
+      </c>
+      <c r="C206" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="D206" s="249">
+        <v>300</v>
+      </c>
+      <c r="E206" s="249">
+        <v>100</v>
+      </c>
+      <c r="F206" s="249">
+        <f>_xlfn.XLOOKUP(B206,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G206" s="249">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B207" s="198" t="s">
+        <v>160</v>
+      </c>
+      <c r="C207" s="198" t="s">
+        <v>200</v>
+      </c>
+      <c r="D207" s="249">
+        <v>290</v>
+      </c>
+      <c r="E207" s="249">
+        <v>100</v>
+      </c>
+      <c r="F207" s="249">
+        <f>_xlfn.XLOOKUP(B207,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G207" s="249">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208" s="198" t="s">
+        <v>163</v>
+      </c>
+      <c r="C208" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="D208" s="249">
+        <v>310</v>
+      </c>
+      <c r="E208" s="249">
+        <v>420</v>
+      </c>
+      <c r="F208" s="249">
+        <f>_xlfn.XLOOKUP(B208,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G208" s="249">
+        <f t="shared" si="12"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B209" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="C209" s="198" t="s">
+        <v>202</v>
+      </c>
+      <c r="D209" s="249">
+        <v>310</v>
+      </c>
+      <c r="E209" s="249">
+        <v>425</v>
+      </c>
+      <c r="F209" s="249">
+        <f>_xlfn.XLOOKUP(B209,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G209" s="249">
+        <f t="shared" si="12"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="B210" s="201" t="s">
+        <v>167</v>
+      </c>
+      <c r="C210" s="201" t="s">
+        <v>204</v>
+      </c>
+      <c r="D210" s="263">
+        <v>80</v>
+      </c>
+      <c r="E210" s="263">
+        <v>50</v>
+      </c>
+      <c r="F210" s="263">
+        <f>_xlfn.XLOOKUP(B210,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G210" s="263">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="B211" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="C211" s="201" t="s">
+        <v>204</v>
+      </c>
+      <c r="D211" s="263">
+        <v>80</v>
+      </c>
+      <c r="E211" s="263">
+        <v>50</v>
+      </c>
+      <c r="F211" s="263">
+        <f>_xlfn.XLOOKUP(B211,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G211" s="263">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C212" s="201" t="s">
+        <v>196</v>
+      </c>
+      <c r="D212" s="263">
+        <v>660</v>
+      </c>
+      <c r="E212" s="263">
+        <v>175</v>
+      </c>
+      <c r="F212" s="263">
+        <f>_xlfn.XLOOKUP(B212,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G212" s="263">
+        <f t="shared" si="12"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="262" t="s">
+        <v>230</v>
+      </c>
+      <c r="B213" s="201" t="s">
+        <v>168</v>
+      </c>
+      <c r="C213" s="201" t="s">
+        <v>196</v>
+      </c>
+      <c r="D213" s="263">
+        <v>660</v>
+      </c>
+      <c r="E213" s="263">
+        <v>170</v>
+      </c>
+      <c r="F213" s="263">
+        <f>_xlfn.XLOOKUP(B213,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G213" s="263">
+        <f t="shared" si="12"/>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7547,8 +9317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="C42" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="B58" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7558,7 +9328,7 @@
     <col min="3" max="3" width="23.21875" style="144" customWidth="1"/>
     <col min="4" max="4" width="56.21875" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" customWidth="1"/>
@@ -7615,11 +9385,11 @@
       </c>
       <c r="G2" s="173">
         <f>ROUND(F2*60*60,0)*$O$2</f>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H2" s="173">
-        <f>_xlfn.XLOOKUP(C2,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(C2,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="I2" s="153" t="s">
         <v>36</v>
@@ -7637,7 +9407,7 @@
       </c>
       <c r="N2" s="184"/>
       <c r="O2" s="184">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -7661,11 +9431,11 @@
       </c>
       <c r="G3" s="171">
         <f t="shared" ref="G3:G66" si="1">ROUND(F3*60*60,0)*$O$2</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H3" s="171">
-        <f>_xlfn.XLOOKUP(C3,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
+        <f>_xlfn.XLOOKUP(C3,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>40</v>
       </c>
       <c r="I3" s="150" t="s">
         <v>36</v>
@@ -7703,11 +9473,11 @@
       </c>
       <c r="G4" s="174">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H4" s="174">
-        <f>_xlfn.XLOOKUP(C4,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(C4,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>36</v>
@@ -7745,11 +9515,11 @@
       </c>
       <c r="G5" s="171">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H5" s="171">
-        <f>_xlfn.XLOOKUP(C5,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>20</v>
+        <f>_xlfn.XLOOKUP(C5,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>40</v>
       </c>
       <c r="I5" s="150" t="s">
         <v>36</v>
@@ -7786,11 +9556,11 @@
       </c>
       <c r="G6" s="174">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="H6" s="174">
-        <f>_xlfn.XLOOKUP(C6,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(C6,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
       </c>
       <c r="I6" s="152" t="str">
         <f>_xlfn.XLOOKUP(E6,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -7829,11 +9599,11 @@
       </c>
       <c r="G7" s="174">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H7" s="174">
-        <f>_xlfn.XLOOKUP(C7,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(C7,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
       </c>
       <c r="I7" s="151" t="s">
         <v>36</v>
@@ -7871,11 +9641,11 @@
       </c>
       <c r="G8" s="174">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="H8" s="174">
-        <f>_xlfn.XLOOKUP(C8,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(C8,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
       </c>
       <c r="I8" s="152" t="str">
         <f>_xlfn.XLOOKUP(E8,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -7914,11 +9684,11 @@
       </c>
       <c r="G9" s="174">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="H9" s="174">
-        <f>_xlfn.XLOOKUP(C9,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(C9,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
       </c>
       <c r="I9" s="152" t="str">
         <f>_xlfn.XLOOKUP(E9,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -7957,11 +9727,11 @@
       </c>
       <c r="G10" s="174">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H10" s="174">
-        <f>_xlfn.XLOOKUP(C10,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>495</v>
+        <f>_xlfn.XLOOKUP(C10,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>990</v>
       </c>
       <c r="I10" s="152" t="str">
         <f>_xlfn.XLOOKUP(E10,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8000,11 +9770,11 @@
       </c>
       <c r="G11" s="171">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11" s="171">
-        <f>_xlfn.XLOOKUP(C11,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C11,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I11" s="149" t="str">
         <f>_xlfn.XLOOKUP(E11,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8043,11 +9813,11 @@
       </c>
       <c r="G12" s="171">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H12" s="171">
-        <f>_xlfn.XLOOKUP(C12,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C12,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I12" s="149" t="str">
         <f>_xlfn.XLOOKUP(E12,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8086,11 +9856,11 @@
       </c>
       <c r="G13" s="172">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H13" s="172">
-        <f>_xlfn.XLOOKUP(C13,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C13,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I13" s="45" t="str">
         <f>_xlfn.XLOOKUP(E13,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8118,11 +9888,11 @@
       </c>
       <c r="G14" s="173">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H14" s="173">
-        <f>_xlfn.XLOOKUP(C14,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C14,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I14" s="41" t="str">
         <f>_xlfn.XLOOKUP(E14,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8150,11 +9920,11 @@
       </c>
       <c r="G15" s="174">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H15" s="174">
-        <f>_xlfn.XLOOKUP(C15,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C15,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I15" s="42" t="str">
         <f>_xlfn.XLOOKUP(E15,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8182,11 +9952,11 @@
       </c>
       <c r="G16" s="178">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H16" s="178">
-        <f>_xlfn.XLOOKUP(C16,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C16,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I16" s="42" t="str">
         <f>_xlfn.XLOOKUP(E16,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8214,11 +9984,11 @@
       </c>
       <c r="G17" s="176">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H17" s="176">
-        <f>_xlfn.XLOOKUP(C17,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(C17,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="I17" s="43" t="str">
         <f>_xlfn.XLOOKUP(E17,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8246,11 +10016,11 @@
       </c>
       <c r="G18" s="177">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H18" s="177">
-        <f>_xlfn.XLOOKUP(C18,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(C18,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="I18" s="40" t="str">
         <f>_xlfn.XLOOKUP(E18,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8278,11 +10048,11 @@
       </c>
       <c r="G19" s="173">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H19" s="173">
-        <f>_xlfn.XLOOKUP(C19,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(C19,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="I19" s="41" t="str">
         <f>_xlfn.XLOOKUP(E19,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8310,11 +10080,11 @@
       </c>
       <c r="G20" s="178">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H20" s="178">
-        <f>_xlfn.XLOOKUP(C20,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>35</v>
+        <f>_xlfn.XLOOKUP(C20,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>70</v>
       </c>
       <c r="I20" s="44" t="str">
         <f>_xlfn.XLOOKUP(E20,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8342,11 +10112,11 @@
       </c>
       <c r="G21" s="179">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H21" s="179">
-        <f>_xlfn.XLOOKUP(C21,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C21,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I21" s="38" t="str">
         <f>_xlfn.XLOOKUP(E21,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8374,11 +10144,11 @@
       </c>
       <c r="G22" s="171">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H22" s="171">
-        <f>_xlfn.XLOOKUP(C22,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C22,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I22" s="39" t="str">
         <f>_xlfn.XLOOKUP(E22,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8406,11 +10176,11 @@
       </c>
       <c r="G23" s="171">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H23" s="171">
-        <f>_xlfn.XLOOKUP(C23,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C23,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I23" s="39" t="str">
         <f>_xlfn.XLOOKUP(E23,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8438,11 +10208,11 @@
       </c>
       <c r="G24" s="171">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H24" s="171">
-        <f>_xlfn.XLOOKUP(C24,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C24,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I24" s="39" t="str">
         <f>_xlfn.XLOOKUP(E24,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8470,11 +10240,11 @@
       </c>
       <c r="G25" s="171">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H25" s="171">
-        <f>_xlfn.XLOOKUP(C25,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C25,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I25" s="39" t="str">
         <f>_xlfn.XLOOKUP(E25,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8502,11 +10272,11 @@
       </c>
       <c r="G26" s="177">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H26" s="177">
-        <f>_xlfn.XLOOKUP(C26,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C26,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I26" s="40" t="str">
         <f>_xlfn.XLOOKUP(E26,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8534,11 +10304,11 @@
       </c>
       <c r="G27" s="173">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H27" s="173">
-        <f>_xlfn.XLOOKUP(C27,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C27,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I27" s="41" t="str">
         <f>_xlfn.XLOOKUP(E27,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8566,11 +10336,11 @@
       </c>
       <c r="G28" s="174">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H28" s="174">
-        <f>_xlfn.XLOOKUP(C28,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C28,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I28" s="42" t="str">
         <f>_xlfn.XLOOKUP(E28,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8598,11 +10368,11 @@
       </c>
       <c r="G29" s="174">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H29" s="174">
-        <f>_xlfn.XLOOKUP(C29,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C29,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I29" s="42" t="str">
         <f>_xlfn.XLOOKUP(E29,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8630,11 +10400,11 @@
       </c>
       <c r="G30" s="174">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H30" s="174">
-        <f>_xlfn.XLOOKUP(C30,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C30,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I30" s="42" t="str">
         <f>_xlfn.XLOOKUP(E30,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8662,11 +10432,11 @@
       </c>
       <c r="G31" s="174">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H31" s="174">
-        <f>_xlfn.XLOOKUP(C31,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C31,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I31" s="42" t="str">
         <f>_xlfn.XLOOKUP(E31,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8694,11 +10464,11 @@
       </c>
       <c r="G32" s="178">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H32" s="178">
-        <f>_xlfn.XLOOKUP(C32,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>350</v>
+        <f>_xlfn.XLOOKUP(C32,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>700</v>
       </c>
       <c r="I32" s="44" t="str">
         <f>_xlfn.XLOOKUP(E32,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8726,11 +10496,11 @@
       </c>
       <c r="G33" s="176">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H33" s="176">
-        <f>_xlfn.XLOOKUP(C33,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C33,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I33" s="43" t="str">
         <f>_xlfn.XLOOKUP(E33,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8758,11 +10528,11 @@
       </c>
       <c r="G34" s="171">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H34" s="171">
-        <f>_xlfn.XLOOKUP(C34,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C34,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I34" s="39" t="str">
         <f>_xlfn.XLOOKUP(E34,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8790,11 +10560,11 @@
       </c>
       <c r="G35" s="177">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H35" s="177">
-        <f>_xlfn.XLOOKUP(C35,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>150</v>
+        <f>_xlfn.XLOOKUP(C35,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>300</v>
       </c>
       <c r="I35" s="40" t="str">
         <f>_xlfn.XLOOKUP(E35,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8822,11 +10592,11 @@
       </c>
       <c r="G36" s="173">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H36" s="173">
-        <f>_xlfn.XLOOKUP(C36,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(C36,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="I36" s="41" t="str">
         <f>_xlfn.XLOOKUP(E36,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8854,11 +10624,11 @@
       </c>
       <c r="G37" s="174">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H37" s="174">
-        <f>_xlfn.XLOOKUP(C37,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(C37,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="I37" s="42" t="str">
         <f>_xlfn.XLOOKUP(E37,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8886,11 +10656,11 @@
       </c>
       <c r="G38" s="178">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H38" s="178">
-        <f>_xlfn.XLOOKUP(C38,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>145</v>
+        <f>_xlfn.XLOOKUP(C38,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>290</v>
       </c>
       <c r="I38" s="44" t="str">
         <f>_xlfn.XLOOKUP(E38,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8918,11 +10688,11 @@
       </c>
       <c r="G39" s="176">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H39" s="176">
-        <f>_xlfn.XLOOKUP(C39,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>80</v>
+        <f>_xlfn.XLOOKUP(C39,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>160</v>
       </c>
       <c r="I39" s="43" t="str">
         <f>_xlfn.XLOOKUP(E39,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8950,11 +10720,11 @@
       </c>
       <c r="G40" s="177">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="H40" s="177">
-        <f>_xlfn.XLOOKUP(C40,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>80</v>
+        <f>_xlfn.XLOOKUP(C40,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>160</v>
       </c>
       <c r="I40" s="40" t="str">
         <f>_xlfn.XLOOKUP(E40,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -8982,11 +10752,11 @@
       </c>
       <c r="G41" s="173">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H41" s="173">
-        <f>_xlfn.XLOOKUP(C41,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(C41,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="I41" s="41" t="str">
         <f>_xlfn.XLOOKUP(E41,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9014,11 +10784,11 @@
       </c>
       <c r="G42" s="174">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H42" s="174">
-        <f>_xlfn.XLOOKUP(C42,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(C42,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="I42" s="42" t="str">
         <f>_xlfn.XLOOKUP(E42,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9046,11 +10816,11 @@
       </c>
       <c r="G43" s="174">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="H43" s="174">
-        <f>_xlfn.XLOOKUP(C43,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(C43,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="I43" s="42" t="str">
         <f>_xlfn.XLOOKUP(E43,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9078,11 +10848,11 @@
       </c>
       <c r="G44" s="174">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H44" s="174">
-        <f>_xlfn.XLOOKUP(C44,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(C44,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="I44" s="42" t="str">
         <f>_xlfn.XLOOKUP(E44,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9110,11 +10880,11 @@
       </c>
       <c r="G45" s="174">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H45" s="174">
-        <f>_xlfn.XLOOKUP(C45,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(C45,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="I45" s="42" t="str">
         <f>_xlfn.XLOOKUP(E45,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9142,11 +10912,11 @@
       </c>
       <c r="G46" s="174">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="H46" s="174">
-        <f>_xlfn.XLOOKUP(C46,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(C46,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="I46" s="42" t="str">
         <f>_xlfn.XLOOKUP(E46,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9174,11 +10944,11 @@
       </c>
       <c r="G47" s="178">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H47" s="178">
-        <f>_xlfn.XLOOKUP(C47,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>755</v>
+        <f>_xlfn.XLOOKUP(C47,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1510</v>
       </c>
       <c r="I47" s="44" t="str">
         <f>_xlfn.XLOOKUP(E47,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9206,11 +10976,11 @@
       </c>
       <c r="G48" s="176">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H48" s="176">
-        <f>_xlfn.XLOOKUP(C48,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(C48,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="I48" s="43" t="str">
         <f>_xlfn.XLOOKUP(E48,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9238,11 +11008,11 @@
       </c>
       <c r="G49" s="171">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H49" s="171">
-        <f>_xlfn.XLOOKUP(C49,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(C49,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="I49" s="39" t="str">
         <f>_xlfn.XLOOKUP(E49,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9270,11 +11040,11 @@
       </c>
       <c r="G50" s="177">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H50" s="177">
-        <f>_xlfn.XLOOKUP(C50,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(C50,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="I50" s="40" t="str">
         <f>_xlfn.XLOOKUP(E50,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9302,11 +11072,11 @@
       </c>
       <c r="G51" s="173">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H51" s="173">
-        <f>_xlfn.XLOOKUP(C51,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(C51,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="I51" s="41" t="str">
         <f>_xlfn.XLOOKUP(E51,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9334,11 +11104,11 @@
       </c>
       <c r="G52" s="174">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H52" s="174">
-        <f>_xlfn.XLOOKUP(C52,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(C52,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="I52" s="42" t="str">
         <f>_xlfn.XLOOKUP(E52,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9366,11 +11136,11 @@
       </c>
       <c r="G53" s="178">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H53" s="178">
-        <f>_xlfn.XLOOKUP(C53,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>155</v>
+        <f>_xlfn.XLOOKUP(C53,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>310</v>
       </c>
       <c r="I53" s="44" t="str">
         <f>_xlfn.XLOOKUP(E53,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9398,11 +11168,11 @@
       </c>
       <c r="G54" s="176">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H54" s="176">
-        <f>_xlfn.XLOOKUP(C54,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(C54,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="I54" s="43" t="str">
         <f>_xlfn.XLOOKUP(E54,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9430,11 +11200,11 @@
       </c>
       <c r="G55" s="177">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H55" s="177">
-        <f>_xlfn.XLOOKUP(C55,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>30</v>
+        <f>_xlfn.XLOOKUP(C55,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>60</v>
       </c>
       <c r="I55" s="40" t="str">
         <f>_xlfn.XLOOKUP(E55,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9462,11 +11232,11 @@
       </c>
       <c r="G56" s="173">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H56" s="173">
-        <f>_xlfn.XLOOKUP(C56,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(C56,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="I56" s="41" t="str">
         <f>_xlfn.XLOOKUP(E56,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9494,11 +11264,11 @@
       </c>
       <c r="G57" s="174">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H57" s="174">
-        <f>_xlfn.XLOOKUP(C57,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(C57,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="I57" s="42" t="str">
         <f>_xlfn.XLOOKUP(E57,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9526,11 +11296,11 @@
       </c>
       <c r="G58" s="174">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>410</v>
       </c>
       <c r="H58" s="174">
-        <f>_xlfn.XLOOKUP(C58,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(C58,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="I58" s="42" t="str">
         <f>_xlfn.XLOOKUP(E58,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9558,11 +11328,11 @@
       </c>
       <c r="G59" s="174">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="H59" s="174">
-        <f>_xlfn.XLOOKUP(C59,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(C59,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="I59" s="42" t="str">
         <f>_xlfn.XLOOKUP(E59,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9590,11 +11360,11 @@
       </c>
       <c r="G60" s="174">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="H60" s="174">
-        <f>_xlfn.XLOOKUP(C60,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(C60,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="I60" s="42" t="str">
         <f>_xlfn.XLOOKUP(E60,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9622,11 +11392,11 @@
       </c>
       <c r="G61" s="178">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="H61" s="178">
-        <f>_xlfn.XLOOKUP(C61,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>565</v>
+        <f>_xlfn.XLOOKUP(C61,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>1130</v>
       </c>
       <c r="I61" s="44" t="str">
         <f>_xlfn.XLOOKUP(E61,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9654,11 +11424,11 @@
       </c>
       <c r="G62" s="176">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H62" s="176">
-        <f>_xlfn.XLOOKUP(C62,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(C62,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="I62" s="43" t="str">
         <f>_xlfn.XLOOKUP(E62,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9686,11 +11456,11 @@
       </c>
       <c r="G63" s="171">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H63" s="171">
-        <f>_xlfn.XLOOKUP(C63,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(C63,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="I63" s="39" t="str">
         <f>_xlfn.XLOOKUP(E63,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9718,11 +11488,11 @@
       </c>
       <c r="G64" s="172">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H64" s="172">
-        <f>_xlfn.XLOOKUP(C64,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(C64,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="I64" s="45" t="str">
         <f>_xlfn.XLOOKUP(E64,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9750,11 +11520,11 @@
       </c>
       <c r="G65" s="173">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H65" s="173">
-        <f>_xlfn.XLOOKUP(C65,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(C65,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="I65" s="41" t="str">
         <f>_xlfn.XLOOKUP(E65,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9782,11 +11552,11 @@
       </c>
       <c r="G66" s="174">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H66" s="174">
-        <f>_xlfn.XLOOKUP(C66,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(C66,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="I66" s="42" t="str">
         <f>_xlfn.XLOOKUP(E66,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9814,11 +11584,11 @@
       </c>
       <c r="G67" s="175">
         <f t="shared" ref="G67:G81" si="3">ROUND(F67*60*60,0)*$O$2</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H67" s="175">
-        <f>_xlfn.XLOOKUP(C67,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>40</v>
+        <f>_xlfn.XLOOKUP(C67,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>80</v>
       </c>
       <c r="I67" s="46" t="str">
         <f>_xlfn.XLOOKUP(E67,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9846,11 +11616,11 @@
       </c>
       <c r="G68" s="180">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H68" s="180">
-        <f>_xlfn.XLOOKUP(C68,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C68,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I68" s="47" t="str">
         <f>_xlfn.XLOOKUP(E68,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9878,11 +11648,11 @@
       </c>
       <c r="G69" s="181">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H69" s="181">
-        <f>_xlfn.XLOOKUP(C69,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C69,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I69" s="48" t="str">
         <f>_xlfn.XLOOKUP(E69,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9910,11 +11680,11 @@
       </c>
       <c r="G70" s="181">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H70" s="181">
-        <f>_xlfn.XLOOKUP(C70,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C70,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I70" s="48" t="str">
         <f>_xlfn.XLOOKUP(E70,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9942,11 +11712,11 @@
       </c>
       <c r="G71" s="181">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H71" s="181">
-        <f>_xlfn.XLOOKUP(C71,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C71,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I71" s="48" t="str">
         <f>_xlfn.XLOOKUP(E71,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -9974,11 +11744,11 @@
       </c>
       <c r="G72" s="181">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H72" s="181">
-        <f>_xlfn.XLOOKUP(C72,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C72,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I72" s="48" t="str">
         <f>_xlfn.XLOOKUP(E72,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10006,11 +11776,11 @@
       </c>
       <c r="G73" s="181">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H73" s="181">
-        <f>_xlfn.XLOOKUP(C73,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C73,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I73" s="48" t="str">
         <f>_xlfn.XLOOKUP(E73,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10038,11 +11808,11 @@
       </c>
       <c r="G74" s="182">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H74" s="182">
-        <f>_xlfn.XLOOKUP(C74,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C74,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I74" s="49" t="str">
         <f>_xlfn.XLOOKUP(E74,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10070,11 +11840,11 @@
       </c>
       <c r="G75" s="183">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H75" s="183">
-        <f>_xlfn.XLOOKUP(C75,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C75,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I75" s="50" t="str">
         <f>_xlfn.XLOOKUP(E75,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10102,11 +11872,11 @@
       </c>
       <c r="G76" s="174">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H76" s="174">
-        <f>_xlfn.XLOOKUP(C76,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C76,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I76" s="42" t="str">
         <f>_xlfn.XLOOKUP(E76,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10134,11 +11904,11 @@
       </c>
       <c r="G77" s="174">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="H77" s="174">
-        <f>_xlfn.XLOOKUP(C77,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C77,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I77" s="42" t="str">
         <f>_xlfn.XLOOKUP(E77,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10166,11 +11936,11 @@
       </c>
       <c r="G78" s="174">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H78" s="174">
-        <f>_xlfn.XLOOKUP(C78,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C78,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I78" s="42" t="str">
         <f>_xlfn.XLOOKUP(E78,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10198,11 +11968,11 @@
       </c>
       <c r="G79" s="174">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H79" s="174">
-        <f>_xlfn.XLOOKUP(C79,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C79,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I79" s="42" t="str">
         <f>_xlfn.XLOOKUP(E79,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10230,11 +12000,11 @@
       </c>
       <c r="G80" s="174">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H80" s="174">
-        <f>_xlfn.XLOOKUP(C80,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C80,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I80" s="42" t="str">
         <f>_xlfn.XLOOKUP(E80,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -10262,11 +12032,11 @@
       </c>
       <c r="G81" s="178">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H81" s="178">
-        <f>_xlfn.XLOOKUP(C81,ComponentDuration!$B$2:$B$24,ComponentDuration!$E$2:$E$24)</f>
-        <v>330</v>
+        <f>_xlfn.XLOOKUP(C81,ComponentDuration!$C$2:$C$24,ComponentDuration!$F$2:$F$24)</f>
+        <v>660</v>
       </c>
       <c r="I81" s="44" t="str">
         <f>_xlfn.XLOOKUP(E81,MachineMaster!$H$2:$H$12,MachineMaster!$M$2:$M$12)</f>
@@ -17292,4 +19062,208 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731E839A-0E28-4AA4-BC5E-59AF7764C5D7}">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="225"/>
+    <col min="2" max="2" width="17.88671875" style="225" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="225" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="225" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="225" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="225"/>
+    <col min="7" max="7" width="16.21875" style="225" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="225"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="231" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="213" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="213" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="224" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="224" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="224" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="224" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="253" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="227" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="243" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="227" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="234">
+        <v>2.0371784999999999E-3</v>
+      </c>
+      <c r="G3" s="239">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="255"/>
+      <c r="C4" s="233" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="244" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="233" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="235">
+        <v>1.0185893E-3</v>
+      </c>
+      <c r="G4" s="240">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="250" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="226" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="245" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="226" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="228">
+        <v>2.0371784999999999E-3</v>
+      </c>
+      <c r="G5" s="246">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="252"/>
+      <c r="C6" s="230" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="247" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="230" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="232">
+        <v>1.0185893E-3</v>
+      </c>
+      <c r="G6" s="248">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="253" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="259" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="256" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="227" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="234">
+        <v>4.2022765999999998E-3</v>
+      </c>
+      <c r="G7" s="239">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="255"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="237" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="238">
+        <v>5.6129715999999998E-3</v>
+      </c>
+      <c r="G8" s="242">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="255"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="237" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="238">
+        <v>1.2121212100000001E-2</v>
+      </c>
+      <c r="G9" s="242">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="255"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="237" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="238">
+        <v>3.0374941E-3</v>
+      </c>
+      <c r="G10" s="242">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="254"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="258"/>
+      <c r="E11" s="229" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="236">
+        <v>2.4242424000000002E-3</v>
+      </c>
+      <c r="G11" s="241">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="C7:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DATA/DataMaster.xlsx
+++ b/DATA/DataMaster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\University\4th year\Thesis\Hopefully\Thesis\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3572382-BAA6-460E-B067-6FD45EABBF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93923253-AD78-4B78-AA2F-2A3E702BD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="237">
   <si>
     <t>MachineID</t>
   </si>
@@ -733,6 +733,24 @@
   </si>
   <si>
     <t>valid12</t>
+  </si>
+  <si>
+    <t>valid13</t>
+  </si>
+  <si>
+    <t>valid14</t>
+  </si>
+  <si>
+    <t>valid15</t>
+  </si>
+  <si>
+    <t>NumJob</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>NumMachine</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1126,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1701,6 +1719,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1737,10 +1761,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2066,7 +2090,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H12"/>
+      <selection activeCell="L1" activeCellId="1" sqref="H1:H12 L1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3040,7 +3064,7 @@
   <dimension ref="B1:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
-      <selection activeCell="F21" activeCellId="1" sqref="C21:D24 F21:F24"/>
+      <selection activeCell="F23" activeCellId="3" sqref="C6:D6 F6 C23:D24 F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3570,7 +3594,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="253" t="s">
+      <c r="B29" s="255" t="s">
         <v>191</v>
       </c>
       <c r="C29" s="214" t="s">
@@ -3581,7 +3605,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="254"/>
+      <c r="B30" s="256"/>
       <c r="C30" s="215" t="s">
         <v>176</v>
       </c>
@@ -3590,7 +3614,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="250" t="s">
+      <c r="B31" s="252" t="s">
         <v>192</v>
       </c>
       <c r="C31" s="217" t="s">
@@ -3601,7 +3625,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="252"/>
+      <c r="B32" s="254"/>
       <c r="C32" s="218" t="s">
         <v>179</v>
       </c>
@@ -3621,7 +3645,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="250" t="s">
+      <c r="B34" s="252" t="s">
         <v>194</v>
       </c>
       <c r="C34" s="219" t="s">
@@ -3632,7 +3656,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="251"/>
+      <c r="B35" s="253"/>
       <c r="C35" s="221" t="s">
         <v>154</v>
       </c>
@@ -3641,7 +3665,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="251"/>
+      <c r="B36" s="253"/>
       <c r="C36" s="221" t="s">
         <v>155</v>
       </c>
@@ -3650,7 +3674,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="251"/>
+      <c r="B37" s="253"/>
       <c r="C37" s="221" t="s">
         <v>156</v>
       </c>
@@ -3659,7 +3683,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="251"/>
+      <c r="B38" s="253"/>
       <c r="C38" s="221" t="s">
         <v>157</v>
       </c>
@@ -3668,7 +3692,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="251"/>
+      <c r="B39" s="253"/>
       <c r="C39" s="221" t="s">
         <v>158</v>
       </c>
@@ -3677,7 +3701,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="251"/>
+      <c r="B40" s="253"/>
       <c r="C40" s="221" t="s">
         <v>159</v>
       </c>
@@ -3686,7 +3710,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="251"/>
+      <c r="B41" s="253"/>
       <c r="C41" s="221" t="s">
         <v>160</v>
       </c>
@@ -3695,7 +3719,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="251"/>
+      <c r="B42" s="253"/>
       <c r="C42" s="221" t="s">
         <v>161</v>
       </c>
@@ -3704,7 +3728,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="251"/>
+      <c r="B43" s="253"/>
       <c r="C43" s="221" t="s">
         <v>162</v>
       </c>
@@ -3713,7 +3737,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="251"/>
+      <c r="B44" s="253"/>
       <c r="C44" s="221" t="s">
         <v>163</v>
       </c>
@@ -3722,7 +3746,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="251"/>
+      <c r="B45" s="253"/>
       <c r="C45" s="221" t="s">
         <v>164</v>
       </c>
@@ -3733,7 +3757,7 @@
       <c r="J45" s="196"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="251"/>
+      <c r="B46" s="253"/>
       <c r="C46" s="221" t="s">
         <v>165</v>
       </c>
@@ -3742,7 +3766,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="251"/>
+      <c r="B47" s="253"/>
       <c r="C47" s="221" t="s">
         <v>166</v>
       </c>
@@ -3751,7 +3775,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="251"/>
+      <c r="B48" s="253"/>
       <c r="C48" s="221" t="s">
         <v>167</v>
       </c>
@@ -3760,7 +3784,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="251"/>
+      <c r="B49" s="253"/>
       <c r="C49" s="221" t="s">
         <v>169</v>
       </c>
@@ -3769,7 +3793,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="251"/>
+      <c r="B50" s="253"/>
       <c r="C50" s="221" t="s">
         <v>170</v>
       </c>
@@ -3778,7 +3802,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="252"/>
+      <c r="B51" s="254"/>
       <c r="C51" s="222" t="s">
         <v>168</v>
       </c>
@@ -3798,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1E3C2B-EB2A-4B5B-9A38-8DCE83FFCF73}">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8308,7 +8332,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="262" t="s">
+      <c r="A174" s="250" t="s">
         <v>220</v>
       </c>
       <c r="B174" s="201" t="s">
@@ -8317,23 +8341,23 @@
       <c r="C174" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="D174" s="263">
+      <c r="D174" s="251">
         <v>700</v>
       </c>
-      <c r="E174" s="263">
+      <c r="E174" s="251">
         <v>112</v>
       </c>
-      <c r="F174" s="263">
+      <c r="F174" s="251">
         <f>_xlfn.XLOOKUP(B174,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
-      <c r="G174" s="263">
+      <c r="G174" s="251">
         <f t="shared" ref="G174:G213" si="12">E174*F174</f>
         <v>672</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="262" t="s">
+      <c r="A175" s="250" t="s">
         <v>220</v>
       </c>
       <c r="B175" s="201" t="s">
@@ -8342,23 +8366,23 @@
       <c r="C175" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="D175" s="263">
+      <c r="D175" s="251">
         <v>700</v>
       </c>
-      <c r="E175" s="263">
+      <c r="E175" s="251">
         <v>114</v>
       </c>
-      <c r="F175" s="263">
+      <c r="F175" s="251">
         <f>_xlfn.XLOOKUP(B175,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
-      <c r="G175" s="263">
+      <c r="G175" s="251">
         <f t="shared" si="12"/>
         <v>684</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="262" t="s">
+      <c r="A176" s="250" t="s">
         <v>220</v>
       </c>
       <c r="B176" s="201" t="s">
@@ -8367,23 +8391,23 @@
       <c r="C176" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="D176" s="263">
+      <c r="D176" s="251">
         <v>300</v>
       </c>
-      <c r="E176" s="263">
+      <c r="E176" s="251">
         <v>80</v>
       </c>
-      <c r="F176" s="263">
+      <c r="F176" s="251">
         <f>_xlfn.XLOOKUP(B176,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G176" s="263">
+      <c r="G176" s="251">
         <f t="shared" si="12"/>
         <v>240</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="262" t="s">
+      <c r="A177" s="250" t="s">
         <v>220</v>
       </c>
       <c r="B177" s="201" t="s">
@@ -8392,17 +8416,17 @@
       <c r="C177" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="D177" s="263">
+      <c r="D177" s="251">
         <v>290</v>
       </c>
-      <c r="E177" s="263">
+      <c r="E177" s="251">
         <v>80</v>
       </c>
-      <c r="F177" s="263">
+      <c r="F177" s="251">
         <f>_xlfn.XLOOKUP(B177,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G177" s="263">
+      <c r="G177" s="251">
         <f t="shared" si="12"/>
         <v>240</v>
       </c>
@@ -8558,7 +8582,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="262" t="s">
+      <c r="A184" s="250" t="s">
         <v>222</v>
       </c>
       <c r="B184" s="201" t="s">
@@ -8567,23 +8591,23 @@
       <c r="C184" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="D184" s="263">
+      <c r="D184" s="251">
         <v>300</v>
       </c>
-      <c r="E184" s="263">
+      <c r="E184" s="251">
         <v>130</v>
       </c>
-      <c r="F184" s="263">
+      <c r="F184" s="251">
         <f>_xlfn.XLOOKUP(B184,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G184" s="263">
+      <c r="G184" s="251">
         <f t="shared" si="12"/>
         <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="262" t="s">
+      <c r="A185" s="250" t="s">
         <v>222</v>
       </c>
       <c r="B185" s="201" t="s">
@@ -8592,23 +8616,23 @@
       <c r="C185" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="D185" s="263">
+      <c r="D185" s="251">
         <v>290</v>
       </c>
-      <c r="E185" s="263">
+      <c r="E185" s="251">
         <v>130</v>
       </c>
-      <c r="F185" s="263">
+      <c r="F185" s="251">
         <f>_xlfn.XLOOKUP(B185,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G185" s="263">
+      <c r="G185" s="251">
         <f t="shared" si="12"/>
         <v>390</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="262" t="s">
+      <c r="A186" s="250" t="s">
         <v>222</v>
       </c>
       <c r="B186" s="201" t="s">
@@ -8617,17 +8641,17 @@
       <c r="C186" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="D186" s="263">
+      <c r="D186" s="251">
         <v>1510</v>
       </c>
-      <c r="E186" s="263">
+      <c r="E186" s="251">
         <v>135</v>
       </c>
-      <c r="F186" s="263">
+      <c r="F186" s="251">
         <f>_xlfn.XLOOKUP(B186,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G186" s="263">
+      <c r="G186" s="251">
         <f t="shared" si="12"/>
         <v>945</v>
       </c>
@@ -8733,7 +8757,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="262" t="s">
+      <c r="A191" s="250" t="s">
         <v>224</v>
       </c>
       <c r="B191" s="201" t="s">
@@ -8742,23 +8766,23 @@
       <c r="C191" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="D191" s="263">
+      <c r="D191" s="251">
         <v>990</v>
       </c>
-      <c r="E191" s="263">
+      <c r="E191" s="251">
         <v>249</v>
       </c>
-      <c r="F191" s="263">
+      <c r="F191" s="251">
         <f>_xlfn.XLOOKUP(B191,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>5</v>
       </c>
-      <c r="G191" s="263">
+      <c r="G191" s="251">
         <f t="shared" si="12"/>
         <v>1245</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="262" t="s">
+      <c r="A192" s="250" t="s">
         <v>224</v>
       </c>
       <c r="B192" s="201" t="s">
@@ -8767,23 +8791,23 @@
       <c r="C192" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="D192" s="263">
+      <c r="D192" s="251">
         <v>660</v>
       </c>
-      <c r="E192" s="263">
+      <c r="E192" s="251">
         <v>120</v>
       </c>
-      <c r="F192" s="263">
+      <c r="F192" s="251">
         <f>_xlfn.XLOOKUP(B192,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G192" s="263">
+      <c r="G192" s="251">
         <f t="shared" si="12"/>
         <v>840</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="262" t="s">
+      <c r="A193" s="250" t="s">
         <v>224</v>
       </c>
       <c r="B193" s="201" t="s">
@@ -8792,17 +8816,17 @@
       <c r="C193" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="D193" s="263">
+      <c r="D193" s="251">
         <v>660</v>
       </c>
-      <c r="E193" s="263">
+      <c r="E193" s="251">
         <v>150</v>
       </c>
-      <c r="F193" s="263">
+      <c r="F193" s="251">
         <f>_xlfn.XLOOKUP(B193,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G193" s="263">
+      <c r="G193" s="251">
         <f t="shared" si="12"/>
         <v>1050</v>
       </c>
@@ -8858,7 +8882,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="262" t="s">
+      <c r="A196" s="250" t="s">
         <v>226</v>
       </c>
       <c r="B196" s="201" t="s">
@@ -8867,23 +8891,23 @@
       <c r="C196" s="201" t="s">
         <v>201</v>
       </c>
-      <c r="D196" s="263">
+      <c r="D196" s="251">
         <v>160</v>
       </c>
-      <c r="E196" s="263">
+      <c r="E196" s="251">
         <v>355</v>
       </c>
-      <c r="F196" s="263">
+      <c r="F196" s="251">
         <f>_xlfn.XLOOKUP(B196,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
-      <c r="G196" s="263">
+      <c r="G196" s="251">
         <f t="shared" si="12"/>
         <v>710</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="262" t="s">
+      <c r="A197" s="250" t="s">
         <v>226</v>
       </c>
       <c r="B197" s="201" t="s">
@@ -8892,23 +8916,23 @@
       <c r="C197" s="201" t="s">
         <v>203</v>
       </c>
-      <c r="D197" s="263">
+      <c r="D197" s="251">
         <v>60</v>
       </c>
-      <c r="E197" s="263">
+      <c r="E197" s="251">
         <v>100</v>
       </c>
-      <c r="F197" s="263">
+      <c r="F197" s="251">
         <f>_xlfn.XLOOKUP(B197,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>2</v>
       </c>
-      <c r="G197" s="263">
+      <c r="G197" s="251">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A198" s="262" t="s">
+      <c r="A198" s="250" t="s">
         <v>226</v>
       </c>
       <c r="B198" s="201" t="s">
@@ -8917,17 +8941,17 @@
       <c r="C198" s="201" t="s">
         <v>203</v>
       </c>
-      <c r="D198" s="263">
+      <c r="D198" s="251">
         <v>1130</v>
       </c>
-      <c r="E198" s="263">
+      <c r="E198" s="251">
         <v>130</v>
       </c>
-      <c r="F198" s="263">
+      <c r="F198" s="251">
         <f>_xlfn.XLOOKUP(B198,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
-      <c r="G198" s="263">
+      <c r="G198" s="251">
         <f t="shared" si="12"/>
         <v>780</v>
       </c>
@@ -9008,7 +9032,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="262" t="s">
+      <c r="A202" s="250" t="s">
         <v>228</v>
       </c>
       <c r="B202" s="201" t="s">
@@ -9017,23 +9041,23 @@
       <c r="C202" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="D202" s="263">
+      <c r="D202" s="251">
         <v>700</v>
       </c>
-      <c r="E202" s="263">
+      <c r="E202" s="251">
         <v>115</v>
       </c>
-      <c r="F202" s="263">
+      <c r="F202" s="251">
         <f>_xlfn.XLOOKUP(B202,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
-      <c r="G202" s="263">
+      <c r="G202" s="251">
         <f t="shared" si="12"/>
         <v>690</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="262" t="s">
+      <c r="A203" s="250" t="s">
         <v>228</v>
       </c>
       <c r="B203" s="201" t="s">
@@ -9042,23 +9066,23 @@
       <c r="C203" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="D203" s="263">
+      <c r="D203" s="251">
         <v>700</v>
       </c>
-      <c r="E203" s="263">
+      <c r="E203" s="251">
         <v>110</v>
       </c>
-      <c r="F203" s="263">
+      <c r="F203" s="251">
         <f>_xlfn.XLOOKUP(B203,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>6</v>
       </c>
-      <c r="G203" s="263">
+      <c r="G203" s="251">
         <f t="shared" si="12"/>
         <v>660</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="262" t="s">
+      <c r="A204" s="250" t="s">
         <v>228</v>
       </c>
       <c r="B204" s="201" t="s">
@@ -9067,23 +9091,23 @@
       <c r="C204" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="D204" s="263">
+      <c r="D204" s="251">
         <v>300</v>
       </c>
-      <c r="E204" s="263">
+      <c r="E204" s="251">
         <v>106</v>
       </c>
-      <c r="F204" s="263">
+      <c r="F204" s="251">
         <f>_xlfn.XLOOKUP(B204,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G204" s="263">
+      <c r="G204" s="251">
         <f t="shared" si="12"/>
         <v>318</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="262" t="s">
+      <c r="A205" s="250" t="s">
         <v>228</v>
       </c>
       <c r="B205" s="201" t="s">
@@ -9092,17 +9116,17 @@
       <c r="C205" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="D205" s="263">
+      <c r="D205" s="251">
         <v>290</v>
       </c>
-      <c r="E205" s="263">
+      <c r="E205" s="251">
         <v>106</v>
       </c>
-      <c r="F205" s="263">
+      <c r="F205" s="251">
         <f>_xlfn.XLOOKUP(B205,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G205" s="263">
+      <c r="G205" s="251">
         <f t="shared" si="12"/>
         <v>318</v>
       </c>
@@ -9208,7 +9232,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="262" t="s">
+      <c r="A210" s="250" t="s">
         <v>230</v>
       </c>
       <c r="B210" s="201" t="s">
@@ -9217,23 +9241,23 @@
       <c r="C210" s="201" t="s">
         <v>204</v>
       </c>
-      <c r="D210" s="263">
+      <c r="D210" s="251">
         <v>80</v>
       </c>
-      <c r="E210" s="263">
+      <c r="E210" s="251">
         <v>50</v>
       </c>
-      <c r="F210" s="263">
+      <c r="F210" s="251">
         <f>_xlfn.XLOOKUP(B210,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G210" s="263">
+      <c r="G210" s="251">
         <f t="shared" si="12"/>
         <v>150</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="262" t="s">
+      <c r="A211" s="250" t="s">
         <v>230</v>
       </c>
       <c r="B211" s="201" t="s">
@@ -9242,23 +9266,23 @@
       <c r="C211" s="201" t="s">
         <v>204</v>
       </c>
-      <c r="D211" s="263">
+      <c r="D211" s="251">
         <v>80</v>
       </c>
-      <c r="E211" s="263">
+      <c r="E211" s="251">
         <v>50</v>
       </c>
-      <c r="F211" s="263">
+      <c r="F211" s="251">
         <f>_xlfn.XLOOKUP(B211,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>3</v>
       </c>
-      <c r="G211" s="263">
+      <c r="G211" s="251">
         <f t="shared" si="12"/>
         <v>150</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="262" t="s">
+      <c r="A212" s="250" t="s">
         <v>230</v>
       </c>
       <c r="B212" s="201" t="s">
@@ -9267,23 +9291,23 @@
       <c r="C212" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="D212" s="263">
+      <c r="D212" s="251">
         <v>660</v>
       </c>
-      <c r="E212" s="263">
+      <c r="E212" s="251">
         <v>175</v>
       </c>
-      <c r="F212" s="263">
+      <c r="F212" s="251">
         <f>_xlfn.XLOOKUP(B212,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G212" s="263">
+      <c r="G212" s="251">
         <f t="shared" si="12"/>
         <v>1225</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="262" t="s">
+      <c r="A213" s="250" t="s">
         <v>230</v>
       </c>
       <c r="B213" s="201" t="s">
@@ -9292,19 +9316,294 @@
       <c r="C213" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="D213" s="263">
+      <c r="D213" s="251">
         <v>660</v>
       </c>
-      <c r="E213" s="263">
+      <c r="E213" s="251">
         <v>170</v>
       </c>
-      <c r="F213" s="263">
+      <c r="F213" s="251">
         <f>_xlfn.XLOOKUP(B213,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G213" s="263">
+      <c r="G213" s="251">
         <f t="shared" si="12"/>
         <v>1190</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" s="198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C214" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D214" s="249">
+        <v>700</v>
+      </c>
+      <c r="E214" s="249">
+        <v>115</v>
+      </c>
+      <c r="F214" s="249">
+        <f>_xlfn.XLOOKUP(B214,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G214" s="249">
+        <f t="shared" ref="G214:G221" si="13">E214*F214</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B215" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="C215" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D215" s="249">
+        <v>700</v>
+      </c>
+      <c r="E215" s="249">
+        <v>120</v>
+      </c>
+      <c r="F215" s="249">
+        <f>_xlfn.XLOOKUP(B215,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G215" s="249">
+        <f t="shared" si="13"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B216" s="264" t="s">
+        <v>170</v>
+      </c>
+      <c r="C216" s="264" t="s">
+        <v>196</v>
+      </c>
+      <c r="D216" s="265">
+        <v>660</v>
+      </c>
+      <c r="E216" s="265">
+        <v>175</v>
+      </c>
+      <c r="F216" s="265">
+        <f>_xlfn.XLOOKUP(B216,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G216" s="265">
+        <f t="shared" si="13"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="B217" s="264" t="s">
+        <v>168</v>
+      </c>
+      <c r="C217" s="264" t="s">
+        <v>196</v>
+      </c>
+      <c r="D217" s="265">
+        <v>660</v>
+      </c>
+      <c r="E217" s="265">
+        <v>170</v>
+      </c>
+      <c r="F217" s="265">
+        <f>_xlfn.XLOOKUP(B217,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G217" s="265">
+        <f t="shared" si="13"/>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="250" t="s">
+        <v>232</v>
+      </c>
+      <c r="B218" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="C218" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D218" s="251">
+        <v>300</v>
+      </c>
+      <c r="E218" s="251">
+        <v>100</v>
+      </c>
+      <c r="F218" s="251">
+        <f>_xlfn.XLOOKUP(B218,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G218" s="251">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="250" t="s">
+        <v>232</v>
+      </c>
+      <c r="B219" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" s="201" t="s">
+        <v>200</v>
+      </c>
+      <c r="D219" s="251">
+        <v>290</v>
+      </c>
+      <c r="E219" s="251">
+        <v>100</v>
+      </c>
+      <c r="F219" s="251">
+        <f>_xlfn.XLOOKUP(B219,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>3</v>
+      </c>
+      <c r="G219" s="251">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="250" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="C220" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="D220" s="251">
+        <v>60</v>
+      </c>
+      <c r="E220" s="251">
+        <v>55</v>
+      </c>
+      <c r="F220" s="251">
+        <f>_xlfn.XLOOKUP(B220,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>2</v>
+      </c>
+      <c r="G220" s="251">
+        <f t="shared" si="13"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="250" t="s">
+        <v>232</v>
+      </c>
+      <c r="B221" s="201" t="s">
+        <v>166</v>
+      </c>
+      <c r="C221" s="201" t="s">
+        <v>203</v>
+      </c>
+      <c r="D221" s="251">
+        <v>1130</v>
+      </c>
+      <c r="E221" s="251">
+        <v>75</v>
+      </c>
+      <c r="F221" s="251">
+        <f>_xlfn.XLOOKUP(B221,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>6</v>
+      </c>
+      <c r="G221" s="251">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="B222" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="C222" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="D222" s="249">
+        <v>990</v>
+      </c>
+      <c r="E222" s="249">
+        <v>100</v>
+      </c>
+      <c r="F222" s="249">
+        <f>_xlfn.XLOOKUP(B222,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>5</v>
+      </c>
+      <c r="G222" s="249">
+        <f t="shared" ref="G222:G224" si="14">E222*F222</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="B223" s="198" t="s">
+        <v>170</v>
+      </c>
+      <c r="C223" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="D223" s="249">
+        <v>660</v>
+      </c>
+      <c r="E223" s="249">
+        <v>100</v>
+      </c>
+      <c r="F223" s="249">
+        <f>_xlfn.XLOOKUP(B223,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G223" s="249">
+        <f t="shared" si="14"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="B224" s="264" t="s">
+        <v>168</v>
+      </c>
+      <c r="C224" s="264" t="s">
+        <v>196</v>
+      </c>
+      <c r="D224" s="265">
+        <v>660</v>
+      </c>
+      <c r="E224" s="265">
+        <v>100</v>
+      </c>
+      <c r="F224" s="265">
+        <f>_xlfn.XLOOKUP(B224,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
+        <v>7</v>
+      </c>
+      <c r="G224" s="265">
+        <f t="shared" si="14"/>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -9317,8 +9616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView topLeftCell="C34" zoomScale="97" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19066,10 +19365,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731E839A-0E28-4AA4-BC5E-59AF7764C5D7}">
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19084,7 +19383,7 @@
     <col min="8" max="16384" width="8.88671875" style="225"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="231" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="231" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B2" s="213" t="s">
         <v>186</v>
       </c>
@@ -19104,8 +19403,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="253" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="255" t="s">
         <v>191</v>
       </c>
       <c r="C3" s="227" t="s">
@@ -19124,8 +19423,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="255"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="257"/>
       <c r="C4" s="233" t="s">
         <v>176</v>
       </c>
@@ -19142,8 +19441,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="250" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="252" t="s">
         <v>192</v>
       </c>
       <c r="C5" s="226" t="s">
@@ -19162,8 +19461,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="252"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="254"/>
       <c r="C6" s="230" t="s">
         <v>179</v>
       </c>
@@ -19180,14 +19479,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="253" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="255" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="261" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="256" t="s">
+      <c r="D7" s="258" t="s">
         <v>196</v>
       </c>
       <c r="E7" s="227" t="s">
@@ -19200,10 +19499,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="255"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="257"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="257"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="259"/>
       <c r="E8" s="237" t="s">
         <v>35</v>
       </c>
@@ -19214,10 +19513,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="255"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="257"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="257"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="259"/>
       <c r="E9" s="237" t="s">
         <v>25</v>
       </c>
@@ -19228,10 +19527,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="255"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="257"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="257"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="259"/>
       <c r="E10" s="237" t="s">
         <v>51</v>
       </c>
@@ -19242,10 +19541,10 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="254"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="258"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="256"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="260"/>
       <c r="E11" s="229" t="s">
         <v>55</v>
       </c>
@@ -19255,6 +19554,183 @@
       <c r="G11" s="241">
         <v>45</v>
       </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="195" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="195" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="195" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14"/>
+      <c r="G14" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15"/>
+      <c r="G15" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16"/>
+      <c r="G16" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17"/>
+      <c r="G17" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18"/>
+      <c r="G18" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19"/>
+      <c r="G19" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20"/>
+      <c r="G20" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21"/>
+      <c r="G21" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22"/>
+      <c r="G22" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23"/>
+      <c r="G23" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24"/>
+      <c r="G24" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+      <c r="C29"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/DATA/DataMaster.xlsx
+++ b/DATA/DataMaster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\University\4th year\Thesis\Hopefully\Thesis\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\University\4th year\Thesis\Thesis\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93923253-AD78-4B78-AA2F-2A3E702BD405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7FE43F-5A94-421D-810D-36606E9A74D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1761,12 +1761,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3824,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1E3C2B-EB2A-4B5B-9A38-8DCE83FFCF73}">
   <dimension ref="A1:H224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9345,7 +9339,7 @@
         <v>700</v>
       </c>
       <c r="E214" s="249">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F214" s="249">
         <f>_xlfn.XLOOKUP(B214,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
@@ -9353,7 +9347,7 @@
       </c>
       <c r="G214" s="249">
         <f t="shared" ref="G214:G221" si="13">E214*F214</f>
-        <v>690</v>
+        <v>420</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -9370,7 +9364,7 @@
         <v>700</v>
       </c>
       <c r="E215" s="249">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F215" s="249">
         <f>_xlfn.XLOOKUP(B215,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
@@ -9378,57 +9372,57 @@
       </c>
       <c r="G215" s="249">
         <f t="shared" si="13"/>
-        <v>720</v>
+        <v>420</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="B216" s="264" t="s">
+      <c r="B216" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="C216" s="264" t="s">
+      <c r="C216" s="198" t="s">
         <v>196</v>
       </c>
-      <c r="D216" s="265">
+      <c r="D216" s="249">
         <v>660</v>
       </c>
-      <c r="E216" s="265">
-        <v>175</v>
-      </c>
-      <c r="F216" s="265">
+      <c r="E216" s="249">
+        <v>70</v>
+      </c>
+      <c r="F216" s="249">
         <f>_xlfn.XLOOKUP(B216,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G216" s="265">
+      <c r="G216" s="249">
         <f t="shared" si="13"/>
-        <v>1225</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="B217" s="264" t="s">
+      <c r="B217" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="C217" s="264" t="s">
+      <c r="C217" s="198" t="s">
         <v>196</v>
       </c>
-      <c r="D217" s="265">
+      <c r="D217" s="249">
         <v>660</v>
       </c>
-      <c r="E217" s="265">
-        <v>170</v>
-      </c>
-      <c r="F217" s="265">
+      <c r="E217" s="249">
+        <v>70</v>
+      </c>
+      <c r="F217" s="249">
         <f>_xlfn.XLOOKUP(B217,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G217" s="265">
+      <c r="G217" s="249">
         <f t="shared" si="13"/>
-        <v>1190</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -9445,7 +9439,7 @@
         <v>300</v>
       </c>
       <c r="E218" s="251">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F218" s="251">
         <f>_xlfn.XLOOKUP(B218,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
@@ -9453,7 +9447,7 @@
       </c>
       <c r="G218" s="251">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -9470,7 +9464,7 @@
         <v>290</v>
       </c>
       <c r="E219" s="251">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F219" s="251">
         <f>_xlfn.XLOOKUP(B219,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
@@ -9478,7 +9472,7 @@
       </c>
       <c r="G219" s="251">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -9495,7 +9489,7 @@
         <v>60</v>
       </c>
       <c r="E220" s="251">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F220" s="251">
         <f>_xlfn.XLOOKUP(B220,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
@@ -9503,7 +9497,7 @@
       </c>
       <c r="G220" s="251">
         <f t="shared" si="13"/>
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -9520,7 +9514,7 @@
         <v>1130</v>
       </c>
       <c r="E221" s="251">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="F221" s="251">
         <f>_xlfn.XLOOKUP(B221,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
@@ -9528,7 +9522,7 @@
       </c>
       <c r="G221" s="251">
         <f t="shared" si="13"/>
-        <v>450</v>
+        <v>792</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -9545,7 +9539,7 @@
         <v>990</v>
       </c>
       <c r="E222" s="249">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F222" s="249">
         <f>_xlfn.XLOOKUP(B222,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
@@ -9553,7 +9547,7 @@
       </c>
       <c r="G222" s="249">
         <f t="shared" ref="G222:G224" si="14">E222*F222</f>
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -9570,7 +9564,7 @@
         <v>660</v>
       </c>
       <c r="E223" s="249">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="F223" s="249">
         <f>_xlfn.XLOOKUP(B223,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
@@ -9578,32 +9572,32 @@
       </c>
       <c r="G223" s="249">
         <f t="shared" si="14"/>
-        <v>700</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="264" t="s">
+      <c r="B224" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="C224" s="264" t="s">
+      <c r="C224" s="198" t="s">
         <v>196</v>
       </c>
-      <c r="D224" s="265">
+      <c r="D224" s="249">
         <v>660</v>
       </c>
-      <c r="E224" s="265">
-        <v>100</v>
-      </c>
-      <c r="F224" s="265">
+      <c r="E224" s="249">
+        <v>175</v>
+      </c>
+      <c r="F224" s="249">
         <f>_xlfn.XLOOKUP(B224,ComponentDuration!$C$2:$C$24,ComponentDuration!$G$2:$G$24)</f>
         <v>7</v>
       </c>
-      <c r="G224" s="265">
+      <c r="G224" s="249">
         <f t="shared" si="14"/>
-        <v>700</v>
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
